--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -636,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4549,688 +4549,6 @@
       <c r="R76" s="10" t="n"/>
       <c r="S76" s="6" t="n"/>
       <c r="T76" s="6" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n"/>
-      <c r="B77" s="5" t="n"/>
-      <c r="C77" s="5" t="n"/>
-      <c r="D77" s="5" t="n"/>
-      <c r="E77" s="5" t="n"/>
-      <c r="F77" s="5" t="n"/>
-      <c r="G77" s="5" t="n"/>
-      <c r="H77" s="5" t="n"/>
-      <c r="I77" s="5" t="n"/>
-      <c r="J77" s="5" t="n"/>
-      <c r="K77" s="5" t="n"/>
-      <c r="L77" s="5" t="n"/>
-      <c r="M77" s="5" t="n"/>
-      <c r="N77" s="5" t="n"/>
-      <c r="O77" s="5" t="n"/>
-      <c r="P77" s="5" t="n"/>
-      <c r="Q77" s="5" t="n"/>
-      <c r="R77" s="5" t="n"/>
-      <c r="S77" s="6" t="n"/>
-      <c r="T77" s="6" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n"/>
-      <c r="B78" s="5" t="n"/>
-      <c r="C78" s="5" t="n"/>
-      <c r="D78" s="5" t="n"/>
-      <c r="E78" s="5" t="n"/>
-      <c r="F78" s="5" t="n"/>
-      <c r="G78" s="5" t="n"/>
-      <c r="H78" s="5" t="n"/>
-      <c r="I78" s="5" t="n"/>
-      <c r="J78" s="5" t="n"/>
-      <c r="K78" s="5" t="n"/>
-      <c r="L78" s="5" t="n"/>
-      <c r="M78" s="5" t="n"/>
-      <c r="N78" s="5" t="n"/>
-      <c r="O78" s="5" t="n"/>
-      <c r="P78" s="5" t="n"/>
-      <c r="Q78" s="5" t="n"/>
-      <c r="R78" s="5" t="n"/>
-      <c r="S78" s="6" t="n"/>
-      <c r="T78" s="6" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n"/>
-      <c r="B79" s="5" t="n"/>
-      <c r="C79" s="5" t="n"/>
-      <c r="D79" s="5" t="n"/>
-      <c r="E79" s="5" t="n"/>
-      <c r="F79" s="5" t="n"/>
-      <c r="G79" s="5" t="n"/>
-      <c r="H79" s="5" t="n"/>
-      <c r="I79" s="5" t="n"/>
-      <c r="J79" s="5" t="n"/>
-      <c r="K79" s="5" t="n"/>
-      <c r="L79" s="5" t="n"/>
-      <c r="M79" s="5" t="n"/>
-      <c r="N79" s="5" t="n"/>
-      <c r="O79" s="5" t="n"/>
-      <c r="P79" s="5" t="n"/>
-      <c r="Q79" s="5" t="n"/>
-      <c r="R79" s="5" t="n"/>
-      <c r="S79" s="6" t="n"/>
-      <c r="T79" s="6" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n"/>
-      <c r="B80" s="5" t="n"/>
-      <c r="C80" s="5" t="n"/>
-      <c r="D80" s="5" t="n"/>
-      <c r="E80" s="5" t="n"/>
-      <c r="F80" s="5" t="n"/>
-      <c r="G80" s="5" t="n"/>
-      <c r="H80" s="5" t="n"/>
-      <c r="I80" s="5" t="n"/>
-      <c r="J80" s="5" t="n"/>
-      <c r="K80" s="5" t="n"/>
-      <c r="L80" s="5" t="n"/>
-      <c r="M80" s="5" t="n"/>
-      <c r="N80" s="5" t="n"/>
-      <c r="O80" s="5" t="n"/>
-      <c r="P80" s="5" t="n"/>
-      <c r="Q80" s="5" t="n"/>
-      <c r="R80" s="5" t="n"/>
-      <c r="S80" s="6" t="n"/>
-      <c r="T80" s="6" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n"/>
-      <c r="B81" s="5" t="n"/>
-      <c r="C81" s="5" t="n"/>
-      <c r="D81" s="5" t="n"/>
-      <c r="E81" s="5" t="n"/>
-      <c r="F81" s="5" t="n"/>
-      <c r="G81" s="5" t="n"/>
-      <c r="H81" s="5" t="n"/>
-      <c r="I81" s="5" t="n"/>
-      <c r="J81" s="5" t="n"/>
-      <c r="K81" s="5" t="n"/>
-      <c r="L81" s="5" t="n"/>
-      <c r="M81" s="5" t="n"/>
-      <c r="N81" s="5" t="n"/>
-      <c r="O81" s="5" t="n"/>
-      <c r="P81" s="5" t="n"/>
-      <c r="Q81" s="5" t="n"/>
-      <c r="R81" s="5" t="n"/>
-      <c r="S81" s="6" t="n"/>
-      <c r="T81" s="6" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n"/>
-      <c r="B82" s="5" t="n"/>
-      <c r="C82" s="5" t="n"/>
-      <c r="D82" s="5" t="n"/>
-      <c r="E82" s="5" t="n"/>
-      <c r="F82" s="5" t="n"/>
-      <c r="G82" s="5" t="n"/>
-      <c r="H82" s="5" t="n"/>
-      <c r="I82" s="5" t="n"/>
-      <c r="J82" s="5" t="n"/>
-      <c r="K82" s="5" t="n"/>
-      <c r="L82" s="5" t="n"/>
-      <c r="M82" s="5" t="n"/>
-      <c r="N82" s="5" t="n"/>
-      <c r="O82" s="5" t="n"/>
-      <c r="P82" s="5" t="n"/>
-      <c r="Q82" s="5" t="n"/>
-      <c r="R82" s="5" t="n"/>
-      <c r="S82" s="6" t="n"/>
-      <c r="T82" s="6" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n"/>
-      <c r="B83" s="5" t="n"/>
-      <c r="C83" s="5" t="n"/>
-      <c r="D83" s="5" t="n"/>
-      <c r="E83" s="5" t="n"/>
-      <c r="F83" s="5" t="n"/>
-      <c r="G83" s="5" t="n"/>
-      <c r="H83" s="5" t="n"/>
-      <c r="I83" s="5" t="n"/>
-      <c r="J83" s="5" t="n"/>
-      <c r="K83" s="5" t="n"/>
-      <c r="L83" s="5" t="n"/>
-      <c r="M83" s="5" t="n"/>
-      <c r="N83" s="5" t="n"/>
-      <c r="O83" s="5" t="n"/>
-      <c r="P83" s="5" t="n"/>
-      <c r="Q83" s="5" t="n"/>
-      <c r="R83" s="5" t="n"/>
-      <c r="S83" s="6" t="n"/>
-      <c r="T83" s="6" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n"/>
-      <c r="B84" s="5" t="n"/>
-      <c r="C84" s="5" t="n"/>
-      <c r="D84" s="5" t="n"/>
-      <c r="E84" s="5" t="n"/>
-      <c r="F84" s="5" t="n"/>
-      <c r="G84" s="5" t="n"/>
-      <c r="H84" s="5" t="n"/>
-      <c r="I84" s="5" t="n"/>
-      <c r="J84" s="5" t="n"/>
-      <c r="K84" s="5" t="n"/>
-      <c r="L84" s="5" t="n"/>
-      <c r="M84" s="5" t="n"/>
-      <c r="N84" s="5" t="n"/>
-      <c r="O84" s="5" t="n"/>
-      <c r="P84" s="5" t="n"/>
-      <c r="Q84" s="5" t="n"/>
-      <c r="R84" s="5" t="n"/>
-      <c r="S84" s="6" t="n"/>
-      <c r="T84" s="6" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n"/>
-      <c r="B85" s="5" t="n"/>
-      <c r="C85" s="5" t="n"/>
-      <c r="D85" s="5" t="n"/>
-      <c r="E85" s="5" t="n"/>
-      <c r="F85" s="5" t="n"/>
-      <c r="G85" s="5" t="n"/>
-      <c r="H85" s="5" t="n"/>
-      <c r="I85" s="5" t="n"/>
-      <c r="J85" s="5" t="n"/>
-      <c r="K85" s="5" t="n"/>
-      <c r="L85" s="5" t="n"/>
-      <c r="M85" s="5" t="n"/>
-      <c r="N85" s="5" t="n"/>
-      <c r="O85" s="5" t="n"/>
-      <c r="P85" s="5" t="n"/>
-      <c r="Q85" s="5" t="n"/>
-      <c r="R85" s="5" t="n"/>
-      <c r="S85" s="6" t="n"/>
-      <c r="T85" s="6" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n"/>
-      <c r="B86" s="5" t="n"/>
-      <c r="C86" s="5" t="n"/>
-      <c r="D86" s="5" t="n"/>
-      <c r="E86" s="5" t="n"/>
-      <c r="F86" s="5" t="n"/>
-      <c r="G86" s="5" t="n"/>
-      <c r="H86" s="5" t="n"/>
-      <c r="I86" s="5" t="n"/>
-      <c r="J86" s="5" t="n"/>
-      <c r="K86" s="5" t="n"/>
-      <c r="L86" s="5" t="n"/>
-      <c r="M86" s="5" t="n"/>
-      <c r="N86" s="5" t="n"/>
-      <c r="O86" s="5" t="n"/>
-      <c r="P86" s="5" t="n"/>
-      <c r="Q86" s="5" t="n"/>
-      <c r="R86" s="5" t="n"/>
-      <c r="S86" s="6" t="n"/>
-      <c r="T86" s="6" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n"/>
-      <c r="B87" s="5" t="n"/>
-      <c r="C87" s="5" t="n"/>
-      <c r="D87" s="5" t="n"/>
-      <c r="E87" s="5" t="n"/>
-      <c r="F87" s="5" t="n"/>
-      <c r="G87" s="5" t="n"/>
-      <c r="H87" s="5" t="n"/>
-      <c r="I87" s="5" t="n"/>
-      <c r="J87" s="5" t="n"/>
-      <c r="K87" s="5" t="n"/>
-      <c r="L87" s="5" t="n"/>
-      <c r="M87" s="5" t="n"/>
-      <c r="N87" s="5" t="n"/>
-      <c r="O87" s="5" t="n"/>
-      <c r="P87" s="5" t="n"/>
-      <c r="Q87" s="5" t="n"/>
-      <c r="R87" s="5" t="n"/>
-      <c r="S87" s="6" t="n"/>
-      <c r="T87" s="6" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n"/>
-      <c r="B88" s="5" t="n"/>
-      <c r="C88" s="5" t="n"/>
-      <c r="D88" s="5" t="n"/>
-      <c r="E88" s="5" t="n"/>
-      <c r="F88" s="5" t="n"/>
-      <c r="G88" s="5" t="n"/>
-      <c r="H88" s="5" t="n"/>
-      <c r="I88" s="5" t="n"/>
-      <c r="J88" s="5" t="n"/>
-      <c r="K88" s="5" t="n"/>
-      <c r="L88" s="5" t="n"/>
-      <c r="M88" s="5" t="n"/>
-      <c r="N88" s="5" t="n"/>
-      <c r="O88" s="5" t="n"/>
-      <c r="P88" s="5" t="n"/>
-      <c r="Q88" s="5" t="n"/>
-      <c r="R88" s="5" t="n"/>
-      <c r="S88" s="6" t="n"/>
-      <c r="T88" s="6" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n"/>
-      <c r="B89" s="5" t="n"/>
-      <c r="C89" s="5" t="n"/>
-      <c r="D89" s="5" t="n"/>
-      <c r="E89" s="5" t="n"/>
-      <c r="F89" s="5" t="n"/>
-      <c r="G89" s="5" t="n"/>
-      <c r="H89" s="5" t="n"/>
-      <c r="I89" s="5" t="n"/>
-      <c r="J89" s="5" t="n"/>
-      <c r="K89" s="5" t="n"/>
-      <c r="L89" s="5" t="n"/>
-      <c r="M89" s="5" t="n"/>
-      <c r="N89" s="5" t="n"/>
-      <c r="O89" s="5" t="n"/>
-      <c r="P89" s="5" t="n"/>
-      <c r="Q89" s="5" t="n"/>
-      <c r="R89" s="5" t="n"/>
-      <c r="S89" s="6" t="n"/>
-      <c r="T89" s="6" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n"/>
-      <c r="B90" s="5" t="n"/>
-      <c r="C90" s="5" t="n"/>
-      <c r="D90" s="5" t="n"/>
-      <c r="E90" s="5" t="n"/>
-      <c r="F90" s="5" t="n"/>
-      <c r="G90" s="5" t="n"/>
-      <c r="H90" s="5" t="n"/>
-      <c r="I90" s="5" t="n"/>
-      <c r="J90" s="5" t="n"/>
-      <c r="K90" s="5" t="n"/>
-      <c r="L90" s="5" t="n"/>
-      <c r="M90" s="5" t="n"/>
-      <c r="N90" s="5" t="n"/>
-      <c r="O90" s="5" t="n"/>
-      <c r="P90" s="5" t="n"/>
-      <c r="Q90" s="5" t="n"/>
-      <c r="R90" s="5" t="n"/>
-      <c r="S90" s="6" t="n"/>
-      <c r="T90" s="6" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n"/>
-      <c r="B91" s="5" t="n"/>
-      <c r="C91" s="5" t="n"/>
-      <c r="D91" s="5" t="n"/>
-      <c r="E91" s="5" t="n"/>
-      <c r="F91" s="5" t="n"/>
-      <c r="G91" s="5" t="n"/>
-      <c r="H91" s="5" t="n"/>
-      <c r="I91" s="5" t="n"/>
-      <c r="J91" s="5" t="n"/>
-      <c r="K91" s="5" t="n"/>
-      <c r="L91" s="5" t="n"/>
-      <c r="M91" s="5" t="n"/>
-      <c r="N91" s="5" t="n"/>
-      <c r="O91" s="5" t="n"/>
-      <c r="P91" s="5" t="n"/>
-      <c r="Q91" s="5" t="n"/>
-      <c r="R91" s="5" t="n"/>
-      <c r="S91" s="6" t="n"/>
-      <c r="T91" s="6" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n"/>
-      <c r="B92" s="5" t="n"/>
-      <c r="C92" s="5" t="n"/>
-      <c r="D92" s="5" t="n"/>
-      <c r="E92" s="5" t="n"/>
-      <c r="F92" s="5" t="n"/>
-      <c r="G92" s="5" t="n"/>
-      <c r="H92" s="5" t="n"/>
-      <c r="I92" s="5" t="n"/>
-      <c r="J92" s="5" t="n"/>
-      <c r="K92" s="5" t="n"/>
-      <c r="L92" s="5" t="n"/>
-      <c r="M92" s="5" t="n"/>
-      <c r="N92" s="5" t="n"/>
-      <c r="O92" s="5" t="n"/>
-      <c r="P92" s="5" t="n"/>
-      <c r="Q92" s="5" t="n"/>
-      <c r="R92" s="5" t="n"/>
-      <c r="S92" s="6" t="n"/>
-      <c r="T92" s="6" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n"/>
-      <c r="B93" s="5" t="n"/>
-      <c r="C93" s="5" t="n"/>
-      <c r="D93" s="5" t="n"/>
-      <c r="E93" s="5" t="n"/>
-      <c r="F93" s="5" t="n"/>
-      <c r="G93" s="5" t="n"/>
-      <c r="H93" s="5" t="n"/>
-      <c r="I93" s="5" t="n"/>
-      <c r="J93" s="5" t="n"/>
-      <c r="K93" s="5" t="n"/>
-      <c r="L93" s="5" t="n"/>
-      <c r="M93" s="5" t="n"/>
-      <c r="N93" s="5" t="n"/>
-      <c r="O93" s="5" t="n"/>
-      <c r="P93" s="5" t="n"/>
-      <c r="Q93" s="5" t="n"/>
-      <c r="R93" s="5" t="n"/>
-      <c r="S93" s="6" t="n"/>
-      <c r="T93" s="6" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n"/>
-      <c r="B94" s="5" t="n"/>
-      <c r="C94" s="5" t="n"/>
-      <c r="D94" s="5" t="n"/>
-      <c r="E94" s="5" t="n"/>
-      <c r="F94" s="5" t="n"/>
-      <c r="G94" s="5" t="n"/>
-      <c r="H94" s="5" t="n"/>
-      <c r="I94" s="5" t="n"/>
-      <c r="J94" s="5" t="n"/>
-      <c r="K94" s="5" t="n"/>
-      <c r="L94" s="5" t="n"/>
-      <c r="M94" s="5" t="n"/>
-      <c r="N94" s="5" t="n"/>
-      <c r="O94" s="5" t="n"/>
-      <c r="P94" s="5" t="n"/>
-      <c r="Q94" s="5" t="n"/>
-      <c r="R94" s="5" t="n"/>
-      <c r="S94" s="6" t="n"/>
-      <c r="T94" s="6" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n"/>
-      <c r="B95" s="5" t="n"/>
-      <c r="C95" s="5" t="n"/>
-      <c r="D95" s="5" t="n"/>
-      <c r="E95" s="5" t="n"/>
-      <c r="F95" s="5" t="n"/>
-      <c r="G95" s="5" t="n"/>
-      <c r="H95" s="5" t="n"/>
-      <c r="I95" s="5" t="n"/>
-      <c r="J95" s="5" t="n"/>
-      <c r="K95" s="5" t="n"/>
-      <c r="L95" s="5" t="n"/>
-      <c r="M95" s="5" t="n"/>
-      <c r="N95" s="5" t="n"/>
-      <c r="O95" s="5" t="n"/>
-      <c r="P95" s="5" t="n"/>
-      <c r="Q95" s="5" t="n"/>
-      <c r="R95" s="5" t="n"/>
-      <c r="S95" s="6" t="n"/>
-      <c r="T95" s="6" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n"/>
-      <c r="B96" s="5" t="n"/>
-      <c r="C96" s="5" t="n"/>
-      <c r="D96" s="5" t="n"/>
-      <c r="E96" s="5" t="n"/>
-      <c r="F96" s="5" t="n"/>
-      <c r="G96" s="5" t="n"/>
-      <c r="H96" s="5" t="n"/>
-      <c r="I96" s="5" t="n"/>
-      <c r="J96" s="5" t="n"/>
-      <c r="K96" s="5" t="n"/>
-      <c r="L96" s="5" t="n"/>
-      <c r="M96" s="5" t="n"/>
-      <c r="N96" s="5" t="n"/>
-      <c r="O96" s="5" t="n"/>
-      <c r="P96" s="5" t="n"/>
-      <c r="Q96" s="5" t="n"/>
-      <c r="R96" s="5" t="n"/>
-      <c r="S96" s="6" t="n"/>
-      <c r="T96" s="6" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n"/>
-      <c r="B97" s="5" t="n"/>
-      <c r="C97" s="5" t="n"/>
-      <c r="D97" s="5" t="n"/>
-      <c r="E97" s="5" t="n"/>
-      <c r="F97" s="5" t="n"/>
-      <c r="G97" s="5" t="n"/>
-      <c r="H97" s="5" t="n"/>
-      <c r="I97" s="5" t="n"/>
-      <c r="J97" s="5" t="n"/>
-      <c r="K97" s="5" t="n"/>
-      <c r="L97" s="5" t="n"/>
-      <c r="M97" s="5" t="n"/>
-      <c r="N97" s="5" t="n"/>
-      <c r="O97" s="5" t="n"/>
-      <c r="P97" s="5" t="n"/>
-      <c r="Q97" s="5" t="n"/>
-      <c r="R97" s="5" t="n"/>
-      <c r="S97" s="6" t="n"/>
-      <c r="T97" s="6" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n"/>
-      <c r="B98" s="5" t="n"/>
-      <c r="C98" s="5" t="n"/>
-      <c r="D98" s="5" t="n"/>
-      <c r="E98" s="5" t="n"/>
-      <c r="F98" s="5" t="n"/>
-      <c r="G98" s="5" t="n"/>
-      <c r="H98" s="5" t="n"/>
-      <c r="I98" s="5" t="n"/>
-      <c r="J98" s="5" t="n"/>
-      <c r="K98" s="5" t="n"/>
-      <c r="L98" s="5" t="n"/>
-      <c r="M98" s="5" t="n"/>
-      <c r="N98" s="5" t="n"/>
-      <c r="O98" s="5" t="n"/>
-      <c r="P98" s="5" t="n"/>
-      <c r="Q98" s="5" t="n"/>
-      <c r="R98" s="5" t="n"/>
-      <c r="S98" s="6" t="n"/>
-      <c r="T98" s="6" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n"/>
-      <c r="B99" s="5" t="n"/>
-      <c r="C99" s="5" t="n"/>
-      <c r="D99" s="5" t="n"/>
-      <c r="E99" s="5" t="n"/>
-      <c r="F99" s="5" t="n"/>
-      <c r="G99" s="5" t="n"/>
-      <c r="H99" s="5" t="n"/>
-      <c r="I99" s="5" t="n"/>
-      <c r="J99" s="5" t="n"/>
-      <c r="K99" s="5" t="n"/>
-      <c r="L99" s="5" t="n"/>
-      <c r="M99" s="5" t="n"/>
-      <c r="N99" s="5" t="n"/>
-      <c r="O99" s="5" t="n"/>
-      <c r="P99" s="5" t="n"/>
-      <c r="Q99" s="5" t="n"/>
-      <c r="R99" s="5" t="n"/>
-      <c r="S99" s="6" t="n"/>
-      <c r="T99" s="6" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="n"/>
-      <c r="B100" s="5" t="n"/>
-      <c r="C100" s="5" t="n"/>
-      <c r="D100" s="5" t="n"/>
-      <c r="E100" s="5" t="n"/>
-      <c r="F100" s="5" t="n"/>
-      <c r="G100" s="5" t="n"/>
-      <c r="H100" s="5" t="n"/>
-      <c r="I100" s="5" t="n"/>
-      <c r="J100" s="5" t="n"/>
-      <c r="K100" s="5" t="n"/>
-      <c r="L100" s="5" t="n"/>
-      <c r="M100" s="5" t="n"/>
-      <c r="N100" s="5" t="n"/>
-      <c r="O100" s="5" t="n"/>
-      <c r="P100" s="5" t="n"/>
-      <c r="Q100" s="5" t="n"/>
-      <c r="R100" s="5" t="n"/>
-      <c r="S100" s="6" t="n"/>
-      <c r="T100" s="6" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="n"/>
-      <c r="B101" s="5" t="n"/>
-      <c r="C101" s="5" t="n"/>
-      <c r="D101" s="5" t="n"/>
-      <c r="E101" s="5" t="n"/>
-      <c r="F101" s="5" t="n"/>
-      <c r="G101" s="5" t="n"/>
-      <c r="H101" s="5" t="n"/>
-      <c r="I101" s="5" t="n"/>
-      <c r="J101" s="5" t="n"/>
-      <c r="K101" s="5" t="n"/>
-      <c r="L101" s="5" t="n"/>
-      <c r="M101" s="5" t="n"/>
-      <c r="N101" s="5" t="n"/>
-      <c r="O101" s="5" t="n"/>
-      <c r="P101" s="5" t="n"/>
-      <c r="Q101" s="5" t="n"/>
-      <c r="R101" s="5" t="n"/>
-      <c r="S101" s="6" t="n"/>
-      <c r="T101" s="6" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="n"/>
-      <c r="B102" s="5" t="n"/>
-      <c r="C102" s="5" t="n"/>
-      <c r="D102" s="5" t="n"/>
-      <c r="E102" s="5" t="n"/>
-      <c r="F102" s="5" t="n"/>
-      <c r="G102" s="5" t="n"/>
-      <c r="H102" s="5" t="n"/>
-      <c r="I102" s="5" t="n"/>
-      <c r="J102" s="5" t="n"/>
-      <c r="K102" s="5" t="n"/>
-      <c r="L102" s="5" t="n"/>
-      <c r="M102" s="5" t="n"/>
-      <c r="N102" s="5" t="n"/>
-      <c r="O102" s="5" t="n"/>
-      <c r="P102" s="5" t="n"/>
-      <c r="Q102" s="5" t="n"/>
-      <c r="R102" s="5" t="n"/>
-      <c r="S102" s="6" t="n"/>
-      <c r="T102" s="6" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="n"/>
-      <c r="B103" s="5" t="n"/>
-      <c r="C103" s="5" t="n"/>
-      <c r="D103" s="5" t="n"/>
-      <c r="E103" s="5" t="n"/>
-      <c r="F103" s="5" t="n"/>
-      <c r="G103" s="5" t="n"/>
-      <c r="H103" s="5" t="n"/>
-      <c r="I103" s="5" t="n"/>
-      <c r="J103" s="5" t="n"/>
-      <c r="K103" s="5" t="n"/>
-      <c r="L103" s="5" t="n"/>
-      <c r="M103" s="5" t="n"/>
-      <c r="N103" s="5" t="n"/>
-      <c r="O103" s="5" t="n"/>
-      <c r="P103" s="5" t="n"/>
-      <c r="Q103" s="5" t="n"/>
-      <c r="R103" s="5" t="n"/>
-      <c r="S103" s="6" t="n"/>
-      <c r="T103" s="6" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="n"/>
-      <c r="B104" s="5" t="n"/>
-      <c r="C104" s="5" t="n"/>
-      <c r="D104" s="5" t="n"/>
-      <c r="E104" s="5" t="n"/>
-      <c r="F104" s="5" t="n"/>
-      <c r="G104" s="5" t="n"/>
-      <c r="H104" s="5" t="n"/>
-      <c r="I104" s="5" t="n"/>
-      <c r="J104" s="5" t="n"/>
-      <c r="K104" s="5" t="n"/>
-      <c r="L104" s="5" t="n"/>
-      <c r="M104" s="5" t="n"/>
-      <c r="N104" s="5" t="n"/>
-      <c r="O104" s="5" t="n"/>
-      <c r="P104" s="5" t="n"/>
-      <c r="Q104" s="5" t="n"/>
-      <c r="R104" s="5" t="n"/>
-      <c r="S104" s="6" t="n"/>
-      <c r="T104" s="6" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="n"/>
-      <c r="B105" s="5" t="n"/>
-      <c r="C105" s="5" t="n"/>
-      <c r="D105" s="5" t="n"/>
-      <c r="E105" s="5" t="n"/>
-      <c r="F105" s="5" t="n"/>
-      <c r="G105" s="5" t="n"/>
-      <c r="H105" s="5" t="n"/>
-      <c r="I105" s="5" t="n"/>
-      <c r="J105" s="5" t="n"/>
-      <c r="K105" s="5" t="n"/>
-      <c r="L105" s="5" t="n"/>
-      <c r="M105" s="5" t="n"/>
-      <c r="N105" s="5" t="n"/>
-      <c r="O105" s="5" t="n"/>
-      <c r="P105" s="5" t="n"/>
-      <c r="Q105" s="5" t="n"/>
-      <c r="R105" s="5" t="n"/>
-      <c r="S105" s="6" t="n"/>
-      <c r="T105" s="6" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="n"/>
-      <c r="B106" s="5" t="n"/>
-      <c r="C106" s="5" t="n"/>
-      <c r="D106" s="5" t="n"/>
-      <c r="E106" s="5" t="n"/>
-      <c r="F106" s="5" t="n"/>
-      <c r="G106" s="5" t="n"/>
-      <c r="H106" s="5" t="n"/>
-      <c r="I106" s="5" t="n"/>
-      <c r="J106" s="5" t="n"/>
-      <c r="K106" s="5" t="n"/>
-      <c r="L106" s="5" t="n"/>
-      <c r="M106" s="5" t="n"/>
-      <c r="N106" s="5" t="n"/>
-      <c r="O106" s="5" t="n"/>
-      <c r="P106" s="5" t="n"/>
-      <c r="Q106" s="5" t="n"/>
-      <c r="R106" s="5" t="n"/>
-      <c r="S106" s="6" t="n"/>
-      <c r="T106" s="6" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="n"/>
-      <c r="B107" s="5" t="n"/>
-      <c r="C107" s="5" t="n"/>
-      <c r="D107" s="5" t="n"/>
-      <c r="E107" s="5" t="n"/>
-      <c r="F107" s="5" t="n"/>
-      <c r="G107" s="5" t="n"/>
-      <c r="H107" s="5" t="n"/>
-      <c r="I107" s="5" t="n"/>
-      <c r="J107" s="5" t="n"/>
-      <c r="K107" s="5" t="n"/>
-      <c r="L107" s="5" t="n"/>
-      <c r="M107" s="5" t="n"/>
-      <c r="N107" s="5" t="n"/>
-      <c r="O107" s="5" t="n"/>
-      <c r="P107" s="5" t="n"/>
-      <c r="Q107" s="5" t="n"/>
-      <c r="R107" s="5" t="n"/>
-      <c r="S107" s="6" t="n"/>
-      <c r="T107" s="6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5259,12 +4577,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5512,7 +4830,11 @@
 - SOP: Fix bug 15h</t>
         </is>
       </c>
-      <c r="Q4" s="10" t="n"/>
+      <c r="Q4" s="10" t="inlineStr">
+        <is>
+          <t>Bằng chứng</t>
+        </is>
+      </c>
       <c r="R4" s="10" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -5691,7 +5013,11 @@
 - SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
         </is>
       </c>
-      <c r="Q7" s="10" t="n"/>
+      <c r="Q7" s="10" t="inlineStr">
+        <is>
+          <t>Bằng chứng</t>
+        </is>
+      </c>
       <c r="R7" s="10" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -5944,7 +5270,11 @@
 Báo cáo 1h/tuần</t>
         </is>
       </c>
-      <c r="Q12" s="10" t="n"/>
+      <c r="Q12" s="10" t="inlineStr">
+        <is>
+          <t>Thesp</t>
+        </is>
+      </c>
       <c r="R12" s="10" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -6007,7 +5337,11 @@
 Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
-      <c r="Q13" s="10" t="n"/>
+      <c r="Q13" s="10" t="inlineStr">
+        <is>
+          <t>Thesp</t>
+        </is>
+      </c>
       <c r="R13" s="10" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -7783,358 +7117,6 @@
       <c r="S48" s="6" t="n"/>
       <c r="T48" s="6" t="n"/>
     </row>
-    <row r="49">
-      <c r="A49" s="5" t="n"/>
-      <c r="B49" s="5" t="n"/>
-      <c r="C49" s="5" t="n"/>
-      <c r="D49" s="5" t="n"/>
-      <c r="E49" s="5" t="n"/>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="5" t="n"/>
-      <c r="H49" s="5" t="n"/>
-      <c r="I49" s="5" t="n"/>
-      <c r="J49" s="5" t="n"/>
-      <c r="K49" s="5" t="n"/>
-      <c r="L49" s="5" t="n"/>
-      <c r="M49" s="5" t="n"/>
-      <c r="N49" s="5" t="n"/>
-      <c r="O49" s="5" t="n"/>
-      <c r="P49" s="5" t="n"/>
-      <c r="Q49" s="5" t="n"/>
-      <c r="R49" s="5" t="n"/>
-      <c r="S49" s="6" t="n"/>
-      <c r="T49" s="6" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="5" t="n"/>
-      <c r="C50" s="5" t="n"/>
-      <c r="D50" s="5" t="n"/>
-      <c r="E50" s="5" t="n"/>
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="5" t="n"/>
-      <c r="H50" s="5" t="n"/>
-      <c r="I50" s="5" t="n"/>
-      <c r="J50" s="5" t="n"/>
-      <c r="K50" s="5" t="n"/>
-      <c r="L50" s="5" t="n"/>
-      <c r="M50" s="5" t="n"/>
-      <c r="N50" s="5" t="n"/>
-      <c r="O50" s="5" t="n"/>
-      <c r="P50" s="5" t="n"/>
-      <c r="Q50" s="5" t="n"/>
-      <c r="R50" s="5" t="n"/>
-      <c r="S50" s="6" t="n"/>
-      <c r="T50" s="6" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="n"/>
-      <c r="B51" s="5" t="n"/>
-      <c r="C51" s="5" t="n"/>
-      <c r="D51" s="5" t="n"/>
-      <c r="E51" s="5" t="n"/>
-      <c r="F51" s="5" t="n"/>
-      <c r="G51" s="5" t="n"/>
-      <c r="H51" s="5" t="n"/>
-      <c r="I51" s="5" t="n"/>
-      <c r="J51" s="5" t="n"/>
-      <c r="K51" s="5" t="n"/>
-      <c r="L51" s="5" t="n"/>
-      <c r="M51" s="5" t="n"/>
-      <c r="N51" s="5" t="n"/>
-      <c r="O51" s="5" t="n"/>
-      <c r="P51" s="5" t="n"/>
-      <c r="Q51" s="5" t="n"/>
-      <c r="R51" s="5" t="n"/>
-      <c r="S51" s="6" t="n"/>
-      <c r="T51" s="6" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="n"/>
-      <c r="B52" s="5" t="n"/>
-      <c r="C52" s="5" t="n"/>
-      <c r="D52" s="5" t="n"/>
-      <c r="E52" s="5" t="n"/>
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="5" t="n"/>
-      <c r="H52" s="5" t="n"/>
-      <c r="I52" s="5" t="n"/>
-      <c r="J52" s="5" t="n"/>
-      <c r="K52" s="5" t="n"/>
-      <c r="L52" s="5" t="n"/>
-      <c r="M52" s="5" t="n"/>
-      <c r="N52" s="5" t="n"/>
-      <c r="O52" s="5" t="n"/>
-      <c r="P52" s="5" t="n"/>
-      <c r="Q52" s="5" t="n"/>
-      <c r="R52" s="5" t="n"/>
-      <c r="S52" s="6" t="n"/>
-      <c r="T52" s="6" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="n"/>
-      <c r="B53" s="5" t="n"/>
-      <c r="C53" s="5" t="n"/>
-      <c r="D53" s="5" t="n"/>
-      <c r="E53" s="5" t="n"/>
-      <c r="F53" s="5" t="n"/>
-      <c r="G53" s="5" t="n"/>
-      <c r="H53" s="5" t="n"/>
-      <c r="I53" s="5" t="n"/>
-      <c r="J53" s="5" t="n"/>
-      <c r="K53" s="5" t="n"/>
-      <c r="L53" s="5" t="n"/>
-      <c r="M53" s="5" t="n"/>
-      <c r="N53" s="5" t="n"/>
-      <c r="O53" s="5" t="n"/>
-      <c r="P53" s="5" t="n"/>
-      <c r="Q53" s="5" t="n"/>
-      <c r="R53" s="5" t="n"/>
-      <c r="S53" s="6" t="n"/>
-      <c r="T53" s="6" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="n"/>
-      <c r="B54" s="5" t="n"/>
-      <c r="C54" s="5" t="n"/>
-      <c r="D54" s="5" t="n"/>
-      <c r="E54" s="5" t="n"/>
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="5" t="n"/>
-      <c r="H54" s="5" t="n"/>
-      <c r="I54" s="5" t="n"/>
-      <c r="J54" s="5" t="n"/>
-      <c r="K54" s="5" t="n"/>
-      <c r="L54" s="5" t="n"/>
-      <c r="M54" s="5" t="n"/>
-      <c r="N54" s="5" t="n"/>
-      <c r="O54" s="5" t="n"/>
-      <c r="P54" s="5" t="n"/>
-      <c r="Q54" s="5" t="n"/>
-      <c r="R54" s="5" t="n"/>
-      <c r="S54" s="6" t="n"/>
-      <c r="T54" s="6" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="n"/>
-      <c r="B55" s="5" t="n"/>
-      <c r="C55" s="5" t="n"/>
-      <c r="D55" s="5" t="n"/>
-      <c r="E55" s="5" t="n"/>
-      <c r="F55" s="5" t="n"/>
-      <c r="G55" s="5" t="n"/>
-      <c r="H55" s="5" t="n"/>
-      <c r="I55" s="5" t="n"/>
-      <c r="J55" s="5" t="n"/>
-      <c r="K55" s="5" t="n"/>
-      <c r="L55" s="5" t="n"/>
-      <c r="M55" s="5" t="n"/>
-      <c r="N55" s="5" t="n"/>
-      <c r="O55" s="5" t="n"/>
-      <c r="P55" s="5" t="n"/>
-      <c r="Q55" s="5" t="n"/>
-      <c r="R55" s="5" t="n"/>
-      <c r="S55" s="6" t="n"/>
-      <c r="T55" s="6" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
-      <c r="C56" s="5" t="n"/>
-      <c r="D56" s="5" t="n"/>
-      <c r="E56" s="5" t="n"/>
-      <c r="F56" s="5" t="n"/>
-      <c r="G56" s="5" t="n"/>
-      <c r="H56" s="5" t="n"/>
-      <c r="I56" s="5" t="n"/>
-      <c r="J56" s="5" t="n"/>
-      <c r="K56" s="5" t="n"/>
-      <c r="L56" s="5" t="n"/>
-      <c r="M56" s="5" t="n"/>
-      <c r="N56" s="5" t="n"/>
-      <c r="O56" s="5" t="n"/>
-      <c r="P56" s="5" t="n"/>
-      <c r="Q56" s="5" t="n"/>
-      <c r="R56" s="5" t="n"/>
-      <c r="S56" s="6" t="n"/>
-      <c r="T56" s="6" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="n"/>
-      <c r="B57" s="5" t="n"/>
-      <c r="C57" s="5" t="n"/>
-      <c r="D57" s="5" t="n"/>
-      <c r="E57" s="5" t="n"/>
-      <c r="F57" s="5" t="n"/>
-      <c r="G57" s="5" t="n"/>
-      <c r="H57" s="5" t="n"/>
-      <c r="I57" s="5" t="n"/>
-      <c r="J57" s="5" t="n"/>
-      <c r="K57" s="5" t="n"/>
-      <c r="L57" s="5" t="n"/>
-      <c r="M57" s="5" t="n"/>
-      <c r="N57" s="5" t="n"/>
-      <c r="O57" s="5" t="n"/>
-      <c r="P57" s="5" t="n"/>
-      <c r="Q57" s="5" t="n"/>
-      <c r="R57" s="5" t="n"/>
-      <c r="S57" s="6" t="n"/>
-      <c r="T57" s="6" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
-      <c r="C58" s="5" t="n"/>
-      <c r="D58" s="5" t="n"/>
-      <c r="E58" s="5" t="n"/>
-      <c r="F58" s="5" t="n"/>
-      <c r="G58" s="5" t="n"/>
-      <c r="H58" s="5" t="n"/>
-      <c r="I58" s="5" t="n"/>
-      <c r="J58" s="5" t="n"/>
-      <c r="K58" s="5" t="n"/>
-      <c r="L58" s="5" t="n"/>
-      <c r="M58" s="5" t="n"/>
-      <c r="N58" s="5" t="n"/>
-      <c r="O58" s="5" t="n"/>
-      <c r="P58" s="5" t="n"/>
-      <c r="Q58" s="5" t="n"/>
-      <c r="R58" s="5" t="n"/>
-      <c r="S58" s="6" t="n"/>
-      <c r="T58" s="6" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="n"/>
-      <c r="B59" s="5" t="n"/>
-      <c r="C59" s="5" t="n"/>
-      <c r="D59" s="5" t="n"/>
-      <c r="E59" s="5" t="n"/>
-      <c r="F59" s="5" t="n"/>
-      <c r="G59" s="5" t="n"/>
-      <c r="H59" s="5" t="n"/>
-      <c r="I59" s="5" t="n"/>
-      <c r="J59" s="5" t="n"/>
-      <c r="K59" s="5" t="n"/>
-      <c r="L59" s="5" t="n"/>
-      <c r="M59" s="5" t="n"/>
-      <c r="N59" s="5" t="n"/>
-      <c r="O59" s="5" t="n"/>
-      <c r="P59" s="5" t="n"/>
-      <c r="Q59" s="5" t="n"/>
-      <c r="R59" s="5" t="n"/>
-      <c r="S59" s="6" t="n"/>
-      <c r="T59" s="6" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="5" t="n"/>
-      <c r="C60" s="5" t="n"/>
-      <c r="D60" s="5" t="n"/>
-      <c r="E60" s="5" t="n"/>
-      <c r="F60" s="5" t="n"/>
-      <c r="G60" s="5" t="n"/>
-      <c r="H60" s="5" t="n"/>
-      <c r="I60" s="5" t="n"/>
-      <c r="J60" s="5" t="n"/>
-      <c r="K60" s="5" t="n"/>
-      <c r="L60" s="5" t="n"/>
-      <c r="M60" s="5" t="n"/>
-      <c r="N60" s="5" t="n"/>
-      <c r="O60" s="5" t="n"/>
-      <c r="P60" s="5" t="n"/>
-      <c r="Q60" s="5" t="n"/>
-      <c r="R60" s="5" t="n"/>
-      <c r="S60" s="6" t="n"/>
-      <c r="T60" s="6" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="n"/>
-      <c r="B61" s="5" t="n"/>
-      <c r="C61" s="5" t="n"/>
-      <c r="D61" s="5" t="n"/>
-      <c r="E61" s="5" t="n"/>
-      <c r="F61" s="5" t="n"/>
-      <c r="G61" s="5" t="n"/>
-      <c r="H61" s="5" t="n"/>
-      <c r="I61" s="5" t="n"/>
-      <c r="J61" s="5" t="n"/>
-      <c r="K61" s="5" t="n"/>
-      <c r="L61" s="5" t="n"/>
-      <c r="M61" s="5" t="n"/>
-      <c r="N61" s="5" t="n"/>
-      <c r="O61" s="5" t="n"/>
-      <c r="P61" s="5" t="n"/>
-      <c r="Q61" s="5" t="n"/>
-      <c r="R61" s="5" t="n"/>
-      <c r="S61" s="6" t="n"/>
-      <c r="T61" s="6" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="n"/>
-      <c r="B62" s="5" t="n"/>
-      <c r="C62" s="5" t="n"/>
-      <c r="D62" s="5" t="n"/>
-      <c r="E62" s="5" t="n"/>
-      <c r="F62" s="5" t="n"/>
-      <c r="G62" s="5" t="n"/>
-      <c r="H62" s="5" t="n"/>
-      <c r="I62" s="5" t="n"/>
-      <c r="J62" s="5" t="n"/>
-      <c r="K62" s="5" t="n"/>
-      <c r="L62" s="5" t="n"/>
-      <c r="M62" s="5" t="n"/>
-      <c r="N62" s="5" t="n"/>
-      <c r="O62" s="5" t="n"/>
-      <c r="P62" s="5" t="n"/>
-      <c r="Q62" s="5" t="n"/>
-      <c r="R62" s="5" t="n"/>
-      <c r="S62" s="6" t="n"/>
-      <c r="T62" s="6" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="n"/>
-      <c r="B63" s="5" t="n"/>
-      <c r="C63" s="5" t="n"/>
-      <c r="D63" s="5" t="n"/>
-      <c r="E63" s="5" t="n"/>
-      <c r="F63" s="5" t="n"/>
-      <c r="G63" s="5" t="n"/>
-      <c r="H63" s="5" t="n"/>
-      <c r="I63" s="5" t="n"/>
-      <c r="J63" s="5" t="n"/>
-      <c r="K63" s="5" t="n"/>
-      <c r="L63" s="5" t="n"/>
-      <c r="M63" s="5" t="n"/>
-      <c r="N63" s="5" t="n"/>
-      <c r="O63" s="5" t="n"/>
-      <c r="P63" s="5" t="n"/>
-      <c r="Q63" s="5" t="n"/>
-      <c r="R63" s="5" t="n"/>
-      <c r="S63" s="6" t="n"/>
-      <c r="T63" s="6" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="n"/>
-      <c r="B64" s="5" t="n"/>
-      <c r="C64" s="5" t="n"/>
-      <c r="D64" s="5" t="n"/>
-      <c r="E64" s="5" t="n"/>
-      <c r="F64" s="5" t="n"/>
-      <c r="G64" s="5" t="n"/>
-      <c r="H64" s="5" t="n"/>
-      <c r="I64" s="5" t="n"/>
-      <c r="J64" s="5" t="n"/>
-      <c r="K64" s="5" t="n"/>
-      <c r="L64" s="5" t="n"/>
-      <c r="M64" s="5" t="n"/>
-      <c r="N64" s="5" t="n"/>
-      <c r="O64" s="5" t="n"/>
-      <c r="P64" s="5" t="n"/>
-      <c r="Q64" s="5" t="n"/>
-      <c r="R64" s="5" t="n"/>
-      <c r="S64" s="6" t="n"/>
-      <c r="T64" s="6" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:T1"/>
@@ -8151,6 +7133,12 @@
     <mergeCell ref="A44"/>
     <mergeCell ref="A23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="Q7" r:id="rId2"/>
+    <hyperlink ref="Q12" r:id="rId3"/>
+    <hyperlink ref="Q13" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8161,7 +7149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8481,50 +7469,6 @@
       <c r="S6" s="6" t="n"/>
       <c r="T6" s="6" t="n"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="5" t="n"/>
-      <c r="R7" s="5" t="n"/>
-      <c r="S7" s="6" t="n"/>
-      <c r="T7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-      <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="5" t="n"/>
-      <c r="R8" s="5" t="n"/>
-      <c r="S8" s="6" t="n"/>
-      <c r="T8" s="6" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:T1"/>
@@ -8540,7 +7484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10207,270 +9151,6 @@
       <c r="S32" s="6" t="n"/>
       <c r="T32" s="6" t="n"/>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
-      <c r="C33" s="5" t="n"/>
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="5" t="n"/>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="5" t="n"/>
-      <c r="I33" s="5" t="n"/>
-      <c r="J33" s="5" t="n"/>
-      <c r="K33" s="5" t="n"/>
-      <c r="L33" s="5" t="n"/>
-      <c r="M33" s="5" t="n"/>
-      <c r="N33" s="5" t="n"/>
-      <c r="O33" s="5" t="n"/>
-      <c r="P33" s="5" t="n"/>
-      <c r="Q33" s="5" t="n"/>
-      <c r="R33" s="5" t="n"/>
-      <c r="S33" s="6" t="n"/>
-      <c r="T33" s="6" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="5" t="n"/>
-      <c r="C34" s="5" t="n"/>
-      <c r="D34" s="5" t="n"/>
-      <c r="E34" s="5" t="n"/>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="5" t="n"/>
-      <c r="H34" s="5" t="n"/>
-      <c r="I34" s="5" t="n"/>
-      <c r="J34" s="5" t="n"/>
-      <c r="K34" s="5" t="n"/>
-      <c r="L34" s="5" t="n"/>
-      <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n"/>
-      <c r="O34" s="5" t="n"/>
-      <c r="P34" s="5" t="n"/>
-      <c r="Q34" s="5" t="n"/>
-      <c r="R34" s="5" t="n"/>
-      <c r="S34" s="6" t="n"/>
-      <c r="T34" s="6" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="5" t="n"/>
-      <c r="C35" s="5" t="n"/>
-      <c r="D35" s="5" t="n"/>
-      <c r="E35" s="5" t="n"/>
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-      <c r="I35" s="5" t="n"/>
-      <c r="J35" s="5" t="n"/>
-      <c r="K35" s="5" t="n"/>
-      <c r="L35" s="5" t="n"/>
-      <c r="M35" s="5" t="n"/>
-      <c r="N35" s="5" t="n"/>
-      <c r="O35" s="5" t="n"/>
-      <c r="P35" s="5" t="n"/>
-      <c r="Q35" s="5" t="n"/>
-      <c r="R35" s="5" t="n"/>
-      <c r="S35" s="6" t="n"/>
-      <c r="T35" s="6" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n"/>
-      <c r="B36" s="5" t="n"/>
-      <c r="C36" s="5" t="n"/>
-      <c r="D36" s="5" t="n"/>
-      <c r="E36" s="5" t="n"/>
-      <c r="F36" s="5" t="n"/>
-      <c r="G36" s="5" t="n"/>
-      <c r="H36" s="5" t="n"/>
-      <c r="I36" s="5" t="n"/>
-      <c r="J36" s="5" t="n"/>
-      <c r="K36" s="5" t="n"/>
-      <c r="L36" s="5" t="n"/>
-      <c r="M36" s="5" t="n"/>
-      <c r="N36" s="5" t="n"/>
-      <c r="O36" s="5" t="n"/>
-      <c r="P36" s="5" t="n"/>
-      <c r="Q36" s="5" t="n"/>
-      <c r="R36" s="5" t="n"/>
-      <c r="S36" s="6" t="n"/>
-      <c r="T36" s="6" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="n"/>
-      <c r="B37" s="5" t="n"/>
-      <c r="C37" s="5" t="n"/>
-      <c r="D37" s="5" t="n"/>
-      <c r="E37" s="5" t="n"/>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="5" t="n"/>
-      <c r="I37" s="5" t="n"/>
-      <c r="J37" s="5" t="n"/>
-      <c r="K37" s="5" t="n"/>
-      <c r="L37" s="5" t="n"/>
-      <c r="M37" s="5" t="n"/>
-      <c r="N37" s="5" t="n"/>
-      <c r="O37" s="5" t="n"/>
-      <c r="P37" s="5" t="n"/>
-      <c r="Q37" s="5" t="n"/>
-      <c r="R37" s="5" t="n"/>
-      <c r="S37" s="6" t="n"/>
-      <c r="T37" s="6" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="5" t="n"/>
-      <c r="C38" s="5" t="n"/>
-      <c r="D38" s="5" t="n"/>
-      <c r="E38" s="5" t="n"/>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
-      <c r="I38" s="5" t="n"/>
-      <c r="J38" s="5" t="n"/>
-      <c r="K38" s="5" t="n"/>
-      <c r="L38" s="5" t="n"/>
-      <c r="M38" s="5" t="n"/>
-      <c r="N38" s="5" t="n"/>
-      <c r="O38" s="5" t="n"/>
-      <c r="P38" s="5" t="n"/>
-      <c r="Q38" s="5" t="n"/>
-      <c r="R38" s="5" t="n"/>
-      <c r="S38" s="6" t="n"/>
-      <c r="T38" s="6" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="5" t="n"/>
-      <c r="C39" s="5" t="n"/>
-      <c r="D39" s="5" t="n"/>
-      <c r="E39" s="5" t="n"/>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
-      <c r="I39" s="5" t="n"/>
-      <c r="J39" s="5" t="n"/>
-      <c r="K39" s="5" t="n"/>
-      <c r="L39" s="5" t="n"/>
-      <c r="M39" s="5" t="n"/>
-      <c r="N39" s="5" t="n"/>
-      <c r="O39" s="5" t="n"/>
-      <c r="P39" s="5" t="n"/>
-      <c r="Q39" s="5" t="n"/>
-      <c r="R39" s="5" t="n"/>
-      <c r="S39" s="6" t="n"/>
-      <c r="T39" s="6" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n"/>
-      <c r="B40" s="5" t="n"/>
-      <c r="C40" s="5" t="n"/>
-      <c r="D40" s="5" t="n"/>
-      <c r="E40" s="5" t="n"/>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n"/>
-      <c r="I40" s="5" t="n"/>
-      <c r="J40" s="5" t="n"/>
-      <c r="K40" s="5" t="n"/>
-      <c r="L40" s="5" t="n"/>
-      <c r="M40" s="5" t="n"/>
-      <c r="N40" s="5" t="n"/>
-      <c r="O40" s="5" t="n"/>
-      <c r="P40" s="5" t="n"/>
-      <c r="Q40" s="5" t="n"/>
-      <c r="R40" s="5" t="n"/>
-      <c r="S40" s="6" t="n"/>
-      <c r="T40" s="6" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="n"/>
-      <c r="B41" s="5" t="n"/>
-      <c r="C41" s="5" t="n"/>
-      <c r="D41" s="5" t="n"/>
-      <c r="E41" s="5" t="n"/>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="5" t="n"/>
-      <c r="I41" s="5" t="n"/>
-      <c r="J41" s="5" t="n"/>
-      <c r="K41" s="5" t="n"/>
-      <c r="L41" s="5" t="n"/>
-      <c r="M41" s="5" t="n"/>
-      <c r="N41" s="5" t="n"/>
-      <c r="O41" s="5" t="n"/>
-      <c r="P41" s="5" t="n"/>
-      <c r="Q41" s="5" t="n"/>
-      <c r="R41" s="5" t="n"/>
-      <c r="S41" s="6" t="n"/>
-      <c r="T41" s="6" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n"/>
-      <c r="B42" s="5" t="n"/>
-      <c r="C42" s="5" t="n"/>
-      <c r="D42" s="5" t="n"/>
-      <c r="E42" s="5" t="n"/>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="5" t="n"/>
-      <c r="H42" s="5" t="n"/>
-      <c r="I42" s="5" t="n"/>
-      <c r="J42" s="5" t="n"/>
-      <c r="K42" s="5" t="n"/>
-      <c r="L42" s="5" t="n"/>
-      <c r="M42" s="5" t="n"/>
-      <c r="N42" s="5" t="n"/>
-      <c r="O42" s="5" t="n"/>
-      <c r="P42" s="5" t="n"/>
-      <c r="Q42" s="5" t="n"/>
-      <c r="R42" s="5" t="n"/>
-      <c r="S42" s="6" t="n"/>
-      <c r="T42" s="6" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="n"/>
-      <c r="B43" s="5" t="n"/>
-      <c r="C43" s="5" t="n"/>
-      <c r="D43" s="5" t="n"/>
-      <c r="E43" s="5" t="n"/>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="5" t="n"/>
-      <c r="H43" s="5" t="n"/>
-      <c r="I43" s="5" t="n"/>
-      <c r="J43" s="5" t="n"/>
-      <c r="K43" s="5" t="n"/>
-      <c r="L43" s="5" t="n"/>
-      <c r="M43" s="5" t="n"/>
-      <c r="N43" s="5" t="n"/>
-      <c r="O43" s="5" t="n"/>
-      <c r="P43" s="5" t="n"/>
-      <c r="Q43" s="5" t="n"/>
-      <c r="R43" s="5" t="n"/>
-      <c r="S43" s="6" t="n"/>
-      <c r="T43" s="6" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n"/>
-      <c r="B44" s="5" t="n"/>
-      <c r="C44" s="5" t="n"/>
-      <c r="D44" s="5" t="n"/>
-      <c r="E44" s="5" t="n"/>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="5" t="n"/>
-      <c r="I44" s="5" t="n"/>
-      <c r="J44" s="5" t="n"/>
-      <c r="K44" s="5" t="n"/>
-      <c r="L44" s="5" t="n"/>
-      <c r="M44" s="5" t="n"/>
-      <c r="N44" s="5" t="n"/>
-      <c r="O44" s="5" t="n"/>
-      <c r="P44" s="5" t="n"/>
-      <c r="Q44" s="5" t="n"/>
-      <c r="R44" s="5" t="n"/>
-      <c r="S44" s="6" t="n"/>
-      <c r="T44" s="6" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:T1"/>

--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -55,7 +55,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -64,20 +64,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="00CCE0FF"/>
+        <bgColor rgb="00CCE0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00365072"/>
-        <bgColor rgb="00365072"/>
+        <fgColor rgb="009FC9E7"/>
+        <bgColor rgb="009FC9E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4C639"/>
-        <bgColor rgb="00A4C639"/>
+        <fgColor rgb="006699CC"/>
+        <bgColor rgb="006699CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E57C"/>
+        <bgColor rgb="00B0E57C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+        <bgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -240,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,14 +272,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -728,42 +743,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -773,17 +788,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -793,12 +808,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -808,7 +823,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="7" t="inlineStr">
+      <c r="R3" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -817,128 +832,128 @@
       <c r="T3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="10" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="inlineStr">
-        <is>
-          <t>- Thời gian check - fix bugs: 23h/tháng</t>
-        </is>
-      </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="6" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
+      <c r="J4" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K4" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n">
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="10" t="inlineStr">
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="11" t="inlineStr">
         <is>
           <t>- Nghiên cứu HVAC: 8h 
 - Tích hợp thư viện vào source code và triển khai dev: 4h
 - Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
         </is>
       </c>
-      <c r="Q5" s="10" t="n"/>
-      <c r="R5" s="10" t="inlineStr">
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="O5" s="11" t="n"/>
+      <c r="P5" s="11" t="inlineStr">
+        <is>
+          <t>- Thời gian check - fix bugs: 23h/tháng</t>
+        </is>
+      </c>
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -947,88 +962,88 @@
       <c r="T5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="12" t="n">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O6" s="12" t="n"/>
-      <c r="P6" s="10" t="n"/>
-      <c r="Q6" s="10" t="n"/>
-      <c r="R6" s="10" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="11" t="n"/>
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="11" t="n"/>
       <c r="S6" s="6" t="n"/>
       <c r="T6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="10" t="inlineStr">
+      <c r="J7" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="10" t="n">
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="11" t="n">
         <v>148</v>
       </c>
-      <c r="O7" s="10" t="n"/>
-      <c r="P7" s="10" t="inlineStr">
+      <c r="O7" s="11" t="n"/>
+      <c r="P7" s="11" t="inlineStr">
         <is>
           <t>- Daily SOP: 0.5h/ngày * 23 = 11.5h/tháng
 - Sprint planing - retro review: 8h/tháng
@@ -1036,8 +1051,8 @@
 - Code tính năng: 5.5h/ngày * 23 = 126.5h/tháng</t>
         </is>
       </c>
-      <c r="Q7" s="10" t="n"/>
-      <c r="R7" s="10" t="inlineStr">
+      <c r="Q7" s="11" t="n"/>
+      <c r="R7" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1046,32 +1061,32 @@
       <c r="T7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="12" t="n">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="N8" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="12" t="n"/>
-      <c r="P8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-      <c r="R8" s="10" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="11" t="n"/>
+      <c r="Q8" s="11" t="n"/>
+      <c r="R8" s="11" t="n"/>
       <c r="S8" s="6" t="n"/>
       <c r="T8" s="6" t="n"/>
     </row>
@@ -1143,42 +1158,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1188,17 +1203,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="8" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1208,12 +1223,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="8" t="inlineStr">
+      <c r="O11" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="7" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1223,7 +1238,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="7" t="inlineStr">
+      <c r="R11" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -1232,64 +1247,64 @@
       <c r="T11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="D12" s="11" t="inlineStr">
         <is>
           <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
         </is>
       </c>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I12" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="10" t="inlineStr">
+      <c r="J12" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n">
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="O12" s="10" t="n"/>
-      <c r="P12" s="10" t="inlineStr">
+      <c r="O12" s="11" t="n"/>
+      <c r="P12" s="11" t="inlineStr">
         <is>
           <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
         </is>
       </c>
-      <c r="Q12" s="10" t="n"/>
-      <c r="R12" s="10" t="inlineStr">
+      <c r="Q12" s="11" t="n"/>
+      <c r="R12" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1298,60 +1313,60 @@
       <c r="T12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="10" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="10" t="inlineStr">
+      <c r="I13" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="10" t="inlineStr">
+      <c r="J13" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="10" t="n"/>
-      <c r="N13" s="10" t="n">
+      <c r="L13" s="11" t="n"/>
+      <c r="M13" s="11" t="n"/>
+      <c r="N13" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="10" t="n"/>
-      <c r="P13" s="10" t="inlineStr">
+      <c r="O13" s="11" t="n"/>
+      <c r="P13" s="11" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q13" s="10" t="n"/>
-      <c r="R13" s="10" t="inlineStr">
+      <c r="Q13" s="11" t="n"/>
+      <c r="R13" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1360,88 +1375,88 @@
       <c r="T13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="12" t="n">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="12" t="n"/>
-      <c r="P14" s="10" t="n"/>
-      <c r="Q14" s="10" t="n"/>
-      <c r="R14" s="10" t="n"/>
+      <c r="O14" s="13" t="n"/>
+      <c r="P14" s="11" t="n"/>
+      <c r="Q14" s="11" t="n"/>
+      <c r="R14" s="11" t="n"/>
       <c r="S14" s="6" t="n"/>
       <c r="T14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản apps v1.1, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D15" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="10" t="n"/>
-      <c r="G15" s="10" t="inlineStr">
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="10" t="inlineStr">
+      <c r="I15" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="10" t="inlineStr">
+      <c r="J15" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="10" t="n"/>
-      <c r="M15" s="10" t="n"/>
-      <c r="N15" s="10" t="n">
+      <c r="L15" s="11" t="n"/>
+      <c r="M15" s="11" t="n"/>
+      <c r="N15" s="11" t="n">
         <v>112</v>
       </c>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="10" t="inlineStr">
+      <c r="O15" s="11" t="n"/>
+      <c r="P15" s="11" t="inlineStr">
         <is>
           <t>- Daily SOP: 0.5h/ngày * 23 = 1.5h/tháng
 - Sprint planing - retro review: 8h/tháng
@@ -1449,8 +1464,8 @@
 - Code tính năng: 4-5h/ngày * 23 = 90h/tháng</t>
         </is>
       </c>
-      <c r="Q15" s="10" t="n"/>
-      <c r="R15" s="10" t="inlineStr">
+      <c r="Q15" s="11" t="n"/>
+      <c r="R15" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1459,32 +1474,32 @@
       <c r="T15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="10" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="12" t="n">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="11" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
+      <c r="J16" s="11" t="n"/>
+      <c r="K16" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="L16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="12" t="n"/>
-      <c r="P16" s="10" t="n"/>
-      <c r="Q16" s="10" t="n"/>
-      <c r="R16" s="10" t="n"/>
+      <c r="O16" s="13" t="n"/>
+      <c r="P16" s="11" t="n"/>
+      <c r="Q16" s="11" t="n"/>
+      <c r="R16" s="11" t="n"/>
       <c r="S16" s="6" t="n"/>
       <c r="T16" s="6" t="n"/>
     </row>
@@ -1556,42 +1571,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1601,17 +1616,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="8" t="inlineStr">
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="8" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1621,12 +1636,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="8" t="inlineStr">
+      <c r="O19" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="7" t="inlineStr">
+      <c r="P19" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1636,7 +1651,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="7" t="inlineStr">
+      <c r="R19" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -1645,64 +1660,64 @@
       <c r="T19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D20" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="10" t="n"/>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H20" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
+      <c r="I20" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="10" t="inlineStr">
+      <c r="J20" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L20" s="10" t="n"/>
-      <c r="M20" s="10" t="n"/>
-      <c r="N20" s="10" t="n">
+      <c r="L20" s="11" t="n"/>
+      <c r="M20" s="11" t="n"/>
+      <c r="N20" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="O20" s="10" t="n"/>
-      <c r="P20" s="10" t="inlineStr">
+      <c r="O20" s="11" t="n"/>
+      <c r="P20" s="11" t="inlineStr">
         <is>
           <t>- Nghiên cứu, code tính năng</t>
         </is>
       </c>
-      <c r="Q20" s="10" t="n"/>
-      <c r="R20" s="10" t="inlineStr">
+      <c r="Q20" s="11" t="n"/>
+      <c r="R20" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1711,60 +1726,60 @@
       <c r="T20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="D21" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="10" t="inlineStr">
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
+      <c r="I21" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr">
+      <c r="J21" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L21" s="10" t="n"/>
-      <c r="M21" s="10" t="n"/>
-      <c r="N21" s="10" t="n">
+      <c r="L21" s="11" t="n"/>
+      <c r="M21" s="11" t="n"/>
+      <c r="N21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="O21" s="10" t="n"/>
-      <c r="P21" s="10" t="inlineStr">
+      <c r="O21" s="11" t="n"/>
+      <c r="P21" s="11" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q21" s="10" t="n"/>
-      <c r="R21" s="10" t="inlineStr">
+      <c r="Q21" s="11" t="n"/>
+      <c r="R21" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1773,88 +1788,88 @@
       <c r="T21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="10" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="10" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="10" t="n"/>
-      <c r="G22" s="10" t="n"/>
-      <c r="H22" s="10" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="K22" s="12" t="n">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="11" t="n"/>
+      <c r="K22" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O22" s="12" t="n"/>
-      <c r="P22" s="10" t="n"/>
-      <c r="Q22" s="10" t="n"/>
-      <c r="R22" s="10" t="n"/>
+      <c r="O22" s="13" t="n"/>
+      <c r="P22" s="11" t="n"/>
+      <c r="Q22" s="11" t="n"/>
+      <c r="R22" s="11" t="n"/>
       <c r="S22" s="6" t="n"/>
       <c r="T22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="10" t="n"/>
-      <c r="G23" s="10" t="inlineStr">
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="H23" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I23" s="10" t="inlineStr">
+      <c r="I23" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J23" s="10" t="inlineStr">
+      <c r="J23" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="10" t="n"/>
-      <c r="M23" s="10" t="n"/>
-      <c r="N23" s="10" t="n">
+      <c r="L23" s="11" t="n"/>
+      <c r="M23" s="11" t="n"/>
+      <c r="N23" s="11" t="n">
         <v>112</v>
       </c>
-      <c r="O23" s="10" t="n"/>
-      <c r="P23" s="10" t="inlineStr">
+      <c r="O23" s="11" t="n"/>
+      <c r="P23" s="11" t="inlineStr">
         <is>
           <t>- Daily SOP: 0.5h/ngày * 21 = 10.5h/tháng
 - Sprint planing - retro review: 8h/tháng
@@ -1862,8 +1877,8 @@
 - Code tính năng: 4-5h/ngày * 21 = 80h/tháng</t>
         </is>
       </c>
-      <c r="Q23" s="10" t="n"/>
-      <c r="R23" s="10" t="inlineStr">
+      <c r="Q23" s="11" t="n"/>
+      <c r="R23" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1872,32 +1887,32 @@
       <c r="T23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="n"/>
-      <c r="B24" s="10" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="10" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="10" t="n"/>
-      <c r="G24" s="10" t="n"/>
-      <c r="H24" s="10" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="K24" s="12" t="n">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+      <c r="J24" s="11" t="n"/>
+      <c r="K24" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="12" t="n">
+      <c r="L24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="12" t="n"/>
-      <c r="P24" s="10" t="n"/>
-      <c r="Q24" s="10" t="n"/>
-      <c r="R24" s="10" t="n"/>
+      <c r="O24" s="13" t="n"/>
+      <c r="P24" s="11" t="n"/>
+      <c r="Q24" s="11" t="n"/>
+      <c r="R24" s="11" t="n"/>
       <c r="S24" s="6" t="n"/>
       <c r="T24" s="6" t="n"/>
     </row>
@@ -1969,42 +1984,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="G27" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="H27" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2014,17 +2029,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K27" s="8" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L27" s="8" t="inlineStr">
+      <c r="L27" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M27" s="8" t="inlineStr">
+      <c r="M27" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2034,12 +2049,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O27" s="8" t="inlineStr">
+      <c r="O27" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P27" s="7" t="inlineStr">
+      <c r="P27" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2049,7 +2064,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R27" s="7" t="inlineStr">
+      <c r="R27" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -2058,56 +2073,56 @@
       <c r="T27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="10" t="n"/>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="n"/>
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="D28" s="10" t="n"/>
-      <c r="E28" s="10" t="n"/>
-      <c r="F28" s="10" t="n"/>
-      <c r="G28" s="10" t="inlineStr">
+      <c r="D28" s="11" t="n"/>
+      <c r="E28" s="11" t="n"/>
+      <c r="F28" s="11" t="n"/>
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H28" s="10" t="inlineStr">
+      <c r="H28" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I28" s="10" t="inlineStr">
+      <c r="I28" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J28" s="10" t="inlineStr">
+      <c r="J28" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L28" s="10" t="n"/>
-      <c r="M28" s="10" t="n"/>
-      <c r="N28" s="10" t="n">
+      <c r="L28" s="11" t="n"/>
+      <c r="M28" s="11" t="n"/>
+      <c r="N28" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="O28" s="10" t="n"/>
-      <c r="P28" s="10" t="inlineStr">
+      <c r="O28" s="11" t="n"/>
+      <c r="P28" s="11" t="inlineStr">
         <is>
           <t>2h trong 1 tuần</t>
         </is>
       </c>
-      <c r="Q28" s="10" t="n"/>
-      <c r="R28" s="10" t="inlineStr">
+      <c r="Q28" s="11" t="n"/>
+      <c r="R28" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2116,52 +2131,52 @@
       <c r="T28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="n"/>
-      <c r="B29" s="10" t="n"/>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="D29" s="10" t="n"/>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="10" t="n"/>
-      <c r="G29" s="10" t="inlineStr">
+      <c r="D29" s="11" t="n"/>
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="11" t="n"/>
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="10" t="inlineStr">
+      <c r="H29" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I29" s="10" t="inlineStr">
+      <c r="I29" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr">
+      <c r="J29" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L29" s="10" t="n"/>
-      <c r="M29" s="10" t="n"/>
-      <c r="N29" s="10" t="n">
+      <c r="L29" s="11" t="n"/>
+      <c r="M29" s="11" t="n"/>
+      <c r="N29" s="11" t="n">
         <v>545</v>
       </c>
-      <c r="O29" s="10" t="n"/>
-      <c r="P29" s="10" t="inlineStr">
+      <c r="O29" s="11" t="n"/>
+      <c r="P29" s="11" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs:50h/tháng(từ 1.5 đến 2.5h/ngày)</t>
         </is>
       </c>
-      <c r="Q29" s="10" t="n"/>
-      <c r="R29" s="10" t="inlineStr">
+      <c r="Q29" s="11" t="n"/>
+      <c r="R29" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2170,88 +2185,88 @@
       <c r="T29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="n"/>
-      <c r="B30" s="10" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="10" t="n"/>
-      <c r="E30" s="10" t="n"/>
-      <c r="F30" s="10" t="n"/>
-      <c r="G30" s="10" t="n"/>
-      <c r="H30" s="10" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="10" t="n"/>
-      <c r="K30" s="12" t="n">
+      <c r="A30" s="11" t="n"/>
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="11" t="n"/>
+      <c r="E30" s="11" t="n"/>
+      <c r="F30" s="11" t="n"/>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="11" t="n"/>
+      <c r="I30" s="11" t="n"/>
+      <c r="J30" s="11" t="n"/>
+      <c r="K30" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="13" t="n">
         <v>675</v>
       </c>
-      <c r="O30" s="12" t="n"/>
-      <c r="P30" s="10" t="n"/>
-      <c r="Q30" s="10" t="n"/>
-      <c r="R30" s="10" t="n"/>
+      <c r="O30" s="13" t="n"/>
+      <c r="P30" s="11" t="n"/>
+      <c r="Q30" s="11" t="n"/>
+      <c r="R30" s="11" t="n"/>
       <c r="S30" s="6" t="n"/>
       <c r="T30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng CheckMK theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D31" s="10" t="inlineStr">
+      <c r="D31" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án CheckMK</t>
         </is>
       </c>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="10" t="n"/>
-      <c r="G31" s="10" t="inlineStr">
+      <c r="E31" s="11" t="n"/>
+      <c r="F31" s="11" t="n"/>
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H31" s="10" t="inlineStr">
+      <c r="H31" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
+      <c r="I31" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr">
+      <c r="J31" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="10" t="n"/>
-      <c r="M31" s="10" t="n"/>
-      <c r="N31" s="10" t="n">
+      <c r="L31" s="11" t="n"/>
+      <c r="M31" s="11" t="n"/>
+      <c r="N31" s="11" t="n">
         <v>122</v>
       </c>
-      <c r="O31" s="10" t="n"/>
-      <c r="P31" s="10" t="inlineStr">
+      <c r="O31" s="11" t="n"/>
+      <c r="P31" s="11" t="inlineStr">
         <is>
           <t>- Code tính năng 4h/ngày * 23
 - Review + Update Code: 0.5h/ tuần (PoolIP)
@@ -2259,8 +2274,8 @@
 - Meeting retro, review, planning : 16h/tháng</t>
         </is>
       </c>
-      <c r="Q31" s="10" t="n"/>
-      <c r="R31" s="10" t="inlineStr">
+      <c r="Q31" s="11" t="n"/>
+      <c r="R31" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2269,32 +2284,32 @@
       <c r="T31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="n"/>
-      <c r="B32" s="10" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="n"/>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="10" t="n"/>
-      <c r="K32" s="12" t="n">
+      <c r="A32" s="11" t="n"/>
+      <c r="B32" s="11" t="n"/>
+      <c r="C32" s="11" t="n"/>
+      <c r="D32" s="11" t="n"/>
+      <c r="E32" s="11" t="n"/>
+      <c r="F32" s="11" t="n"/>
+      <c r="G32" s="11" t="n"/>
+      <c r="H32" s="11" t="n"/>
+      <c r="I32" s="11" t="n"/>
+      <c r="J32" s="11" t="n"/>
+      <c r="K32" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="13" t="n">
         <v>675</v>
       </c>
-      <c r="O32" s="12" t="n"/>
-      <c r="P32" s="10" t="n"/>
-      <c r="Q32" s="10" t="n"/>
-      <c r="R32" s="10" t="n"/>
+      <c r="O32" s="13" t="n"/>
+      <c r="P32" s="11" t="n"/>
+      <c r="Q32" s="11" t="n"/>
+      <c r="R32" s="11" t="n"/>
       <c r="S32" s="6" t="n"/>
       <c r="T32" s="6" t="n"/>
     </row>
@@ -2366,42 +2381,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="G35" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr">
+      <c r="H35" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="I35" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2411,17 +2426,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K35" s="8" t="inlineStr">
+      <c r="K35" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L35" s="8" t="inlineStr">
+      <c r="L35" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M35" s="8" t="inlineStr">
+      <c r="M35" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2431,12 +2446,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O35" s="8" t="inlineStr">
+      <c r="O35" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P35" s="7" t="inlineStr">
+      <c r="P35" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2446,7 +2461,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R35" s="7" t="inlineStr">
+      <c r="R35" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -2455,64 +2470,64 @@
       <c r="T35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="inlineStr">
+      <c r="A36" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C36" s="10" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
-      <c r="D36" s="10" t="inlineStr">
+      <c r="D36" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="10" t="n"/>
-      <c r="G36" s="10" t="inlineStr">
+      <c r="E36" s="11" t="n"/>
+      <c r="F36" s="11" t="n"/>
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H36" s="10" t="inlineStr">
+      <c r="H36" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I36" s="10" t="inlineStr">
+      <c r="I36" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J36" s="10" t="inlineStr">
+      <c r="J36" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K36" s="10" t="n">
+      <c r="K36" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L36" s="10" t="n"/>
-      <c r="M36" s="10" t="n"/>
-      <c r="N36" s="10" t="n">
+      <c r="L36" s="11" t="n"/>
+      <c r="M36" s="11" t="n"/>
+      <c r="N36" s="11" t="n">
         <v>57.5</v>
       </c>
-      <c r="O36" s="10" t="n"/>
-      <c r="P36" s="10" t="inlineStr">
+      <c r="O36" s="11" t="n"/>
+      <c r="P36" s="11" t="inlineStr">
         <is>
           <t>57.5/tháng</t>
         </is>
       </c>
-      <c r="Q36" s="10" t="n"/>
-      <c r="R36" s="10" t="inlineStr">
+      <c r="Q36" s="11" t="n"/>
+      <c r="R36" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2521,60 +2536,60 @@
       <c r="T36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr">
+      <c r="D37" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E37" s="10" t="n"/>
-      <c r="F37" s="10" t="n"/>
-      <c r="G37" s="10" t="inlineStr">
+      <c r="E37" s="11" t="n"/>
+      <c r="F37" s="11" t="n"/>
+      <c r="G37" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H37" s="10" t="inlineStr">
+      <c r="H37" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I37" s="10" t="inlineStr">
+      <c r="I37" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J37" s="10" t="inlineStr">
+      <c r="J37" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K37" s="10" t="n">
+      <c r="K37" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L37" s="10" t="n"/>
-      <c r="M37" s="10" t="n"/>
-      <c r="N37" s="10" t="n">
+      <c r="L37" s="11" t="n"/>
+      <c r="M37" s="11" t="n"/>
+      <c r="N37" s="11" t="n">
         <v>11.5</v>
       </c>
-      <c r="O37" s="10" t="n"/>
-      <c r="P37" s="10" t="inlineStr">
+      <c r="O37" s="11" t="n"/>
+      <c r="P37" s="11" t="inlineStr">
         <is>
           <t>11.5/tháng</t>
         </is>
       </c>
-      <c r="Q37" s="10" t="n"/>
-      <c r="R37" s="10" t="inlineStr">
+      <c r="Q37" s="11" t="n"/>
+      <c r="R37" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2583,94 +2598,94 @@
       <c r="T37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="n"/>
-      <c r="B38" s="10" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="10" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="10" t="n"/>
-      <c r="G38" s="10" t="n"/>
-      <c r="H38" s="10" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="10" t="n"/>
-      <c r="K38" s="12" t="n">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="11" t="n"/>
+      <c r="C38" s="11" t="n"/>
+      <c r="D38" s="11" t="n"/>
+      <c r="E38" s="11" t="n"/>
+      <c r="F38" s="11" t="n"/>
+      <c r="G38" s="11" t="n"/>
+      <c r="H38" s="11" t="n"/>
+      <c r="I38" s="11" t="n"/>
+      <c r="J38" s="11" t="n"/>
+      <c r="K38" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="12" t="n">
+      <c r="L38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M38" s="12" t="n">
+      <c r="M38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="12" t="n">
+      <c r="N38" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O38" s="12" t="n"/>
-      <c r="P38" s="10" t="n"/>
-      <c r="Q38" s="10" t="n"/>
-      <c r="R38" s="10" t="n"/>
+      <c r="O38" s="13" t="n"/>
+      <c r="P38" s="11" t="n"/>
+      <c r="Q38" s="11" t="n"/>
+      <c r="R38" s="11" t="n"/>
       <c r="S38" s="6" t="n"/>
       <c r="T38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="inlineStr">
+      <c r="A39" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="B39" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C39" s="10" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D39" s="10" t="inlineStr">
+      <c r="D39" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="10" t="n"/>
-      <c r="G39" s="10" t="inlineStr">
+      <c r="E39" s="11" t="n"/>
+      <c r="F39" s="11" t="n"/>
+      <c r="G39" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H39" s="10" t="inlineStr">
+      <c r="H39" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I39" s="10" t="inlineStr">
+      <c r="I39" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J39" s="10" t="inlineStr">
+      <c r="J39" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K39" s="10" t="n">
+      <c r="K39" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L39" s="10" t="n"/>
-      <c r="M39" s="10" t="n"/>
-      <c r="N39" s="10" t="n">
+      <c r="L39" s="11" t="n"/>
+      <c r="M39" s="11" t="n"/>
+      <c r="N39" s="11" t="n">
         <v>115</v>
       </c>
-      <c r="O39" s="10" t="n"/>
-      <c r="P39" s="10" t="inlineStr">
+      <c r="O39" s="11" t="n"/>
+      <c r="P39" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">115/ tháng </t>
         </is>
       </c>
-      <c r="Q39" s="10" t="n"/>
-      <c r="R39" s="10" t="inlineStr">
+      <c r="Q39" s="11" t="n"/>
+      <c r="R39" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2679,32 +2694,32 @@
       <c r="T39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="n"/>
-      <c r="B40" s="10" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="10" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="10" t="n"/>
-      <c r="G40" s="10" t="n"/>
-      <c r="H40" s="10" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="10" t="n"/>
-      <c r="K40" s="12" t="n">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="11" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="n"/>
+      <c r="F40" s="11" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="11" t="n"/>
+      <c r="J40" s="11" t="n"/>
+      <c r="K40" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="12" t="n">
+      <c r="L40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M40" s="12" t="n">
+      <c r="M40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N40" s="12" t="n">
+      <c r="N40" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="12" t="n"/>
-      <c r="P40" s="10" t="n"/>
-      <c r="Q40" s="10" t="n"/>
-      <c r="R40" s="10" t="n"/>
+      <c r="O40" s="13" t="n"/>
+      <c r="P40" s="11" t="n"/>
+      <c r="Q40" s="11" t="n"/>
+      <c r="R40" s="11" t="n"/>
       <c r="S40" s="6" t="n"/>
       <c r="T40" s="6" t="n"/>
     </row>
@@ -2776,42 +2791,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C43" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr">
+      <c r="D43" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F43" s="7" t="inlineStr">
+      <c r="F43" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G43" s="7" t="inlineStr">
+      <c r="G43" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H43" s="7" t="inlineStr">
+      <c r="H43" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I43" s="7" t="inlineStr">
+      <c r="I43" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2821,17 +2836,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K43" s="8" t="inlineStr">
+      <c r="K43" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L43" s="8" t="inlineStr">
+      <c r="L43" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M43" s="8" t="inlineStr">
+      <c r="M43" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2841,12 +2856,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O43" s="8" t="inlineStr">
+      <c r="O43" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P43" s="7" t="inlineStr">
+      <c r="P43" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2856,7 +2871,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R43" s="7" t="inlineStr">
+      <c r="R43" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -2865,60 +2880,60 @@
       <c r="T43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="10" t="inlineStr">
+      <c r="B44" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D44" s="10" t="inlineStr">
+      <c r="D44" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="10" t="n"/>
-      <c r="G44" s="10" t="inlineStr">
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="11" t="n"/>
+      <c r="G44" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H44" s="10" t="inlineStr">
+      <c r="H44" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I44" s="10" t="inlineStr">
+      <c r="I44" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J44" s="10" t="inlineStr">
+      <c r="J44" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K44" s="10" t="n">
+      <c r="K44" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L44" s="10" t="n"/>
-      <c r="M44" s="10" t="n"/>
-      <c r="N44" s="10" t="n">
+      <c r="L44" s="11" t="n"/>
+      <c r="M44" s="11" t="n"/>
+      <c r="N44" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="O44" s="10" t="n"/>
-      <c r="P44" s="10" t="n"/>
-      <c r="Q44" s="10" t="n"/>
-      <c r="R44" s="10" t="inlineStr">
+      <c r="O44" s="11" t="n"/>
+      <c r="P44" s="11" t="n"/>
+      <c r="Q44" s="11" t="n"/>
+      <c r="R44" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2927,61 +2942,61 @@
       <c r="T44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="B45" s="10" t="inlineStr">
+      <c r="A45" s="12" t="n"/>
+      <c r="B45" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
         </is>
       </c>
-      <c r="C45" s="10" t="inlineStr">
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
         </is>
       </c>
-      <c r="D45" s="10" t="inlineStr">
+      <c r="D45" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E45" s="10" t="n"/>
-      <c r="F45" s="10" t="n"/>
-      <c r="G45" s="10" t="inlineStr">
+      <c r="E45" s="11" t="n"/>
+      <c r="F45" s="11" t="n"/>
+      <c r="G45" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H45" s="10" t="inlineStr">
+      <c r="H45" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I45" s="10" t="inlineStr">
+      <c r="I45" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr">
+      <c r="J45" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K45" s="10" t="n">
+      <c r="K45" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L45" s="10" t="n"/>
-      <c r="M45" s="10" t="n"/>
-      <c r="N45" s="10" t="n">
+      <c r="L45" s="11" t="n"/>
+      <c r="M45" s="11" t="n"/>
+      <c r="N45" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="O45" s="10" t="n"/>
-      <c r="P45" s="10" t="inlineStr">
+      <c r="O45" s="11" t="n"/>
+      <c r="P45" s="11" t="inlineStr">
         <is>
           <t>- Dialo: Fix bug 16h
 - Happy Connect: Fix bug 24h</t>
         </is>
       </c>
-      <c r="Q45" s="10" t="n"/>
-      <c r="R45" s="10" t="inlineStr">
+      <c r="Q45" s="11" t="n"/>
+      <c r="R45" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2990,95 +3005,95 @@
       <c r="T45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="n"/>
-      <c r="B46" s="10" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="10" t="n"/>
-      <c r="E46" s="10" t="n"/>
-      <c r="F46" s="10" t="n"/>
-      <c r="G46" s="10" t="n"/>
-      <c r="H46" s="10" t="n"/>
-      <c r="I46" s="10" t="n"/>
-      <c r="J46" s="10" t="n"/>
-      <c r="K46" s="12" t="n">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="11" t="n"/>
+      <c r="C46" s="11" t="n"/>
+      <c r="D46" s="11" t="n"/>
+      <c r="E46" s="11" t="n"/>
+      <c r="F46" s="11" t="n"/>
+      <c r="G46" s="11" t="n"/>
+      <c r="H46" s="11" t="n"/>
+      <c r="I46" s="11" t="n"/>
+      <c r="J46" s="11" t="n"/>
+      <c r="K46" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L46" s="12" t="n">
+      <c r="L46" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M46" s="12" t="n">
+      <c r="M46" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="12" t="n">
+      <c r="N46" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O46" s="12" t="n"/>
-      <c r="P46" s="10" t="n"/>
-      <c r="Q46" s="10" t="n"/>
-      <c r="R46" s="10" t="n"/>
+      <c r="O46" s="13" t="n"/>
+      <c r="P46" s="11" t="n"/>
+      <c r="Q46" s="11" t="n"/>
+      <c r="R46" s="11" t="n"/>
       <c r="S46" s="6" t="n"/>
       <c r="T46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="inlineStr">
+      <c r="A47" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr">
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C47" s="10" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D47" s="10" t="inlineStr">
+      <c r="D47" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
         </is>
       </c>
-      <c r="E47" s="10" t="n"/>
-      <c r="F47" s="10" t="n"/>
-      <c r="G47" s="10" t="inlineStr">
+      <c r="E47" s="11" t="n"/>
+      <c r="F47" s="11" t="n"/>
+      <c r="G47" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H47" s="10" t="inlineStr">
+      <c r="H47" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I47" s="10" t="inlineStr">
+      <c r="I47" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr">
+      <c r="J47" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K47" s="10" t="n">
+      <c r="K47" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L47" s="10" t="n"/>
-      <c r="M47" s="10" t="n"/>
-      <c r="N47" s="10" t="n">
+      <c r="L47" s="11" t="n"/>
+      <c r="M47" s="11" t="n"/>
+      <c r="N47" s="11" t="n">
         <v>128</v>
       </c>
-      <c r="O47" s="10" t="n"/>
-      <c r="P47" s="10" t="inlineStr">
+      <c r="O47" s="11" t="n"/>
+      <c r="P47" s="11" t="inlineStr">
         <is>
           <t>- Dialo: làm tính năng + họp daily 24h
 - Happy Connect: làm tính năng + họp daily 72h</t>
         </is>
       </c>
-      <c r="Q47" s="10" t="n"/>
-      <c r="R47" s="10" t="inlineStr">
+      <c r="Q47" s="11" t="n"/>
+      <c r="R47" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3087,32 +3102,32 @@
       <c r="T47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="n"/>
-      <c r="B48" s="10" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="10" t="n"/>
-      <c r="E48" s="10" t="n"/>
-      <c r="F48" s="10" t="n"/>
-      <c r="G48" s="10" t="n"/>
-      <c r="H48" s="10" t="n"/>
-      <c r="I48" s="10" t="n"/>
-      <c r="J48" s="10" t="n"/>
-      <c r="K48" s="12" t="n">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="11" t="n"/>
+      <c r="C48" s="11" t="n"/>
+      <c r="D48" s="11" t="n"/>
+      <c r="E48" s="11" t="n"/>
+      <c r="F48" s="11" t="n"/>
+      <c r="G48" s="11" t="n"/>
+      <c r="H48" s="11" t="n"/>
+      <c r="I48" s="11" t="n"/>
+      <c r="J48" s="11" t="n"/>
+      <c r="K48" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L48" s="12" t="n">
+      <c r="L48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="12" t="n">
+      <c r="M48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N48" s="12" t="n">
+      <c r="N48" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O48" s="12" t="n"/>
-      <c r="P48" s="10" t="n"/>
-      <c r="Q48" s="10" t="n"/>
-      <c r="R48" s="10" t="n"/>
+      <c r="O48" s="13" t="n"/>
+      <c r="P48" s="11" t="n"/>
+      <c r="Q48" s="11" t="n"/>
+      <c r="R48" s="11" t="n"/>
       <c r="S48" s="6" t="n"/>
       <c r="T48" s="6" t="n"/>
     </row>
@@ -3184,42 +3199,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B51" s="7" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
+      <c r="C51" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D51" s="7" t="inlineStr">
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E51" s="7" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F51" s="7" t="inlineStr">
+      <c r="F51" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G51" s="7" t="inlineStr">
+      <c r="G51" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H51" s="7" t="inlineStr">
+      <c r="H51" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I51" s="7" t="inlineStr">
+      <c r="I51" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -3229,17 +3244,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K51" s="8" t="inlineStr">
+      <c r="K51" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L51" s="8" t="inlineStr">
+      <c r="L51" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M51" s="8" t="inlineStr">
+      <c r="M51" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -3249,12 +3264,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O51" s="8" t="inlineStr">
+      <c r="O51" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P51" s="7" t="inlineStr">
+      <c r="P51" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -3264,7 +3279,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R51" s="7" t="inlineStr">
+      <c r="R51" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -3273,52 +3288,52 @@
       <c r="T51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="inlineStr">
+      <c r="A52" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B52" s="10" t="n"/>
-      <c r="C52" s="10" t="inlineStr">
-        <is>
-          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="D52" s="10" t="n"/>
-      <c r="E52" s="10" t="n"/>
-      <c r="F52" s="10" t="n"/>
-      <c r="G52" s="10" t="inlineStr">
+      <c r="B52" s="11" t="n"/>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="n"/>
+      <c r="E52" s="11" t="n"/>
+      <c r="F52" s="11" t="n"/>
+      <c r="G52" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H52" s="10" t="inlineStr">
+      <c r="H52" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I52" s="10" t="inlineStr">
+      <c r="I52" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J52" s="10" t="inlineStr">
+      <c r="J52" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K52" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" s="10" t="n"/>
-      <c r="M52" s="10" t="n"/>
-      <c r="N52" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="O52" s="10" t="n"/>
-      <c r="P52" s="10" t="n"/>
-      <c r="Q52" s="10" t="n"/>
-      <c r="R52" s="10" t="inlineStr">
+      <c r="K52" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="L52" s="11" t="n"/>
+      <c r="M52" s="11" t="n"/>
+      <c r="N52" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="O52" s="11" t="n"/>
+      <c r="P52" s="11" t="n"/>
+      <c r="Q52" s="11" t="n"/>
+      <c r="R52" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3327,48 +3342,48 @@
       <c r="T52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="B53" s="10" t="n"/>
-      <c r="C53" s="10" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="D53" s="10" t="n"/>
-      <c r="E53" s="10" t="n"/>
-      <c r="F53" s="10" t="n"/>
-      <c r="G53" s="10" t="inlineStr">
+      <c r="A53" s="12" t="n"/>
+      <c r="B53" s="11" t="n"/>
+      <c r="C53" s="11" t="inlineStr">
+        <is>
+          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="D53" s="11" t="n"/>
+      <c r="E53" s="11" t="n"/>
+      <c r="F53" s="11" t="n"/>
+      <c r="G53" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H53" s="10" t="inlineStr">
+      <c r="H53" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I53" s="10" t="inlineStr">
+      <c r="I53" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr">
+      <c r="J53" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K53" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="L53" s="10" t="n"/>
-      <c r="M53" s="10" t="n"/>
-      <c r="N53" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="O53" s="10" t="n"/>
-      <c r="P53" s="10" t="n"/>
-      <c r="Q53" s="10" t="n"/>
-      <c r="R53" s="10" t="inlineStr">
+      <c r="K53" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L53" s="11" t="n"/>
+      <c r="M53" s="11" t="n"/>
+      <c r="N53" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="O53" s="11" t="n"/>
+      <c r="P53" s="11" t="n"/>
+      <c r="Q53" s="11" t="n"/>
+      <c r="R53" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3377,94 +3392,94 @@
       <c r="T53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="n"/>
-      <c r="B54" s="10" t="n"/>
-      <c r="C54" s="10" t="n"/>
-      <c r="D54" s="10" t="n"/>
-      <c r="E54" s="10" t="n"/>
-      <c r="F54" s="10" t="n"/>
-      <c r="G54" s="10" t="n"/>
-      <c r="H54" s="10" t="n"/>
-      <c r="I54" s="10" t="n"/>
-      <c r="J54" s="10" t="n"/>
-      <c r="K54" s="12" t="n">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="11" t="n"/>
+      <c r="C54" s="11" t="n"/>
+      <c r="D54" s="11" t="n"/>
+      <c r="E54" s="11" t="n"/>
+      <c r="F54" s="11" t="n"/>
+      <c r="G54" s="11" t="n"/>
+      <c r="H54" s="11" t="n"/>
+      <c r="I54" s="11" t="n"/>
+      <c r="J54" s="11" t="n"/>
+      <c r="K54" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L54" s="12" t="n">
+      <c r="L54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M54" s="12" t="n">
+      <c r="M54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="12" t="n">
+      <c r="N54" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O54" s="12" t="n"/>
-      <c r="P54" s="10" t="n"/>
-      <c r="Q54" s="10" t="n"/>
-      <c r="R54" s="10" t="n"/>
+      <c r="O54" s="13" t="n"/>
+      <c r="P54" s="11" t="n"/>
+      <c r="Q54" s="11" t="n"/>
+      <c r="R54" s="11" t="n"/>
       <c r="S54" s="6" t="n"/>
       <c r="T54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="10" t="inlineStr">
+      <c r="A55" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B55" s="10" t="inlineStr">
+      <c r="B55" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C55" s="10" t="inlineStr">
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo đáp ứng 100% nhu cầu chạy chiến dịch và số lượng Agents của TLS và hoàn thành tính năng giám sát agent (nghe lén)</t>
         </is>
       </c>
-      <c r="D55" s="10" t="inlineStr">
+      <c r="D55" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Dialo</t>
         </is>
       </c>
-      <c r="E55" s="10" t="n"/>
-      <c r="F55" s="10" t="n"/>
-      <c r="G55" s="10" t="inlineStr">
+      <c r="E55" s="11" t="n"/>
+      <c r="F55" s="11" t="n"/>
+      <c r="G55" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H55" s="10" t="inlineStr">
+      <c r="H55" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I55" s="10" t="inlineStr">
+      <c r="I55" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr">
+      <c r="J55" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K55" s="10" t="n">
+      <c r="K55" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L55" s="10" t="n"/>
-      <c r="M55" s="10" t="n"/>
-      <c r="N55" s="10" t="n">
+      <c r="L55" s="11" t="n"/>
+      <c r="M55" s="11" t="n"/>
+      <c r="N55" s="11" t="n">
         <v>115</v>
       </c>
-      <c r="O55" s="10" t="n"/>
-      <c r="P55" s="10" t="inlineStr">
+      <c r="O55" s="11" t="n"/>
+      <c r="P55" s="11" t="inlineStr">
         <is>
           <t>23 * 5 ( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
         </is>
       </c>
-      <c r="Q55" s="10" t="n"/>
-      <c r="R55" s="10" t="inlineStr">
+      <c r="Q55" s="11" t="n"/>
+      <c r="R55" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3473,32 +3488,32 @@
       <c r="T55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="n"/>
-      <c r="B56" s="10" t="n"/>
-      <c r="C56" s="10" t="n"/>
-      <c r="D56" s="10" t="n"/>
-      <c r="E56" s="10" t="n"/>
-      <c r="F56" s="10" t="n"/>
-      <c r="G56" s="10" t="n"/>
-      <c r="H56" s="10" t="n"/>
-      <c r="I56" s="10" t="n"/>
-      <c r="J56" s="10" t="n"/>
-      <c r="K56" s="12" t="n">
+      <c r="A56" s="11" t="n"/>
+      <c r="B56" s="11" t="n"/>
+      <c r="C56" s="11" t="n"/>
+      <c r="D56" s="11" t="n"/>
+      <c r="E56" s="11" t="n"/>
+      <c r="F56" s="11" t="n"/>
+      <c r="G56" s="11" t="n"/>
+      <c r="H56" s="11" t="n"/>
+      <c r="I56" s="11" t="n"/>
+      <c r="J56" s="11" t="n"/>
+      <c r="K56" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L56" s="12" t="n">
+      <c r="L56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M56" s="12" t="n">
+      <c r="M56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N56" s="12" t="n">
+      <c r="N56" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O56" s="12" t="n"/>
-      <c r="P56" s="10" t="n"/>
-      <c r="Q56" s="10" t="n"/>
-      <c r="R56" s="10" t="n"/>
+      <c r="O56" s="13" t="n"/>
+      <c r="P56" s="11" t="n"/>
+      <c r="Q56" s="11" t="n"/>
+      <c r="R56" s="11" t="n"/>
       <c r="S56" s="6" t="n"/>
       <c r="T56" s="6" t="n"/>
     </row>
@@ -3570,42 +3585,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B59" s="7" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C59" s="7" t="inlineStr">
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D59" s="7" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E59" s="7" t="inlineStr">
+      <c r="E59" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F59" s="7" t="inlineStr">
+      <c r="F59" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G59" s="7" t="inlineStr">
+      <c r="G59" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H59" s="7" t="inlineStr">
+      <c r="H59" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I59" s="7" t="inlineStr">
+      <c r="I59" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -3615,17 +3630,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K59" s="8" t="inlineStr">
+      <c r="K59" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L59" s="8" t="inlineStr">
+      <c r="L59" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M59" s="8" t="inlineStr">
+      <c r="M59" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -3635,12 +3650,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O59" s="8" t="inlineStr">
+      <c r="O59" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P59" s="7" t="inlineStr">
+      <c r="P59" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -3650,7 +3665,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R59" s="7" t="inlineStr">
+      <c r="R59" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -3659,58 +3674,58 @@
       <c r="T59" s="6" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B60" s="10" t="n"/>
-      <c r="C60" s="10" t="inlineStr">
+      <c r="B60" s="11" t="n"/>
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
         </is>
       </c>
-      <c r="D60" s="10" t="n"/>
-      <c r="E60" s="10" t="n"/>
-      <c r="F60" s="10" t="n"/>
-      <c r="G60" s="10" t="inlineStr">
+      <c r="D60" s="11" t="n"/>
+      <c r="E60" s="11" t="n"/>
+      <c r="F60" s="11" t="n"/>
+      <c r="G60" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H60" s="10" t="inlineStr">
+      <c r="H60" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I60" s="10" t="inlineStr">
+      <c r="I60" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J60" s="10" t="inlineStr">
+      <c r="J60" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K60" s="10" t="n">
+      <c r="K60" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L60" s="10" t="n"/>
-      <c r="M60" s="10" t="n"/>
-      <c r="N60" s="10" t="n">
+      <c r="L60" s="11" t="n"/>
+      <c r="M60" s="11" t="n"/>
+      <c r="N60" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="O60" s="10" t="n"/>
-      <c r="P60" s="10" t="inlineStr">
+      <c r="O60" s="11" t="n"/>
+      <c r="P60" s="11" t="inlineStr">
         <is>
           <t>"- Nghiên cứu HVAC: 8h 
 - Tích hợp thư viện vào source code và triển khai dev: 6h
 - Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
         </is>
       </c>
-      <c r="Q60" s="10" t="n"/>
-      <c r="R60" s="10" t="inlineStr">
+      <c r="Q60" s="11" t="n"/>
+      <c r="R60" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3719,52 +3734,52 @@
       <c r="T60" s="6" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="B61" s="10" t="n"/>
-      <c r="C61" s="10" t="inlineStr">
+      <c r="A61" s="12" t="n"/>
+      <c r="B61" s="11" t="n"/>
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="D61" s="10" t="n"/>
-      <c r="E61" s="10" t="n"/>
-      <c r="F61" s="10" t="n"/>
-      <c r="G61" s="10" t="inlineStr">
+      <c r="D61" s="11" t="n"/>
+      <c r="E61" s="11" t="n"/>
+      <c r="F61" s="11" t="n"/>
+      <c r="G61" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H61" s="10" t="inlineStr">
+      <c r="H61" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I61" s="10" t="inlineStr">
+      <c r="I61" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr">
+      <c r="J61" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K61" s="10" t="n">
+      <c r="K61" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L61" s="10" t="n"/>
-      <c r="M61" s="10" t="n"/>
-      <c r="N61" s="10" t="n">
+      <c r="L61" s="11" t="n"/>
+      <c r="M61" s="11" t="n"/>
+      <c r="N61" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="O61" s="10" t="n"/>
-      <c r="P61" s="10" t="inlineStr">
+      <c r="O61" s="11" t="n"/>
+      <c r="P61" s="11" t="inlineStr">
         <is>
           <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
         </is>
       </c>
-      <c r="Q61" s="10" t="n"/>
-      <c r="R61" s="10" t="inlineStr">
+      <c r="Q61" s="11" t="n"/>
+      <c r="R61" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3773,88 +3788,88 @@
       <c r="T61" s="6" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="n"/>
-      <c r="B62" s="10" t="n"/>
-      <c r="C62" s="10" t="n"/>
-      <c r="D62" s="10" t="n"/>
-      <c r="E62" s="10" t="n"/>
-      <c r="F62" s="10" t="n"/>
-      <c r="G62" s="10" t="n"/>
-      <c r="H62" s="10" t="n"/>
-      <c r="I62" s="10" t="n"/>
-      <c r="J62" s="10" t="n"/>
-      <c r="K62" s="12" t="n">
+      <c r="A62" s="11" t="n"/>
+      <c r="B62" s="11" t="n"/>
+      <c r="C62" s="11" t="n"/>
+      <c r="D62" s="11" t="n"/>
+      <c r="E62" s="11" t="n"/>
+      <c r="F62" s="11" t="n"/>
+      <c r="G62" s="11" t="n"/>
+      <c r="H62" s="11" t="n"/>
+      <c r="I62" s="11" t="n"/>
+      <c r="J62" s="11" t="n"/>
+      <c r="K62" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L62" s="12" t="n">
+      <c r="L62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M62" s="12" t="n">
+      <c r="M62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N62" s="12" t="n">
+      <c r="N62" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O62" s="12" t="n"/>
-      <c r="P62" s="10" t="n"/>
-      <c r="Q62" s="10" t="n"/>
-      <c r="R62" s="10" t="n"/>
+      <c r="O62" s="13" t="n"/>
+      <c r="P62" s="11" t="n"/>
+      <c r="Q62" s="11" t="n"/>
+      <c r="R62" s="11" t="n"/>
       <c r="S62" s="6" t="n"/>
       <c r="T62" s="6" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="10" t="inlineStr">
+      <c r="A63" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B63" s="10" t="inlineStr">
+      <c r="B63" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C63" s="10" t="inlineStr">
+      <c r="C63" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D63" s="10" t="inlineStr">
+      <c r="D63" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E63" s="10" t="n"/>
-      <c r="F63" s="10" t="n"/>
-      <c r="G63" s="10" t="inlineStr">
+      <c r="E63" s="11" t="n"/>
+      <c r="F63" s="11" t="n"/>
+      <c r="G63" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H63" s="10" t="inlineStr">
+      <c r="H63" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I63" s="10" t="inlineStr">
+      <c r="I63" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr">
+      <c r="J63" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K63" s="10" t="n">
+      <c r="K63" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L63" s="10" t="n"/>
-      <c r="M63" s="10" t="n"/>
-      <c r="N63" s="10" t="n">
+      <c r="L63" s="11" t="n"/>
+      <c r="M63" s="11" t="n"/>
+      <c r="N63" s="11" t="n">
         <v>122</v>
       </c>
-      <c r="O63" s="10" t="n"/>
-      <c r="P63" s="10" t="inlineStr">
+      <c r="O63" s="11" t="n"/>
+      <c r="P63" s="11" t="inlineStr">
         <is>
           <t>"- Tổng = 80,5 + 8 + 11.5 + 8 + 3
 - 4*23 =  80.5(Code tính năng 4h/ngày)
@@ -3864,8 +3879,8 @@
 "</t>
         </is>
       </c>
-      <c r="Q63" s="10" t="n"/>
-      <c r="R63" s="10" t="inlineStr">
+      <c r="Q63" s="11" t="n"/>
+      <c r="R63" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3874,32 +3889,32 @@
       <c r="T63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="10" t="n"/>
-      <c r="B64" s="10" t="n"/>
-      <c r="C64" s="10" t="n"/>
-      <c r="D64" s="10" t="n"/>
-      <c r="E64" s="10" t="n"/>
-      <c r="F64" s="10" t="n"/>
-      <c r="G64" s="10" t="n"/>
-      <c r="H64" s="10" t="n"/>
-      <c r="I64" s="10" t="n"/>
-      <c r="J64" s="10" t="n"/>
-      <c r="K64" s="12" t="n">
+      <c r="A64" s="11" t="n"/>
+      <c r="B64" s="11" t="n"/>
+      <c r="C64" s="11" t="n"/>
+      <c r="D64" s="11" t="n"/>
+      <c r="E64" s="11" t="n"/>
+      <c r="F64" s="11" t="n"/>
+      <c r="G64" s="11" t="n"/>
+      <c r="H64" s="11" t="n"/>
+      <c r="I64" s="11" t="n"/>
+      <c r="J64" s="11" t="n"/>
+      <c r="K64" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L64" s="12" t="n">
+      <c r="L64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M64" s="12" t="n">
+      <c r="M64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="12" t="n">
+      <c r="N64" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O64" s="12" t="n"/>
-      <c r="P64" s="10" t="n"/>
-      <c r="Q64" s="10" t="n"/>
-      <c r="R64" s="10" t="n"/>
+      <c r="O64" s="13" t="n"/>
+      <c r="P64" s="11" t="n"/>
+      <c r="Q64" s="11" t="n"/>
+      <c r="R64" s="11" t="n"/>
       <c r="S64" s="6" t="n"/>
       <c r="T64" s="6" t="n"/>
     </row>
@@ -3971,42 +3986,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B67" s="7" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C67" s="7" t="inlineStr">
+      <c r="C67" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D67" s="7" t="inlineStr">
+      <c r="D67" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E67" s="7" t="inlineStr">
+      <c r="E67" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F67" s="7" t="inlineStr">
+      <c r="F67" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G67" s="7" t="inlineStr">
+      <c r="G67" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H67" s="7" t="inlineStr">
+      <c r="H67" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I67" s="7" t="inlineStr">
+      <c r="I67" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -4016,17 +4031,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K67" s="8" t="inlineStr">
+      <c r="K67" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L67" s="8" t="inlineStr">
+      <c r="L67" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M67" s="8" t="inlineStr">
+      <c r="M67" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -4036,12 +4051,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O67" s="8" t="inlineStr">
+      <c r="O67" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P67" s="7" t="inlineStr">
+      <c r="P67" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -4051,7 +4066,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R67" s="7" t="inlineStr">
+      <c r="R67" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -4060,64 +4075,65 @@
       <c r="T67" s="6" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="10" t="inlineStr">
+      <c r="A68" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B68" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C68" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
-        </is>
-      </c>
-      <c r="D68" s="10" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E68" s="10" t="n"/>
-      <c r="F68" s="10" t="n"/>
-      <c r="G68" s="10" t="inlineStr">
+      <c r="B68" s="11" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C68" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
+        </is>
+      </c>
+      <c r="E68" s="11" t="n"/>
+      <c r="F68" s="11" t="n"/>
+      <c r="G68" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H68" s="10" t="inlineStr">
+      <c r="H68" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I68" s="10" t="inlineStr">
+      <c r="I68" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J68" s="10" t="inlineStr">
+      <c r="J68" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K68" s="10" t="n">
+      <c r="K68" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="10" t="n"/>
-      <c r="M68" s="10" t="n"/>
-      <c r="N68" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="O68" s="10" t="n"/>
-      <c r="P68" s="10" t="inlineStr">
-        <is>
-          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
-        </is>
-      </c>
-      <c r="Q68" s="10" t="n"/>
-      <c r="R68" s="10" t="inlineStr">
+      <c r="L68" s="11" t="n"/>
+      <c r="M68" s="11" t="n"/>
+      <c r="N68" s="11" t="n">
+        <v>123</v>
+      </c>
+      <c r="O68" s="11" t="n"/>
+      <c r="P68" s="11" t="inlineStr">
+        <is>
+          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
+4h review, retro, planing 1 sprint"</t>
+        </is>
+      </c>
+      <c r="Q68" s="11" t="n"/>
+      <c r="R68" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4126,60 +4142,60 @@
       <c r="T68" s="6" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="13" t="n"/>
-      <c r="B69" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C69" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D69" s="10" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E69" s="10" t="n"/>
-      <c r="F69" s="10" t="n"/>
-      <c r="G69" s="10" t="inlineStr">
+      <c r="A69" s="14" t="n"/>
+      <c r="B69" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C69" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+        </is>
+      </c>
+      <c r="D69" s="11" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E69" s="11" t="n"/>
+      <c r="F69" s="11" t="n"/>
+      <c r="G69" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H69" s="10" t="inlineStr">
+      <c r="H69" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I69" s="10" t="inlineStr">
+      <c r="I69" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr">
+      <c r="J69" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K69" s="10" t="n">
+      <c r="K69" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L69" s="10" t="n"/>
-      <c r="M69" s="10" t="n"/>
-      <c r="N69" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="O69" s="10" t="n"/>
-      <c r="P69" s="10" t="inlineStr">
-        <is>
-          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
-        </is>
-      </c>
-      <c r="Q69" s="10" t="n"/>
-      <c r="R69" s="10" t="inlineStr">
+      <c r="L69" s="11" t="n"/>
+      <c r="M69" s="11" t="n"/>
+      <c r="N69" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="O69" s="11" t="n"/>
+      <c r="P69" s="11" t="inlineStr">
+        <is>
+          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+        </is>
+      </c>
+      <c r="Q69" s="11" t="n"/>
+      <c r="R69" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4188,61 +4204,60 @@
       <c r="T69" s="6" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="n"/>
-      <c r="B70" s="10" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C70" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D70" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
-        </is>
-      </c>
-      <c r="E70" s="10" t="n"/>
-      <c r="F70" s="10" t="n"/>
-      <c r="G70" s="10" t="inlineStr">
+      <c r="A70" s="12" t="n"/>
+      <c r="B70" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C70" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D70" s="11" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E70" s="11" t="n"/>
+      <c r="F70" s="11" t="n"/>
+      <c r="G70" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H70" s="10" t="inlineStr">
+      <c r="H70" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I70" s="10" t="inlineStr">
+      <c r="I70" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J70" s="10" t="inlineStr">
+      <c r="J70" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K70" s="10" t="n">
+      <c r="K70" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L70" s="10" t="n"/>
-      <c r="M70" s="10" t="n"/>
-      <c r="N70" s="10" t="n">
-        <v>123</v>
-      </c>
-      <c r="O70" s="10" t="n"/>
-      <c r="P70" s="10" t="inlineStr">
-        <is>
-          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
-4h review, retro, planing 1 sprint"</t>
-        </is>
-      </c>
-      <c r="Q70" s="10" t="n"/>
-      <c r="R70" s="10" t="inlineStr">
+      <c r="L70" s="11" t="n"/>
+      <c r="M70" s="11" t="n"/>
+      <c r="N70" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O70" s="11" t="n"/>
+      <c r="P70" s="11" t="inlineStr">
+        <is>
+          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
+        </is>
+      </c>
+      <c r="Q70" s="11" t="n"/>
+      <c r="R70" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4251,92 +4266,92 @@
       <c r="T70" s="6" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="10" t="n"/>
-      <c r="B71" s="10" t="n"/>
-      <c r="C71" s="10" t="n"/>
-      <c r="D71" s="10" t="n"/>
-      <c r="E71" s="10" t="n"/>
-      <c r="F71" s="10" t="n"/>
-      <c r="G71" s="10" t="n"/>
-      <c r="H71" s="10" t="n"/>
-      <c r="I71" s="10" t="n"/>
-      <c r="J71" s="10" t="n"/>
-      <c r="K71" s="12" t="n">
+      <c r="A71" s="11" t="n"/>
+      <c r="B71" s="11" t="n"/>
+      <c r="C71" s="11" t="n"/>
+      <c r="D71" s="11" t="n"/>
+      <c r="E71" s="11" t="n"/>
+      <c r="F71" s="11" t="n"/>
+      <c r="G71" s="11" t="n"/>
+      <c r="H71" s="11" t="n"/>
+      <c r="I71" s="11" t="n"/>
+      <c r="J71" s="11" t="n"/>
+      <c r="K71" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="L71" s="12" t="n">
+      <c r="L71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M71" s="12" t="n">
+      <c r="M71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="12" t="n">
+      <c r="N71" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O71" s="12" t="n"/>
-      <c r="P71" s="10" t="n"/>
-      <c r="Q71" s="10" t="n"/>
-      <c r="R71" s="10" t="n"/>
+      <c r="O71" s="13" t="n"/>
+      <c r="P71" s="11" t="n"/>
+      <c r="Q71" s="11" t="n"/>
+      <c r="R71" s="11" t="n"/>
       <c r="S71" s="6" t="n"/>
       <c r="T71" s="6" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="10" t="inlineStr">
+      <c r="A72" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B72" s="10" t="inlineStr">
+      <c r="B72" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
 </t>
         </is>
       </c>
-      <c r="C72" s="10" t="inlineStr">
+      <c r="C72" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
 </t>
         </is>
       </c>
-      <c r="D72" s="10" t="inlineStr">
+      <c r="D72" s="11" t="inlineStr">
         <is>
           <t>Thi đạt chứng chỉ PCAP trong tháng 9.2023</t>
         </is>
       </c>
-      <c r="E72" s="10" t="n"/>
-      <c r="F72" s="10" t="n"/>
-      <c r="G72" s="10" t="inlineStr">
+      <c r="E72" s="11" t="n"/>
+      <c r="F72" s="11" t="n"/>
+      <c r="G72" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H72" s="10" t="inlineStr">
+      <c r="H72" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I72" s="10" t="inlineStr">
+      <c r="I72" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J72" s="10" t="inlineStr">
+      <c r="J72" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K72" s="10" t="n">
+      <c r="K72" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L72" s="10" t="n"/>
-      <c r="M72" s="10" t="n"/>
-      <c r="N72" s="10" t="n">
+      <c r="L72" s="11" t="n"/>
+      <c r="M72" s="11" t="n"/>
+      <c r="N72" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="O72" s="10" t="n"/>
-      <c r="P72" s="10" t="n"/>
-      <c r="Q72" s="10" t="n"/>
-      <c r="R72" s="10" t="inlineStr">
+      <c r="O72" s="11" t="n"/>
+      <c r="P72" s="11" t="n"/>
+      <c r="Q72" s="11" t="n"/>
+      <c r="R72" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4345,56 +4360,56 @@
       <c r="T72" s="6" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="13" t="n"/>
-      <c r="B73" s="10" t="inlineStr">
+      <c r="A73" s="14" t="n"/>
+      <c r="B73" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
         </is>
       </c>
-      <c r="C73" s="10" t="inlineStr">
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
         </is>
       </c>
-      <c r="D73" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch dự án HappyConnect trong quý 3</t>
-        </is>
-      </c>
-      <c r="E73" s="10" t="n"/>
-      <c r="F73" s="10" t="n"/>
-      <c r="G73" s="10" t="inlineStr">
+      <c r="D73" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool</t>
+        </is>
+      </c>
+      <c r="E73" s="11" t="n"/>
+      <c r="F73" s="11" t="n"/>
+      <c r="G73" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H73" s="10" t="inlineStr">
+      <c r="H73" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I73" s="10" t="inlineStr">
+      <c r="I73" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J73" s="10" t="inlineStr">
+      <c r="J73" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K73" s="10" t="n">
+      <c r="K73" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L73" s="10" t="n"/>
-      <c r="M73" s="10" t="n"/>
-      <c r="N73" s="10" t="n">
+      <c r="L73" s="11" t="n"/>
+      <c r="M73" s="11" t="n"/>
+      <c r="N73" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="O73" s="10" t="n"/>
-      <c r="P73" s="10" t="n"/>
-      <c r="Q73" s="10" t="n"/>
-      <c r="R73" s="10" t="inlineStr">
+      <c r="O73" s="11" t="n"/>
+      <c r="P73" s="11" t="n"/>
+      <c r="Q73" s="11" t="n"/>
+      <c r="R73" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4403,56 +4418,58 @@
       <c r="T73" s="6" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="13" t="n"/>
-      <c r="B74" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="C74" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="D74" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool</t>
-        </is>
-      </c>
-      <c r="E74" s="10" t="n"/>
-      <c r="F74" s="10" t="n"/>
-      <c r="G74" s="10" t="inlineStr">
+      <c r="A74" s="14" t="n"/>
+      <c r="B74" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="C74" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="D74" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành nghiên cứu, xây dựng kế hoạch và triển khai một công nghệ mới trong dự án Happy Connect trong tháng 08.2023</t>
+        </is>
+      </c>
+      <c r="E74" s="11" t="n"/>
+      <c r="F74" s="11" t="n"/>
+      <c r="G74" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H74" s="10" t="inlineStr">
+      <c r="H74" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I74" s="10" t="inlineStr">
+      <c r="I74" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J74" s="10" t="inlineStr">
+      <c r="J74" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K74" s="10" t="n">
+      <c r="K74" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L74" s="10" t="n"/>
-      <c r="M74" s="10" t="n"/>
-      <c r="N74" s="10" t="n">
+      <c r="L74" s="11" t="n"/>
+      <c r="M74" s="11" t="n"/>
+      <c r="N74" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="O74" s="10" t="n"/>
-      <c r="P74" s="10" t="n"/>
-      <c r="Q74" s="10" t="n"/>
-      <c r="R74" s="10" t="inlineStr">
+      <c r="O74" s="11" t="n"/>
+      <c r="P74" s="11" t="n"/>
+      <c r="Q74" s="11" t="n"/>
+      <c r="R74" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4461,58 +4478,56 @@
       <c r="T74" s="6" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="n"/>
-      <c r="B75" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="C75" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="D75" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành nghiên cứu, xây dựng kế hoạch và triển khai một công nghệ mới trong dự án Happy Connect trong tháng 08.2023</t>
-        </is>
-      </c>
-      <c r="E75" s="10" t="n"/>
-      <c r="F75" s="10" t="n"/>
-      <c r="G75" s="10" t="inlineStr">
+      <c r="A75" s="12" t="n"/>
+      <c r="B75" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="C75" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="D75" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng theo kế hoạch dự án HappyConnect trong quý 3</t>
+        </is>
+      </c>
+      <c r="E75" s="11" t="n"/>
+      <c r="F75" s="11" t="n"/>
+      <c r="G75" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H75" s="10" t="inlineStr">
+      <c r="H75" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I75" s="10" t="inlineStr">
+      <c r="I75" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J75" s="10" t="inlineStr">
+      <c r="J75" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K75" s="10" t="n">
+      <c r="K75" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L75" s="10" t="n"/>
-      <c r="M75" s="10" t="n"/>
-      <c r="N75" s="10" t="n">
+      <c r="L75" s="11" t="n"/>
+      <c r="M75" s="11" t="n"/>
+      <c r="N75" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="O75" s="10" t="n"/>
-      <c r="P75" s="10" t="n"/>
-      <c r="Q75" s="10" t="n"/>
-      <c r="R75" s="10" t="inlineStr">
+      <c r="O75" s="11" t="n"/>
+      <c r="P75" s="11" t="n"/>
+      <c r="Q75" s="11" t="n"/>
+      <c r="R75" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4521,32 +4536,32 @@
       <c r="T75" s="6" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="10" t="n"/>
-      <c r="B76" s="10" t="n"/>
-      <c r="C76" s="10" t="n"/>
-      <c r="D76" s="10" t="n"/>
-      <c r="E76" s="10" t="n"/>
-      <c r="F76" s="10" t="n"/>
-      <c r="G76" s="10" t="n"/>
-      <c r="H76" s="10" t="n"/>
-      <c r="I76" s="10" t="n"/>
-      <c r="J76" s="10" t="n"/>
-      <c r="K76" s="12" t="n">
+      <c r="A76" s="11" t="n"/>
+      <c r="B76" s="11" t="n"/>
+      <c r="C76" s="11" t="n"/>
+      <c r="D76" s="11" t="n"/>
+      <c r="E76" s="11" t="n"/>
+      <c r="F76" s="11" t="n"/>
+      <c r="G76" s="11" t="n"/>
+      <c r="H76" s="11" t="n"/>
+      <c r="I76" s="11" t="n"/>
+      <c r="J76" s="11" t="n"/>
+      <c r="K76" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="L76" s="12" t="n">
+      <c r="L76" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M76" s="12" t="n">
+      <c r="M76" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="12" t="n">
+      <c r="N76" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O76" s="12" t="n"/>
-      <c r="P76" s="10" t="n"/>
-      <c r="Q76" s="10" t="n"/>
-      <c r="R76" s="10" t="n"/>
+      <c r="O76" s="13" t="n"/>
+      <c r="P76" s="11" t="n"/>
+      <c r="Q76" s="11" t="n"/>
+      <c r="R76" s="11" t="n"/>
       <c r="S76" s="6" t="n"/>
       <c r="T76" s="6" t="n"/>
     </row>
@@ -4674,42 +4689,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -4719,17 +4734,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -4739,12 +4754,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -4754,7 +4769,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="7" t="inlineStr">
+      <c r="R3" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -4763,151 +4778,151 @@
       <c r="T3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng quản lý và đánh giá chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="11" t="inlineStr">
+        <is>
+          <t>- Phát triển các tính năng 64h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I5" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="10" t="inlineStr">
+      <c r="J5" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K5" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n">
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="inlineStr">
+      <c r="O5" s="11" t="n"/>
+      <c r="P5" s="11" t="inlineStr">
         <is>
           <t>- OnCX: Fix bug 30h
 - SOP: Fix bug 15h</t>
         </is>
       </c>
-      <c r="Q4" s="10" t="inlineStr">
+      <c r="Q5" s="11" t="inlineStr">
         <is>
           <t>Bằng chứng</t>
         </is>
       </c>
-      <c r="R4" s="10" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="6" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng quản lý và đánh giá chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="10" t="inlineStr">
-        <is>
-          <t>- Phát triển các tính năng 64h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q5" s="10" t="n"/>
-      <c r="R5" s="10" t="inlineStr">
+      <c r="R5" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4916,109 +4931,109 @@
       <c r="T5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="12" t="n">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O6" s="12" t="n"/>
-      <c r="P6" s="10" t="n"/>
-      <c r="Q6" s="10" t="n"/>
-      <c r="R6" s="10" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="11" t="n"/>
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="11" t="n"/>
       <c r="S6" s="6" t="n"/>
       <c r="T6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="10" t="inlineStr">
+      <c r="J7" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="10" t="n">
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="11" t="n">
         <v>63</v>
       </c>
-      <c r="O7" s="10" t="n"/>
-      <c r="P7" s="10" t="inlineStr">
+      <c r="O7" s="11" t="n"/>
+      <c r="P7" s="11" t="inlineStr">
         <is>
           <t>- OnCX: làm tính năng (10.5h) + họp daily (11.5h) + retro/sprint planning (3h): 25h
 - SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
         </is>
       </c>
-      <c r="Q7" s="10" t="inlineStr">
+      <c r="Q7" s="11" t="inlineStr">
         <is>
           <t>Bằng chứng</t>
         </is>
       </c>
-      <c r="R7" s="10" t="inlineStr">
+      <c r="R7" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5027,32 +5042,32 @@
       <c r="T7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="12" t="n">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="N8" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="12" t="n"/>
-      <c r="P8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-      <c r="R8" s="10" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="11" t="n"/>
+      <c r="Q8" s="11" t="n"/>
+      <c r="R8" s="11" t="n"/>
       <c r="S8" s="6" t="n"/>
       <c r="T8" s="6" t="n"/>
     </row>
@@ -5124,42 +5139,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -5169,17 +5184,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="8" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -5189,12 +5204,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="8" t="inlineStr">
+      <c r="O11" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="7" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -5204,7 +5219,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="7" t="inlineStr">
+      <c r="R11" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -5213,69 +5228,69 @@
       <c r="T11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="D12" s="11" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I12" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="10" t="inlineStr">
+      <c r="J12" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n">
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="O12" s="10" t="n"/>
-      <c r="P12" s="10" t="inlineStr">
+      <c r="O12" s="11" t="n"/>
+      <c r="P12" s="11" t="inlineStr">
         <is>
           <t>Phát triển 32h/tuần
 Báo cáo 1h/tuần</t>
         </is>
       </c>
-      <c r="Q12" s="10" t="inlineStr">
+      <c r="Q12" s="11" t="inlineStr">
         <is>
           <t>Thesp</t>
         </is>
       </c>
-      <c r="R12" s="10" t="inlineStr">
+      <c r="R12" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5284,65 +5299,65 @@
       <c r="T12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
         </is>
       </c>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="10" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="10" t="inlineStr">
+      <c r="I13" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="10" t="inlineStr">
+      <c r="J13" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="10" t="n"/>
-      <c r="N13" s="10" t="n">
+      <c r="L13" s="11" t="n"/>
+      <c r="M13" s="11" t="n"/>
+      <c r="N13" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="O13" s="10" t="n"/>
-      <c r="P13" s="10" t="inlineStr">
+      <c r="O13" s="11" t="n"/>
+      <c r="P13" s="11" t="inlineStr">
         <is>
           <t>Thời gian hỗ trợ trung bình 1h/ngày
 Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
-      <c r="Q13" s="10" t="inlineStr">
+      <c r="Q13" s="11" t="inlineStr">
         <is>
           <t>Thesp</t>
         </is>
       </c>
-      <c r="R13" s="10" t="inlineStr">
+      <c r="R13" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5351,96 +5366,96 @@
       <c r="T13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="12" t="n">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="12" t="n"/>
-      <c r="P14" s="10" t="n"/>
-      <c r="Q14" s="10" t="n"/>
-      <c r="R14" s="10" t="n"/>
+      <c r="O14" s="13" t="n"/>
+      <c r="P14" s="11" t="n"/>
+      <c r="Q14" s="11" t="n"/>
+      <c r="R14" s="11" t="n"/>
       <c r="S14" s="6" t="n"/>
       <c r="T14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D15" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
         </is>
       </c>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="10" t="n"/>
-      <c r="G15" s="10" t="inlineStr">
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="10" t="inlineStr">
+      <c r="I15" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="10" t="inlineStr">
+      <c r="J15" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="10" t="n"/>
-      <c r="M15" s="10" t="n"/>
-      <c r="N15" s="10" t="n">
+      <c r="L15" s="11" t="n"/>
+      <c r="M15" s="11" t="n"/>
+      <c r="N15" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="10" t="inlineStr">
+      <c r="O15" s="11" t="n"/>
+      <c r="P15" s="11" t="inlineStr">
         <is>
           <t>Triển khai lớp offline 2h/tuần
 Chuẩn bị minigame và bài giảng lớp offline 1h/tuần
 Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
         </is>
       </c>
-      <c r="Q15" s="10" t="n"/>
-      <c r="R15" s="10" t="inlineStr">
+      <c r="Q15" s="11" t="n"/>
+      <c r="R15" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5449,32 +5464,32 @@
       <c r="T15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="10" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="12" t="n">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="11" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
+      <c r="J16" s="11" t="n"/>
+      <c r="K16" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="L16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="12" t="n"/>
-      <c r="P16" s="10" t="n"/>
-      <c r="Q16" s="10" t="n"/>
-      <c r="R16" s="10" t="n"/>
+      <c r="O16" s="13" t="n"/>
+      <c r="P16" s="11" t="n"/>
+      <c r="Q16" s="11" t="n"/>
+      <c r="R16" s="11" t="n"/>
       <c r="S16" s="6" t="n"/>
       <c r="T16" s="6" t="n"/>
     </row>
@@ -5546,42 +5561,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -5591,17 +5606,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="8" t="inlineStr">
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="8" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -5611,12 +5626,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="8" t="inlineStr">
+      <c r="O19" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="7" t="inlineStr">
+      <c r="P19" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -5626,7 +5641,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="7" t="inlineStr">
+      <c r="R19" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -5635,64 +5650,64 @@
       <c r="T19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D20" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="10" t="n"/>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H20" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
+      <c r="I20" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="10" t="inlineStr">
+      <c r="J20" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="L20" s="10" t="n"/>
-      <c r="M20" s="10" t="n"/>
-      <c r="N20" s="10" t="n">
+      <c r="L20" s="11" t="n"/>
+      <c r="M20" s="11" t="n"/>
+      <c r="N20" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="O20" s="10" t="n"/>
-      <c r="P20" s="10" t="inlineStr">
+      <c r="O20" s="11" t="n"/>
+      <c r="P20" s="11" t="inlineStr">
         <is>
           <t>7h/ tháng</t>
         </is>
       </c>
-      <c r="Q20" s="10" t="n"/>
-      <c r="R20" s="10" t="inlineStr">
+      <c r="Q20" s="11" t="n"/>
+      <c r="R20" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5701,60 +5716,60 @@
       <c r="T20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="D21" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="10" t="inlineStr">
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
+      <c r="I21" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr">
+      <c r="J21" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L21" s="10" t="n"/>
-      <c r="M21" s="10" t="n"/>
-      <c r="N21" s="10" t="n">
+      <c r="L21" s="11" t="n"/>
+      <c r="M21" s="11" t="n"/>
+      <c r="N21" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="O21" s="10" t="n"/>
-      <c r="P21" s="10" t="inlineStr">
+      <c r="O21" s="11" t="n"/>
+      <c r="P21" s="11" t="inlineStr">
         <is>
           <t>Fix bug: 1h/ngày Dialo</t>
         </is>
       </c>
-      <c r="Q21" s="10" t="n"/>
-      <c r="R21" s="10" t="inlineStr">
+      <c r="Q21" s="11" t="n"/>
+      <c r="R21" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5763,88 +5778,88 @@
       <c r="T21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="10" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="10" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="10" t="n"/>
-      <c r="G22" s="10" t="n"/>
-      <c r="H22" s="10" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="K22" s="12" t="n">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="11" t="n"/>
+      <c r="K22" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O22" s="12" t="n"/>
-      <c r="P22" s="10" t="n"/>
-      <c r="Q22" s="10" t="n"/>
-      <c r="R22" s="10" t="n"/>
+      <c r="O22" s="13" t="n"/>
+      <c r="P22" s="11" t="n"/>
+      <c r="Q22" s="11" t="n"/>
+      <c r="R22" s="11" t="n"/>
       <c r="S22" s="6" t="n"/>
       <c r="T22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
         </is>
       </c>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="10" t="n"/>
-      <c r="G23" s="10" t="inlineStr">
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="H23" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I23" s="10" t="inlineStr">
+      <c r="I23" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J23" s="10" t="inlineStr">
+      <c r="J23" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="10" t="n"/>
-      <c r="M23" s="10" t="n"/>
-      <c r="N23" s="10" t="n">
+      <c r="L23" s="11" t="n"/>
+      <c r="M23" s="11" t="n"/>
+      <c r="N23" s="11" t="n">
         <v>154</v>
       </c>
-      <c r="O23" s="10" t="n"/>
-      <c r="P23" s="10" t="inlineStr">
+      <c r="O23" s="11" t="n"/>
+      <c r="P23" s="11" t="inlineStr">
         <is>
           <t>- Code tính năng 3,5h/ngày
 - Review + Update Code dialo: 4h/ tuần
@@ -5854,8 +5869,8 @@
 - Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
         </is>
       </c>
-      <c r="Q23" s="10" t="n"/>
-      <c r="R23" s="10" t="inlineStr">
+      <c r="Q23" s="11" t="n"/>
+      <c r="R23" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -5864,32 +5879,32 @@
       <c r="T23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="n"/>
-      <c r="B24" s="10" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="10" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="10" t="n"/>
-      <c r="G24" s="10" t="n"/>
-      <c r="H24" s="10" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="K24" s="12" t="n">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+      <c r="J24" s="11" t="n"/>
+      <c r="K24" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="12" t="n">
+      <c r="L24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="12" t="n"/>
-      <c r="P24" s="10" t="n"/>
-      <c r="Q24" s="10" t="n"/>
-      <c r="R24" s="10" t="n"/>
+      <c r="O24" s="13" t="n"/>
+      <c r="P24" s="11" t="n"/>
+      <c r="Q24" s="11" t="n"/>
+      <c r="R24" s="11" t="n"/>
       <c r="S24" s="6" t="n"/>
       <c r="T24" s="6" t="n"/>
     </row>
@@ -5961,42 +5976,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="G27" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="H27" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -6006,17 +6021,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K27" s="8" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L27" s="8" t="inlineStr">
+      <c r="L27" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M27" s="8" t="inlineStr">
+      <c r="M27" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -6026,12 +6041,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O27" s="8" t="inlineStr">
+      <c r="O27" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P27" s="7" t="inlineStr">
+      <c r="P27" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -6041,7 +6056,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R27" s="7" t="inlineStr">
+      <c r="R27" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -6050,58 +6065,58 @@
       <c r="T27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
-      <c r="D28" s="10" t="inlineStr">
+      <c r="D28" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E28" s="10" t="n"/>
-      <c r="F28" s="10" t="n"/>
-      <c r="G28" s="10" t="inlineStr">
+      <c r="E28" s="11" t="n"/>
+      <c r="F28" s="11" t="n"/>
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H28" s="10" t="inlineStr">
+      <c r="H28" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I28" s="10" t="inlineStr">
+      <c r="I28" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J28" s="10" t="inlineStr">
+      <c r="J28" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L28" s="10" t="n"/>
-      <c r="M28" s="10" t="n"/>
-      <c r="N28" s="10" t="n">
+      <c r="L28" s="11" t="n"/>
+      <c r="M28" s="11" t="n"/>
+      <c r="N28" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="O28" s="10" t="n"/>
-      <c r="P28" s="10" t="inlineStr">
+      <c r="O28" s="11" t="n"/>
+      <c r="P28" s="11" t="inlineStr">
         <is>
           <t>- SOP: 
     + Fix bug: 18h
@@ -6111,8 +6126,8 @@
     + Meeting trao đổi: 4h</t>
         </is>
       </c>
-      <c r="Q28" s="10" t="n"/>
-      <c r="R28" s="10" t="inlineStr">
+      <c r="Q28" s="11" t="n"/>
+      <c r="R28" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6121,62 +6136,62 @@
       <c r="T28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="n"/>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
         </is>
       </c>
-      <c r="D29" s="10" t="inlineStr">
+      <c r="D29" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="10" t="n"/>
-      <c r="G29" s="10" t="inlineStr">
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="11" t="n"/>
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="10" t="inlineStr">
+      <c r="H29" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I29" s="10" t="inlineStr">
+      <c r="I29" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr">
+      <c r="J29" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="L29" s="10" t="n"/>
-      <c r="M29" s="10" t="n"/>
-      <c r="N29" s="10" t="n">
+      <c r="L29" s="11" t="n"/>
+      <c r="M29" s="11" t="n"/>
+      <c r="N29" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="O29" s="10" t="n"/>
-      <c r="P29" s="10" t="inlineStr">
+      <c r="O29" s="11" t="n"/>
+      <c r="P29" s="11" t="inlineStr">
         <is>
           <t>- Phát triển các tính năng 40h
 - Join họp meeting các bên (nếu có) 8h
 - Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
-      <c r="Q29" s="10" t="n"/>
-      <c r="R29" s="10" t="inlineStr">
+      <c r="Q29" s="11" t="n"/>
+      <c r="R29" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6185,88 +6200,88 @@
       <c r="T29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="n"/>
-      <c r="B30" s="10" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="10" t="n"/>
-      <c r="E30" s="10" t="n"/>
-      <c r="F30" s="10" t="n"/>
-      <c r="G30" s="10" t="n"/>
-      <c r="H30" s="10" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="10" t="n"/>
-      <c r="K30" s="12" t="n">
+      <c r="A30" s="11" t="n"/>
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="11" t="n"/>
+      <c r="E30" s="11" t="n"/>
+      <c r="F30" s="11" t="n"/>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="11" t="n"/>
+      <c r="I30" s="11" t="n"/>
+      <c r="J30" s="11" t="n"/>
+      <c r="K30" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O30" s="12" t="n"/>
-      <c r="P30" s="10" t="n"/>
-      <c r="Q30" s="10" t="n"/>
-      <c r="R30" s="10" t="n"/>
+      <c r="O30" s="13" t="n"/>
+      <c r="P30" s="11" t="n"/>
+      <c r="Q30" s="11" t="n"/>
+      <c r="R30" s="11" t="n"/>
       <c r="S30" s="6" t="n"/>
       <c r="T30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D31" s="10" t="inlineStr">
+      <c r="D31" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
         </is>
       </c>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="10" t="n"/>
-      <c r="G31" s="10" t="inlineStr">
+      <c r="E31" s="11" t="n"/>
+      <c r="F31" s="11" t="n"/>
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H31" s="10" t="inlineStr">
+      <c r="H31" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
+      <c r="I31" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr">
+      <c r="J31" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="10" t="n"/>
-      <c r="M31" s="10" t="n"/>
-      <c r="N31" s="10" t="n">
+      <c r="L31" s="11" t="n"/>
+      <c r="M31" s="11" t="n"/>
+      <c r="N31" s="11" t="n">
         <v>88</v>
       </c>
-      <c r="O31" s="10" t="n"/>
-      <c r="P31" s="10" t="inlineStr">
+      <c r="O31" s="11" t="n"/>
+      <c r="P31" s="11" t="inlineStr">
         <is>
           <t>- OnCX: 
     + Làm tính năng: 24.5h
@@ -6278,8 +6293,8 @@
     + Retro/sprint planning: 4h"</t>
         </is>
       </c>
-      <c r="Q31" s="10" t="n"/>
-      <c r="R31" s="10" t="inlineStr">
+      <c r="Q31" s="11" t="n"/>
+      <c r="R31" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6288,32 +6303,32 @@
       <c r="T31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="n"/>
-      <c r="B32" s="10" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="n"/>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="10" t="n"/>
-      <c r="K32" s="12" t="n">
+      <c r="A32" s="11" t="n"/>
+      <c r="B32" s="11" t="n"/>
+      <c r="C32" s="11" t="n"/>
+      <c r="D32" s="11" t="n"/>
+      <c r="E32" s="11" t="n"/>
+      <c r="F32" s="11" t="n"/>
+      <c r="G32" s="11" t="n"/>
+      <c r="H32" s="11" t="n"/>
+      <c r="I32" s="11" t="n"/>
+      <c r="J32" s="11" t="n"/>
+      <c r="K32" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O32" s="12" t="n"/>
-      <c r="P32" s="10" t="n"/>
-      <c r="Q32" s="10" t="n"/>
-      <c r="R32" s="10" t="n"/>
+      <c r="O32" s="13" t="n"/>
+      <c r="P32" s="11" t="n"/>
+      <c r="Q32" s="11" t="n"/>
+      <c r="R32" s="11" t="n"/>
       <c r="S32" s="6" t="n"/>
       <c r="T32" s="6" t="n"/>
     </row>
@@ -6385,42 +6400,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="G35" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr">
+      <c r="H35" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="I35" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -6430,17 +6445,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K35" s="8" t="inlineStr">
+      <c r="K35" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L35" s="8" t="inlineStr">
+      <c r="L35" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M35" s="8" t="inlineStr">
+      <c r="M35" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -6450,12 +6465,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O35" s="8" t="inlineStr">
+      <c r="O35" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P35" s="7" t="inlineStr">
+      <c r="P35" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -6465,7 +6480,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R35" s="7" t="inlineStr">
+      <c r="R35" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -6474,64 +6489,64 @@
       <c r="T35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="inlineStr">
+      <c r="A36" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C36" s="10" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D36" s="10" t="inlineStr">
+      <c r="D36" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="10" t="n"/>
-      <c r="G36" s="10" t="inlineStr">
+      <c r="E36" s="11" t="n"/>
+      <c r="F36" s="11" t="n"/>
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H36" s="10" t="inlineStr">
+      <c r="H36" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I36" s="10" t="inlineStr">
+      <c r="I36" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J36" s="10" t="inlineStr">
+      <c r="J36" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K36" s="10" t="n">
+      <c r="K36" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L36" s="10" t="n"/>
-      <c r="M36" s="10" t="n"/>
-      <c r="N36" s="10" t="n">
+      <c r="L36" s="11" t="n"/>
+      <c r="M36" s="11" t="n"/>
+      <c r="N36" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="O36" s="10" t="n"/>
-      <c r="P36" s="10" t="inlineStr">
+      <c r="O36" s="11" t="n"/>
+      <c r="P36" s="11" t="inlineStr">
         <is>
           <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
         </is>
       </c>
-      <c r="Q36" s="10" t="n"/>
-      <c r="R36" s="10" t="inlineStr">
+      <c r="Q36" s="11" t="n"/>
+      <c r="R36" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6540,60 +6555,60 @@
       <c r="T36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr">
+      <c r="D37" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E37" s="10" t="n"/>
-      <c r="F37" s="10" t="n"/>
-      <c r="G37" s="10" t="inlineStr">
+      <c r="E37" s="11" t="n"/>
+      <c r="F37" s="11" t="n"/>
+      <c r="G37" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H37" s="10" t="inlineStr">
+      <c r="H37" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I37" s="10" t="inlineStr">
+      <c r="I37" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J37" s="10" t="inlineStr">
+      <c r="J37" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K37" s="10" t="n">
+      <c r="K37" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="L37" s="10" t="n"/>
-      <c r="M37" s="10" t="n"/>
-      <c r="N37" s="10" t="n">
+      <c r="L37" s="11" t="n"/>
+      <c r="M37" s="11" t="n"/>
+      <c r="N37" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="O37" s="10" t="n"/>
-      <c r="P37" s="10" t="inlineStr">
+      <c r="O37" s="11" t="n"/>
+      <c r="P37" s="11" t="inlineStr">
         <is>
           <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
         </is>
       </c>
-      <c r="Q37" s="10" t="n"/>
-      <c r="R37" s="10" t="inlineStr">
+      <c r="Q37" s="11" t="n"/>
+      <c r="R37" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6602,94 +6617,94 @@
       <c r="T37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="n"/>
-      <c r="B38" s="10" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="10" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="10" t="n"/>
-      <c r="G38" s="10" t="n"/>
-      <c r="H38" s="10" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="10" t="n"/>
-      <c r="K38" s="12" t="n">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="11" t="n"/>
+      <c r="C38" s="11" t="n"/>
+      <c r="D38" s="11" t="n"/>
+      <c r="E38" s="11" t="n"/>
+      <c r="F38" s="11" t="n"/>
+      <c r="G38" s="11" t="n"/>
+      <c r="H38" s="11" t="n"/>
+      <c r="I38" s="11" t="n"/>
+      <c r="J38" s="11" t="n"/>
+      <c r="K38" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="12" t="n">
+      <c r="L38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M38" s="12" t="n">
+      <c r="M38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="12" t="n">
+      <c r="N38" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O38" s="12" t="n"/>
-      <c r="P38" s="10" t="n"/>
-      <c r="Q38" s="10" t="n"/>
-      <c r="R38" s="10" t="n"/>
+      <c r="O38" s="13" t="n"/>
+      <c r="P38" s="11" t="n"/>
+      <c r="Q38" s="11" t="n"/>
+      <c r="R38" s="11" t="n"/>
       <c r="S38" s="6" t="n"/>
       <c r="T38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="inlineStr">
+      <c r="A39" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="B39" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C39" s="10" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D39" s="10" t="inlineStr">
+      <c r="D39" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="10" t="n"/>
-      <c r="G39" s="10" t="inlineStr">
+      <c r="E39" s="11" t="n"/>
+      <c r="F39" s="11" t="n"/>
+      <c r="G39" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H39" s="10" t="inlineStr">
+      <c r="H39" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I39" s="10" t="inlineStr">
+      <c r="I39" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J39" s="10" t="inlineStr">
+      <c r="J39" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K39" s="10" t="n">
+      <c r="K39" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L39" s="10" t="n"/>
-      <c r="M39" s="10" t="n"/>
-      <c r="N39" s="10" t="n">
+      <c r="L39" s="11" t="n"/>
+      <c r="M39" s="11" t="n"/>
+      <c r="N39" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="O39" s="10" t="n"/>
-      <c r="P39" s="10" t="inlineStr">
+      <c r="O39" s="11" t="n"/>
+      <c r="P39" s="11" t="inlineStr">
         <is>
           <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
         </is>
       </c>
-      <c r="Q39" s="10" t="n"/>
-      <c r="R39" s="10" t="inlineStr">
+      <c r="Q39" s="11" t="n"/>
+      <c r="R39" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6698,32 +6713,32 @@
       <c r="T39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="n"/>
-      <c r="B40" s="10" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="10" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="10" t="n"/>
-      <c r="G40" s="10" t="n"/>
-      <c r="H40" s="10" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="10" t="n"/>
-      <c r="K40" s="12" t="n">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="11" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="n"/>
+      <c r="F40" s="11" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="11" t="n"/>
+      <c r="J40" s="11" t="n"/>
+      <c r="K40" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="12" t="n">
+      <c r="L40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M40" s="12" t="n">
+      <c r="M40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N40" s="12" t="n">
+      <c r="N40" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="12" t="n"/>
-      <c r="P40" s="10" t="n"/>
-      <c r="Q40" s="10" t="n"/>
-      <c r="R40" s="10" t="n"/>
+      <c r="O40" s="13" t="n"/>
+      <c r="P40" s="11" t="n"/>
+      <c r="Q40" s="11" t="n"/>
+      <c r="R40" s="11" t="n"/>
       <c r="S40" s="6" t="n"/>
       <c r="T40" s="6" t="n"/>
     </row>
@@ -6795,42 +6810,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C43" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr">
+      <c r="D43" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F43" s="7" t="inlineStr">
+      <c r="F43" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G43" s="7" t="inlineStr">
+      <c r="G43" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H43" s="7" t="inlineStr">
+      <c r="H43" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I43" s="7" t="inlineStr">
+      <c r="I43" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -6840,17 +6855,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K43" s="8" t="inlineStr">
+      <c r="K43" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L43" s="8" t="inlineStr">
+      <c r="L43" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M43" s="8" t="inlineStr">
+      <c r="M43" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -6860,12 +6875,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O43" s="8" t="inlineStr">
+      <c r="O43" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P43" s="7" t="inlineStr">
+      <c r="P43" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -6875,7 +6890,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R43" s="7" t="inlineStr">
+      <c r="R43" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -6884,52 +6899,52 @@
       <c r="T43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="10" t="n"/>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="B44" s="11" t="n"/>
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="D44" s="10" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="10" t="n"/>
-      <c r="G44" s="10" t="inlineStr">
+      <c r="D44" s="11" t="n"/>
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="11" t="n"/>
+      <c r="G44" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H44" s="10" t="inlineStr">
+      <c r="H44" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I44" s="10" t="inlineStr">
+      <c r="I44" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J44" s="10" t="inlineStr">
+      <c r="J44" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K44" s="10" t="n">
+      <c r="K44" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="10" t="n"/>
-      <c r="M44" s="10" t="n"/>
-      <c r="N44" s="10" t="n">
+      <c r="L44" s="11" t="n"/>
+      <c r="M44" s="11" t="n"/>
+      <c r="N44" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="O44" s="10" t="n"/>
-      <c r="P44" s="10" t="n"/>
-      <c r="Q44" s="10" t="n"/>
-      <c r="R44" s="10" t="inlineStr">
+      <c r="O44" s="11" t="n"/>
+      <c r="P44" s="11" t="n"/>
+      <c r="Q44" s="11" t="n"/>
+      <c r="R44" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -6938,90 +6953,90 @@
       <c r="T44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="n"/>
-      <c r="B45" s="10" t="n"/>
-      <c r="C45" s="10" t="n"/>
-      <c r="D45" s="10" t="n"/>
-      <c r="E45" s="10" t="n"/>
-      <c r="F45" s="10" t="n"/>
-      <c r="G45" s="10" t="n"/>
-      <c r="H45" s="10" t="n"/>
-      <c r="I45" s="10" t="n"/>
-      <c r="J45" s="10" t="n"/>
-      <c r="K45" s="12" t="n">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="11" t="n"/>
+      <c r="C45" s="11" t="n"/>
+      <c r="D45" s="11" t="n"/>
+      <c r="E45" s="11" t="n"/>
+      <c r="F45" s="11" t="n"/>
+      <c r="G45" s="11" t="n"/>
+      <c r="H45" s="11" t="n"/>
+      <c r="I45" s="11" t="n"/>
+      <c r="J45" s="11" t="n"/>
+      <c r="K45" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L45" s="12" t="n">
+      <c r="L45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M45" s="12" t="n">
+      <c r="M45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="12" t="n">
+      <c r="N45" s="13" t="n">
         <v>132</v>
       </c>
-      <c r="O45" s="12" t="n"/>
-      <c r="P45" s="10" t="n"/>
-      <c r="Q45" s="10" t="n"/>
-      <c r="R45" s="10" t="n"/>
+      <c r="O45" s="13" t="n"/>
+      <c r="P45" s="11" t="n"/>
+      <c r="Q45" s="11" t="n"/>
+      <c r="R45" s="11" t="n"/>
       <c r="S45" s="6" t="n"/>
       <c r="T45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="B46" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="C46" s="10" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D46" s="10" t="inlineStr">
+      <c r="D46" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E46" s="10" t="n"/>
-      <c r="F46" s="10" t="n"/>
-      <c r="G46" s="10" t="inlineStr">
+      <c r="E46" s="11" t="n"/>
+      <c r="F46" s="11" t="n"/>
+      <c r="G46" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H46" s="10" t="inlineStr">
+      <c r="H46" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I46" s="10" t="inlineStr">
+      <c r="I46" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J46" s="10" t="inlineStr">
+      <c r="J46" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K46" s="10" t="n">
+      <c r="K46" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L46" s="10" t="n"/>
-      <c r="M46" s="10" t="n"/>
-      <c r="N46" s="10" t="n">
+      <c r="L46" s="11" t="n"/>
+      <c r="M46" s="11" t="n"/>
+      <c r="N46" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="O46" s="10" t="n"/>
-      <c r="P46" s="10" t="n"/>
-      <c r="Q46" s="10" t="n"/>
-      <c r="R46" s="10" t="inlineStr">
+      <c r="O46" s="11" t="n"/>
+      <c r="P46" s="11" t="n"/>
+      <c r="Q46" s="11" t="n"/>
+      <c r="R46" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -7030,56 +7045,56 @@
       <c r="T46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="B47" s="10" t="inlineStr">
+      <c r="A47" s="12" t="n"/>
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="C47" s="10" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D47" s="10" t="inlineStr">
+      <c r="D47" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8</t>
         </is>
       </c>
-      <c r="E47" s="10" t="n"/>
-      <c r="F47" s="10" t="n"/>
-      <c r="G47" s="10" t="inlineStr">
+      <c r="E47" s="11" t="n"/>
+      <c r="F47" s="11" t="n"/>
+      <c r="G47" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H47" s="10" t="inlineStr">
+      <c r="H47" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I47" s="10" t="inlineStr">
+      <c r="I47" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr">
+      <c r="J47" s="11" t="inlineStr">
         <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="K47" s="10" t="n">
+      <c r="K47" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="L47" s="10" t="n"/>
-      <c r="M47" s="10" t="n"/>
-      <c r="N47" s="10" t="n">
+      <c r="L47" s="11" t="n"/>
+      <c r="M47" s="11" t="n"/>
+      <c r="N47" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="O47" s="10" t="n"/>
-      <c r="P47" s="10" t="n"/>
-      <c r="Q47" s="10" t="n"/>
-      <c r="R47" s="10" t="inlineStr">
+      <c r="O47" s="11" t="n"/>
+      <c r="P47" s="11" t="n"/>
+      <c r="Q47" s="11" t="n"/>
+      <c r="R47" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -7088,32 +7103,32 @@
       <c r="T47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="n"/>
-      <c r="B48" s="10" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="10" t="n"/>
-      <c r="E48" s="10" t="n"/>
-      <c r="F48" s="10" t="n"/>
-      <c r="G48" s="10" t="n"/>
-      <c r="H48" s="10" t="n"/>
-      <c r="I48" s="10" t="n"/>
-      <c r="J48" s="10" t="n"/>
-      <c r="K48" s="12" t="n">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="11" t="n"/>
+      <c r="C48" s="11" t="n"/>
+      <c r="D48" s="11" t="n"/>
+      <c r="E48" s="11" t="n"/>
+      <c r="F48" s="11" t="n"/>
+      <c r="G48" s="11" t="n"/>
+      <c r="H48" s="11" t="n"/>
+      <c r="I48" s="11" t="n"/>
+      <c r="J48" s="11" t="n"/>
+      <c r="K48" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L48" s="12" t="n">
+      <c r="L48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="12" t="n">
+      <c r="M48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N48" s="12" t="n">
+      <c r="N48" s="13" t="n">
         <v>132</v>
       </c>
-      <c r="O48" s="12" t="n"/>
-      <c r="P48" s="10" t="n"/>
-      <c r="Q48" s="10" t="n"/>
-      <c r="R48" s="10" t="n"/>
+      <c r="O48" s="13" t="n"/>
+      <c r="P48" s="11" t="n"/>
+      <c r="Q48" s="11" t="n"/>
+      <c r="R48" s="11" t="n"/>
       <c r="S48" s="6" t="n"/>
       <c r="T48" s="6" t="n"/>
     </row>
@@ -7134,7 +7149,7 @@
     <mergeCell ref="A23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="Q5" r:id="rId1"/>
     <hyperlink ref="Q7" r:id="rId2"/>
     <hyperlink ref="Q12" r:id="rId3"/>
     <hyperlink ref="Q13" r:id="rId4"/>
@@ -7237,42 +7252,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -7282,17 +7297,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -7302,12 +7317,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -7317,7 +7332,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="7" t="inlineStr">
+      <c r="R3" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -7326,112 +7341,112 @@
       <c r="T3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs cá nhân và team được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="11" t="inlineStr">
+        <is>
+          <t>OnCX: review merge code, họp 10h/tháng
+SOP: review merge code, fix issue 26h/tháng</t>
+        </is>
+      </c>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Áp dụng lowcode notification và import file OKR KPI lên Tool nhân sự trước 23.8.2023</t>
         </is>
       </c>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I5" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="10" t="inlineStr">
+      <c r="J5" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K5" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n">
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="inlineStr">
+      <c r="O5" s="11" t="n"/>
+      <c r="P5" s="11" t="inlineStr">
         <is>
           <t>Triển khai lowcode notification: 16h
 Áp dụng low import file OKR, KPI: 32h"</t>
         </is>
       </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="6" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs cá nhân và team được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="10" t="inlineStr">
-        <is>
-          <t>OnCX: review merge code, họp 10h/tháng
-SOP: review merge code, fix issue 26h/tháng</t>
-        </is>
-      </c>
-      <c r="Q5" s="10" t="n"/>
-      <c r="R5" s="10" t="inlineStr">
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -7440,32 +7455,32 @@
       <c r="T5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="12" t="n">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>112</v>
       </c>
-      <c r="O6" s="12" t="n"/>
-      <c r="P6" s="10" t="n"/>
-      <c r="Q6" s="10" t="n"/>
-      <c r="R6" s="10" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="11" t="n"/>
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="11" t="n"/>
       <c r="S6" s="6" t="n"/>
       <c r="T6" s="6" t="n"/>
     </row>
@@ -7576,42 +7591,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -7621,17 +7636,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -7641,12 +7656,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -7656,7 +7671,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="7" t="inlineStr">
+      <c r="R3" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -7665,60 +7680,60 @@
       <c r="T3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="10" t="inlineStr">
+      <c r="J4" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n">
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="inlineStr">
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="11" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -7727,60 +7742,60 @@
       <c r="T4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="10" t="inlineStr">
+      <c r="I5" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="10" t="inlineStr">
+      <c r="J5" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n">
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="10" t="inlineStr">
+      <c r="O5" s="11" t="n"/>
+      <c r="P5" s="11" t="inlineStr">
         <is>
           <t>Estimate số ngày đi làm trong tháng 8: 16/23 ngày. (1h/ngày)*16 fix bugs</t>
         </is>
       </c>
-      <c r="Q5" s="10" t="n"/>
-      <c r="R5" s="10" t="inlineStr">
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -7789,96 +7804,96 @@
       <c r="T5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="12" t="n">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="O6" s="12" t="n"/>
-      <c r="P6" s="10" t="n"/>
-      <c r="Q6" s="10" t="n"/>
-      <c r="R6" s="10" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="11" t="n"/>
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="11" t="n"/>
       <c r="S6" s="6" t="n"/>
       <c r="T6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="10" t="inlineStr">
+      <c r="J7" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="10" t="n">
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="O7" s="10" t="n"/>
-      <c r="P7" s="10" t="inlineStr">
+      <c r="O7" s="11" t="n"/>
+      <c r="P7" s="11" t="inlineStr">
         <is>
           <t>"- (4h/ngày)*16 làm task
 - (0,5h/ngày)*16 meeting daily
 - Retro, review, planning: (0,5h/ngày)*16"</t>
         </is>
       </c>
-      <c r="Q7" s="10" t="n"/>
-      <c r="R7" s="10" t="inlineStr">
+      <c r="Q7" s="11" t="n"/>
+      <c r="R7" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -7887,32 +7902,32 @@
       <c r="T7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="12" t="n">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="N8" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="O8" s="12" t="n"/>
-      <c r="P8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-      <c r="R8" s="10" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="11" t="n"/>
+      <c r="Q8" s="11" t="n"/>
+      <c r="R8" s="11" t="n"/>
       <c r="S8" s="6" t="n"/>
       <c r="T8" s="6" t="n"/>
     </row>
@@ -7984,42 +7999,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -8029,17 +8044,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="8" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -8049,12 +8064,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="8" t="inlineStr">
+      <c r="O11" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="7" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -8064,7 +8079,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="7" t="inlineStr">
+      <c r="R11" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -8073,64 +8088,64 @@
       <c r="T11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I12" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="10" t="inlineStr">
+      <c r="J12" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="O12" s="10" t="n"/>
-      <c r="P12" s="10" t="inlineStr">
-        <is>
-          <t>~4h/tuần task tích hợp  4*5=20h</t>
-        </is>
-      </c>
-      <c r="Q12" s="10" t="n"/>
-      <c r="R12" s="10" t="inlineStr">
+      <c r="O12" s="11" t="n"/>
+      <c r="P12" s="11" t="inlineStr">
+        <is>
+          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
+        </is>
+      </c>
+      <c r="Q12" s="11" t="n"/>
+      <c r="R12" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8139,60 +8154,60 @@
       <c r="T12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="10" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="10" t="inlineStr">
+      <c r="I13" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="10" t="inlineStr">
+      <c r="J13" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="10" t="n"/>
-      <c r="N13" s="10" t="n">
+      <c r="K13" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="10" t="n"/>
-      <c r="P13" s="10" t="inlineStr">
-        <is>
-          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
-        </is>
-      </c>
-      <c r="Q13" s="10" t="n"/>
-      <c r="R13" s="10" t="inlineStr">
+      <c r="L13" s="11" t="n"/>
+      <c r="M13" s="11" t="n"/>
+      <c r="N13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" s="11" t="n"/>
+      <c r="P13" s="11" t="inlineStr">
+        <is>
+          <t>~4h/tuần task tích hợp  4*5=20h</t>
+        </is>
+      </c>
+      <c r="Q13" s="11" t="n"/>
+      <c r="R13" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8201,94 +8216,94 @@
       <c r="T13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="12" t="n">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="12" t="n"/>
-      <c r="P14" s="10" t="n"/>
-      <c r="Q14" s="10" t="n"/>
-      <c r="R14" s="10" t="n"/>
+      <c r="O14" s="13" t="n"/>
+      <c r="P14" s="11" t="n"/>
+      <c r="Q14" s="11" t="n"/>
+      <c r="R14" s="11" t="n"/>
       <c r="S14" s="6" t="n"/>
       <c r="T14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng của các sản phẩm nghiên cứu dự thi sáng tạo, innovation đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành tích hợp 100% các API của các chức năng của OKR/KPI với FE, tính %, verify automation vào Tool nhân sự mà không phát sinh vấn đề hiệu suất theo đúng timeline để ra</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D15" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong phase được giao hoàn thành đúng thời hạn (Tool nhân sự)</t>
         </is>
       </c>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="10" t="n"/>
-      <c r="G15" s="10" t="inlineStr">
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="10" t="inlineStr">
+      <c r="I15" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="10" t="inlineStr">
+      <c r="J15" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="10" t="n"/>
-      <c r="M15" s="10" t="n"/>
-      <c r="N15" s="10" t="n">
+      <c r="L15" s="11" t="n"/>
+      <c r="M15" s="11" t="n"/>
+      <c r="N15" s="11" t="n">
         <v>152</v>
       </c>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="10" t="inlineStr">
+      <c r="O15" s="11" t="n"/>
+      <c r="P15" s="11" t="inlineStr">
         <is>
           <t>~2.5h/tuần viết và báo cáo tiến độ cho leader</t>
         </is>
       </c>
-      <c r="Q15" s="10" t="n"/>
-      <c r="R15" s="10" t="inlineStr">
+      <c r="Q15" s="11" t="n"/>
+      <c r="R15" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8297,32 +8312,32 @@
       <c r="T15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="10" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="12" t="n">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="11" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
+      <c r="J16" s="11" t="n"/>
+      <c r="K16" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="L16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="12" t="n"/>
-      <c r="P16" s="10" t="n"/>
-      <c r="Q16" s="10" t="n"/>
-      <c r="R16" s="10" t="n"/>
+      <c r="O16" s="13" t="n"/>
+      <c r="P16" s="11" t="n"/>
+      <c r="Q16" s="11" t="n"/>
+      <c r="R16" s="11" t="n"/>
       <c r="S16" s="6" t="n"/>
       <c r="T16" s="6" t="n"/>
     </row>
@@ -8394,42 +8409,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -8439,17 +8454,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="8" t="inlineStr">
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="8" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -8459,12 +8474,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="8" t="inlineStr">
+      <c r="O19" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="7" t="inlineStr">
+      <c r="P19" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -8474,7 +8489,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="7" t="inlineStr">
+      <c r="R19" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -8483,64 +8498,64 @@
       <c r="T19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
         </is>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D20" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="10" t="n"/>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H20" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
+      <c r="I20" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="10" t="inlineStr">
+      <c r="J20" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L20" s="10" t="n"/>
-      <c r="M20" s="10" t="n"/>
-      <c r="N20" s="10" t="n">
+      <c r="L20" s="11" t="n"/>
+      <c r="M20" s="11" t="n"/>
+      <c r="N20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="O20" s="10" t="n"/>
-      <c r="P20" s="10" t="inlineStr">
+      <c r="O20" s="11" t="n"/>
+      <c r="P20" s="11" t="inlineStr">
         <is>
           <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
         </is>
       </c>
-      <c r="Q20" s="10" t="n"/>
-      <c r="R20" s="10" t="inlineStr">
+      <c r="Q20" s="11" t="n"/>
+      <c r="R20" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8549,60 +8564,60 @@
       <c r="T20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="D21" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="10" t="inlineStr">
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
+      <c r="I21" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr">
+      <c r="J21" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L21" s="10" t="n"/>
-      <c r="M21" s="10" t="n"/>
-      <c r="N21" s="10" t="n">
+      <c r="L21" s="11" t="n"/>
+      <c r="M21" s="11" t="n"/>
+      <c r="N21" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="O21" s="10" t="n"/>
-      <c r="P21" s="10" t="inlineStr">
+      <c r="O21" s="11" t="n"/>
+      <c r="P21" s="11" t="inlineStr">
         <is>
           <t>3h một tuần * 4</t>
         </is>
       </c>
-      <c r="Q21" s="10" t="n"/>
-      <c r="R21" s="10" t="inlineStr">
+      <c r="Q21" s="11" t="n"/>
+      <c r="R21" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8611,88 +8626,88 @@
       <c r="T21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="10" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="10" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="10" t="n"/>
-      <c r="G22" s="10" t="n"/>
-      <c r="H22" s="10" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="K22" s="12" t="n">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="11" t="n"/>
+      <c r="K22" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="13" t="n">
         <v>175</v>
       </c>
-      <c r="O22" s="12" t="n"/>
-      <c r="P22" s="10" t="n"/>
-      <c r="Q22" s="10" t="n"/>
-      <c r="R22" s="10" t="n"/>
+      <c r="O22" s="13" t="n"/>
+      <c r="P22" s="11" t="n"/>
+      <c r="Q22" s="11" t="n"/>
+      <c r="R22" s="11" t="n"/>
       <c r="S22" s="6" t="n"/>
       <c r="T22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành tiếp nhận các module Oncx theo kế hoạch và các task trong smart routing</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng được hướng dẫn trong OnCX được maintain và hoàn thành 100% các task dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="10" t="n"/>
-      <c r="G23" s="10" t="inlineStr">
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="H23" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I23" s="10" t="inlineStr">
+      <c r="I23" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J23" s="10" t="inlineStr">
+      <c r="J23" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="10" t="n"/>
-      <c r="M23" s="10" t="n"/>
-      <c r="N23" s="10" t="n">
+      <c r="L23" s="11" t="n"/>
+      <c r="M23" s="11" t="n"/>
+      <c r="N23" s="11" t="n">
         <v>144</v>
       </c>
-      <c r="O23" s="10" t="n"/>
-      <c r="P23" s="10" t="inlineStr">
+      <c r="O23" s="11" t="n"/>
+      <c r="P23" s="11" t="inlineStr">
         <is>
           <t>- Code tính năng 5h/ngày * 19
 - Meeting daily,clear bug:  0.5h/ngày*19
@@ -8700,8 +8715,8 @@
 - Dự tính đi làm 19/23 ngày</t>
         </is>
       </c>
-      <c r="Q23" s="10" t="n"/>
-      <c r="R23" s="10" t="inlineStr">
+      <c r="Q23" s="11" t="n"/>
+      <c r="R23" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8710,32 +8725,32 @@
       <c r="T23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="n"/>
-      <c r="B24" s="10" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="10" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="10" t="n"/>
-      <c r="G24" s="10" t="n"/>
-      <c r="H24" s="10" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="K24" s="12" t="n">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+      <c r="J24" s="11" t="n"/>
+      <c r="K24" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="12" t="n">
+      <c r="L24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="13" t="n">
         <v>175</v>
       </c>
-      <c r="O24" s="12" t="n"/>
-      <c r="P24" s="10" t="n"/>
-      <c r="Q24" s="10" t="n"/>
-      <c r="R24" s="10" t="n"/>
+      <c r="O24" s="13" t="n"/>
+      <c r="P24" s="11" t="n"/>
+      <c r="Q24" s="11" t="n"/>
+      <c r="R24" s="11" t="n"/>
       <c r="S24" s="6" t="n"/>
       <c r="T24" s="6" t="n"/>
     </row>
@@ -8807,42 +8822,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="G27" s="8" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="H27" s="8" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="8" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -8852,17 +8867,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K27" s="8" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L27" s="8" t="inlineStr">
+      <c r="L27" s="9" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M27" s="8" t="inlineStr">
+      <c r="M27" s="9" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -8872,12 +8887,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O27" s="8" t="inlineStr">
+      <c r="O27" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P27" s="7" t="inlineStr">
+      <c r="P27" s="9" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -8887,7 +8902,7 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R27" s="7" t="inlineStr">
+      <c r="R27" s="10" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
@@ -8896,64 +8911,64 @@
       <c r="T27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D28" s="10" t="inlineStr">
+      <c r="D28" s="11" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E28" s="10" t="n"/>
-      <c r="F28" s="10" t="n"/>
-      <c r="G28" s="10" t="inlineStr">
+      <c r="E28" s="11" t="n"/>
+      <c r="F28" s="11" t="n"/>
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H28" s="10" t="inlineStr">
+      <c r="H28" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I28" s="10" t="inlineStr">
+      <c r="I28" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J28" s="10" t="inlineStr">
+      <c r="J28" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L28" s="10" t="n"/>
-      <c r="M28" s="10" t="n"/>
-      <c r="N28" s="10" t="n">
+      <c r="L28" s="11" t="n"/>
+      <c r="M28" s="11" t="n"/>
+      <c r="N28" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="O28" s="10" t="n"/>
-      <c r="P28" s="10" t="inlineStr">
+      <c r="O28" s="11" t="n"/>
+      <c r="P28" s="11" t="inlineStr">
         <is>
           <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
         </is>
       </c>
-      <c r="Q28" s="10" t="n"/>
-      <c r="R28" s="10" t="inlineStr">
+      <c r="Q28" s="11" t="n"/>
+      <c r="R28" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -8962,61 +8977,61 @@
       <c r="T28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="n"/>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Smart Rotuing</t>
         </is>
       </c>
-      <c r="D29" s="10" t="inlineStr">
+      <c r="D29" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="10" t="n"/>
-      <c r="G29" s="10" t="inlineStr">
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="11" t="n"/>
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="10" t="inlineStr">
+      <c r="H29" s="11" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I29" s="10" t="inlineStr">
+      <c r="I29" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr">
+      <c r="J29" s="11" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L29" s="10" t="n"/>
-      <c r="M29" s="10" t="n"/>
-      <c r="N29" s="10" t="n">
+      <c r="L29" s="11" t="n"/>
+      <c r="M29" s="11" t="n"/>
+      <c r="N29" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="O29" s="10" t="n"/>
-      <c r="P29" s="10" t="inlineStr">
+      <c r="O29" s="11" t="n"/>
+      <c r="P29" s="11" t="inlineStr">
         <is>
           <t>Dành 1 tiếng/ngày * 16.5 fix bugs.
 (Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q29" s="10" t="n"/>
-      <c r="R29" s="10" t="inlineStr">
+      <c r="Q29" s="11" t="n"/>
+      <c r="R29" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -9025,95 +9040,95 @@
       <c r="T29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="n"/>
-      <c r="B30" s="10" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="10" t="n"/>
-      <c r="E30" s="10" t="n"/>
-      <c r="F30" s="10" t="n"/>
-      <c r="G30" s="10" t="n"/>
-      <c r="H30" s="10" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="10" t="n"/>
-      <c r="K30" s="12" t="n">
+      <c r="A30" s="11" t="n"/>
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="11" t="n"/>
+      <c r="E30" s="11" t="n"/>
+      <c r="F30" s="11" t="n"/>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="11" t="n"/>
+      <c r="I30" s="11" t="n"/>
+      <c r="J30" s="11" t="n"/>
+      <c r="K30" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="13" t="n">
         <v>116</v>
       </c>
-      <c r="O30" s="12" t="n"/>
-      <c r="P30" s="10" t="n"/>
-      <c r="Q30" s="10" t="n"/>
-      <c r="R30" s="10" t="n"/>
+      <c r="O30" s="13" t="n"/>
+      <c r="P30" s="11" t="n"/>
+      <c r="Q30" s="11" t="n"/>
+      <c r="R30" s="11" t="n"/>
       <c r="S30" s="6" t="n"/>
       <c r="T30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng dự án Smart Routing theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D31" s="10" t="inlineStr">
+      <c r="D31" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="10" t="n"/>
-      <c r="G31" s="10" t="inlineStr">
+      <c r="E31" s="11" t="n"/>
+      <c r="F31" s="11" t="n"/>
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H31" s="10" t="inlineStr">
+      <c r="H31" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
+      <c r="I31" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr">
+      <c r="J31" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="10" t="n"/>
-      <c r="M31" s="10" t="n"/>
-      <c r="N31" s="10" t="n">
+      <c r="L31" s="11" t="n"/>
+      <c r="M31" s="11" t="n"/>
+      <c r="N31" s="11" t="n">
         <v>91</v>
       </c>
-      <c r="O31" s="10" t="n"/>
-      <c r="P31" s="10" t="inlineStr">
+      <c r="O31" s="11" t="n"/>
+      <c r="P31" s="11" t="inlineStr">
         <is>
           <t>Dành 5,5 tiếng/ngày * 16.5 làm task.
 (dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q31" s="10" t="n"/>
-      <c r="R31" s="10" t="inlineStr">
+      <c r="Q31" s="11" t="n"/>
+      <c r="R31" s="11" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -9122,32 +9137,32 @@
       <c r="T31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="n"/>
-      <c r="B32" s="10" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="n"/>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="10" t="n"/>
-      <c r="K32" s="12" t="n">
+      <c r="A32" s="11" t="n"/>
+      <c r="B32" s="11" t="n"/>
+      <c r="C32" s="11" t="n"/>
+      <c r="D32" s="11" t="n"/>
+      <c r="E32" s="11" t="n"/>
+      <c r="F32" s="11" t="n"/>
+      <c r="G32" s="11" t="n"/>
+      <c r="H32" s="11" t="n"/>
+      <c r="I32" s="11" t="n"/>
+      <c r="J32" s="11" t="n"/>
+      <c r="K32" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="13" t="n">
         <v>116</v>
       </c>
-      <c r="O32" s="12" t="n"/>
-      <c r="P32" s="10" t="n"/>
-      <c r="Q32" s="10" t="n"/>
-      <c r="R32" s="10" t="n"/>
+      <c r="O32" s="13" t="n"/>
+      <c r="P32" s="11" t="n"/>
+      <c r="Q32" s="11" t="n"/>
+      <c r="R32" s="11" t="n"/>
       <c r="S32" s="6" t="n"/>
       <c r="T32" s="6" t="n"/>
     </row>

--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -649,15 +649,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -951,12 +951,16 @@
       <c r="K5" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="n"/>
+      <c r="L5" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="M5" s="11" t="n"/>
       <c r="N5" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="O5" s="11" t="n"/>
+      <c r="O5" s="11" t="n">
+        <v>8</v>
+      </c>
       <c r="P5" s="11" t="inlineStr">
         <is>
           <t>- Nghiên cứu HVAC: 8h 
@@ -964,7 +968,12 @@
 - Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
         </is>
       </c>
-      <c r="Q5" s="11" t="n"/>
+      <c r="Q5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xin xác nhân kết quả thực hiện - Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP : https://drive.google.com/file/d/1df790NLF5dCua4CjSRZ1jjx1JA3VCXmp/view?usp=drive_link
+</t>
+        </is>
+      </c>
       <c r="R5" s="11" t="n"/>
       <c r="S5" s="6" t="n"/>
       <c r="T5" s="6" t="n"/>
@@ -989,12 +998,8 @@
       <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>156</v>
-      </c>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
       <c r="P6" s="11" t="n"/>
       <c r="Q6" s="11" t="n"/>
       <c r="R6" s="11" t="n"/>
@@ -1109,7 +1114,7 @@
         <v>184</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P8" s="11" t="n"/>
       <c r="Q8" s="11" t="n"/>
@@ -1281,27 +1286,29 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
@@ -1311,7 +1318,7 @@
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I12" s="11" t="inlineStr">
@@ -1321,28 +1328,33 @@
       </c>
       <c r="J12" s="11" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K12" s="11" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L12" s="11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M12" s="11" t="n"/>
       <c r="N12" s="11" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="O12" s="11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P12" s="11" t="inlineStr">
         <is>
-          <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
-        </is>
-      </c>
-      <c r="Q12" s="11" t="n"/>
+          <t>- Thời gian check - fix bugs: 20h/tháng</t>
+        </is>
+      </c>
+      <c r="Q12" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOP-T8 : https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
+</t>
+        </is>
+      </c>
       <c r="R12" s="11" t="n"/>
       <c r="S12" s="6" t="n"/>
       <c r="T12" s="6" t="n"/>
@@ -1351,29 +1363,27 @@
       <c r="A13" s="12" t="n"/>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
@@ -1383,7 +1393,7 @@
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I13" s="11" t="inlineStr">
@@ -1393,33 +1403,28 @@
       </c>
       <c r="J13" s="11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K13" s="11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M13" s="11" t="n"/>
       <c r="N13" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="O13" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="11" t="n">
-        <v>12</v>
-      </c>
       <c r="P13" s="11" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 20h/tháng</t>
-        </is>
-      </c>
-      <c r="Q13" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOP-T8 : https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
-</t>
-        </is>
-      </c>
+          <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
+        </is>
+      </c>
+      <c r="Q13" s="11" t="n"/>
       <c r="R13" s="11" t="n"/>
       <c r="S13" s="6" t="n"/>
       <c r="T13" s="6" t="n"/>
@@ -1444,12 +1449,8 @@
       <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O14" s="13" t="n">
-        <v>131.5</v>
-      </c>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
       <c r="P14" s="11" t="n"/>
       <c r="Q14" s="11" t="n"/>
       <c r="R14" s="11" t="n"/>
@@ -1520,7 +1521,7 @@
         <v>112</v>
       </c>
       <c r="O15" s="11" t="n">
-        <v>115.5</v>
+        <v>145</v>
       </c>
       <c r="P15" s="11" t="inlineStr">
         <is>
@@ -1564,7 +1565,7 @@
         <v>184</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>131.5</v>
+        <v>177</v>
       </c>
       <c r="P16" s="11" t="n"/>
       <c r="Q16" s="11" t="n"/>
@@ -1741,22 +1742,22 @@
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Bàn giao công việc</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr">
         <is>
-          <t>Tất cả ticket xử lý đạt SLA 100% (các ticket đúng hạn xử lý)</t>
+          <t>Bàn giao công việc</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
+          <t xml:space="preserve">24 * 6 </t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>File tài liệu</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
@@ -1766,7 +1767,7 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
@@ -1776,7 +1777,7 @@
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K20" s="11" t="n">
@@ -1785,15 +1786,18 @@
       <c r="L20" s="11" t="n"/>
       <c r="M20" s="11" t="n"/>
       <c r="N20" s="11" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="O20" s="11" t="n"/>
-      <c r="P20" s="11" t="inlineStr">
-        <is>
-          <t>23 * 1,5 , mỗi ngày 1 tiếng xử lý ticket và 0.5h daily meeting</t>
-        </is>
-      </c>
-      <c r="Q20" s="11" t="n"/>
+        <v>48</v>
+      </c>
+      <c r="O20" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="P20" s="11" t="n"/>
+      <c r="Q20" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">confirm bàn giao : https://docs.google.com/spreadsheets/d/1qUcmCoXKUACHxdPttXY6Avga6qyL18uMcdmXnl0sokM/edit#gid=0
+</t>
+        </is>
+      </c>
       <c r="R20" s="11" t="n"/>
       <c r="S20" s="6" t="n"/>
       <c r="T20" s="6" t="n"/>
@@ -1855,13 +1859,20 @@
       <c r="N21" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="O21" s="11" t="n"/>
+      <c r="O21" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" s="11" t="inlineStr">
         <is>
           <t>23*2 mỗi ngày 2 tiếng fix bug</t>
         </is>
       </c>
-      <c r="Q21" s="11" t="n"/>
+      <c r="Q21" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sô bug còn lại trên longchau-uat : http://172.27.228.249:9000/project/smart-contact-center/issues?tags=lcuat&amp;status=16
+</t>
+        </is>
+      </c>
       <c r="R21" s="11" t="n"/>
       <c r="S21" s="6" t="n"/>
       <c r="T21" s="6" t="n"/>
@@ -1886,9 +1897,7 @@
       <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="13" t="n">
-        <v>184</v>
-      </c>
+      <c r="N22" s="13" t="n"/>
       <c r="O22" s="13" t="n"/>
       <c r="P22" s="11" t="n"/>
       <c r="Q22" s="11" t="n"/>
@@ -1960,13 +1969,20 @@
       <c r="N23" s="11" t="n">
         <v>103.5</v>
       </c>
-      <c r="O23" s="11" t="n"/>
+      <c r="O23" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="P23" s="11" t="inlineStr">
         <is>
           <t>23*4.5 mỗi ngày làm task</t>
         </is>
       </c>
-      <c r="Q23" s="11" t="n"/>
+      <c r="Q23" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">migarte CRM longchau : https://docs.google.com/spreadsheets/d/1cawx0cvzUkyuDyL7H0MyN4sxnIt4dHgQ_njIjm4IFKk/edit#gid=0
+</t>
+        </is>
+      </c>
       <c r="R23" s="11" t="n"/>
       <c r="S23" s="6" t="n"/>
       <c r="T23" s="6" t="n"/>
@@ -1992,9 +2008,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O24" s="13" t="n"/>
+        <v>197.5</v>
+      </c>
+      <c r="O24" s="13" t="n">
+        <v>48</v>
+      </c>
       <c r="P24" s="11" t="n"/>
       <c r="Q24" s="11" t="n"/>
       <c r="R24" s="11" t="n"/>
@@ -2165,27 +2183,29 @@
       </c>
       <c r="B28" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D28" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
@@ -2195,7 +2215,7 @@
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
@@ -2205,26 +2225,33 @@
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K28" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="L28" s="11" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="L28" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M28" s="11" t="n"/>
       <c r="N28" s="11" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="O28" s="11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P28" s="11" t="inlineStr">
         <is>
-          <t>- Nghiên cứu, code tính năng</t>
-        </is>
-      </c>
-      <c r="Q28" s="11" t="n"/>
+          <t>- Thời gian check - fix bugs: 20h/tháng</t>
+        </is>
+      </c>
+      <c r="Q28" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tổng số Bug - Sprint 20 : https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=994381865
+</t>
+        </is>
+      </c>
       <c r="R28" s="11" t="n"/>
       <c r="S28" s="6" t="n"/>
       <c r="T28" s="6" t="n"/>
@@ -2233,29 +2260,27 @@
       <c r="A29" s="12" t="n"/>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D29" s="11" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
         </is>
       </c>
       <c r="E29" s="11" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
       <c r="F29" s="11" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr">
@@ -2265,7 +2290,7 @@
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I29" s="11" t="inlineStr">
@@ -2275,33 +2300,26 @@
       </c>
       <c r="J29" s="11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K29" s="11" t="n">
-        <v>80</v>
-      </c>
-      <c r="L29" s="11" t="n">
-        <v>100</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L29" s="11" t="n"/>
       <c r="M29" s="11" t="n"/>
       <c r="N29" s="11" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="O29" s="11" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P29" s="11" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 20h/tháng</t>
-        </is>
-      </c>
-      <c r="Q29" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tổng số Bug - Sprint 20 : https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=994381865
-</t>
-        </is>
-      </c>
+          <t>- Nghiên cứu, code tính năng</t>
+        </is>
+      </c>
+      <c r="Q29" s="11" t="n"/>
       <c r="R29" s="11" t="n"/>
       <c r="S29" s="6" t="n"/>
       <c r="T29" s="6" t="n"/>
@@ -2326,12 +2344,8 @@
       <c r="M30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O30" s="13" t="n">
-        <v>146</v>
-      </c>
+      <c r="N30" s="13" t="n"/>
+      <c r="O30" s="13" t="n"/>
       <c r="P30" s="11" t="n"/>
       <c r="Q30" s="11" t="n"/>
       <c r="R30" s="11" t="n"/>
@@ -2402,7 +2416,7 @@
         <v>112</v>
       </c>
       <c r="O31" s="11" t="n">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P31" s="11" t="inlineStr">
         <is>
@@ -2446,7 +2460,7 @@
         <v>184</v>
       </c>
       <c r="O32" s="13" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P32" s="11" t="n"/>
       <c r="Q32" s="11" t="n"/>
@@ -2683,7 +2697,7 @@
       </c>
       <c r="Q36" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng Chứng KPI : https://docs.google.com/spreadsheets/d/1itq3wm3wMFZwx8TMOOhmL5yflVTO8ThmgrynaDTCzw8/edit#gid=313670827
+          <t xml:space="preserve">Bằng Chứng Bug : https://docs.google.com/spreadsheets/d/17eBVsuHjK24RBxa2t94FtApqvEtEebLG04XAQvsHTFA/edit#gid=0
 </t>
         </is>
       </c>
@@ -2781,12 +2795,8 @@
       <c r="M38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O38" s="13" t="n">
-        <v>128</v>
-      </c>
+      <c r="N38" s="13" t="n"/>
+      <c r="O38" s="13" t="n"/>
       <c r="P38" s="11" t="n"/>
       <c r="Q38" s="11" t="n"/>
       <c r="R38" s="11" t="n"/>
@@ -2869,7 +2879,7 @@
       </c>
       <c r="Q39" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng Chứng OKR : https://docs.google.com/spreadsheets/d/1itq3wm3wMFZwx8TMOOhmL5yflVTO8ThmgrynaDTCzw8/edit#gid=313670827
+          <t xml:space="preserve">Bằng Chứng Timeline : https://docs.google.com/spreadsheets/d/1WPxs4Ii5gkDtp9GpnjsRl6_j19eP-wKmxDwgii1f5Y4/edit#gid=0
 </t>
         </is>
       </c>
@@ -3073,27 +3083,29 @@
       </c>
       <c r="B44" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
       <c r="D44" s="11" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E44" s="11" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F44" s="11" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G44" s="11" t="inlineStr">
@@ -3103,7 +3115,7 @@
       </c>
       <c r="H44" s="11" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I44" s="11" t="inlineStr">
@@ -3113,26 +3125,33 @@
       </c>
       <c r="J44" s="11" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K44" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="L44" s="11" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="L44" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M44" s="11" t="n"/>
       <c r="N44" s="11" t="n">
-        <v>11.5</v>
+        <v>57.5</v>
       </c>
       <c r="O44" s="11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P44" s="11" t="inlineStr">
         <is>
-          <t>11.5h/tháng</t>
-        </is>
-      </c>
-      <c r="Q44" s="11" t="n"/>
+          <t>23 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
+        </is>
+      </c>
+      <c r="Q44" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thống kê bug dự án SOP T8 : https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
+</t>
+        </is>
+      </c>
       <c r="R44" s="11" t="n"/>
       <c r="S44" s="6" t="n"/>
       <c r="T44" s="6" t="n"/>
@@ -3141,29 +3160,27 @@
       <c r="A45" s="12" t="n"/>
       <c r="B45" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C45" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D45" s="11" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E45" s="11" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F45" s="11" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G45" s="11" t="inlineStr">
@@ -3173,7 +3190,7 @@
       </c>
       <c r="H45" s="11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I45" s="11" t="inlineStr">
@@ -3183,33 +3200,26 @@
       </c>
       <c r="J45" s="11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K45" s="11" t="n">
-        <v>80</v>
-      </c>
-      <c r="L45" s="11" t="n">
-        <v>100</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L45" s="11" t="n"/>
       <c r="M45" s="11" t="n"/>
       <c r="N45" s="11" t="n">
-        <v>57.5</v>
+        <v>11.5</v>
       </c>
       <c r="O45" s="11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P45" s="11" t="inlineStr">
         <is>
-          <t>23 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
-        </is>
-      </c>
-      <c r="Q45" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thống kê bug dự án SOP T8 : https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
-</t>
-        </is>
-      </c>
+          <t>11.5h/tháng</t>
+        </is>
+      </c>
+      <c r="Q45" s="11" t="n"/>
       <c r="R45" s="11" t="n"/>
       <c r="S45" s="6" t="n"/>
       <c r="T45" s="6" t="n"/>
@@ -3234,12 +3244,8 @@
       <c r="M46" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O46" s="13" t="n">
-        <v>184</v>
-      </c>
+      <c r="N46" s="13" t="n"/>
+      <c r="O46" s="13" t="n"/>
       <c r="P46" s="11" t="n"/>
       <c r="Q46" s="11" t="n"/>
       <c r="R46" s="11" t="n"/>
@@ -3523,139 +3529,141 @@
       </c>
       <c r="B52" s="11" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G52" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H52" s="11" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I52" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J52" s="11" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K52" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L52" s="11" t="n"/>
+      <c r="M52" s="11" t="n"/>
+      <c r="N52" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="O52" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" s="11" t="n"/>
+      <c r="Q52" s="11" t="n"/>
+      <c r="R52" s="11" t="n"/>
+      <c r="S52" s="6" t="n"/>
+      <c r="T52" s="6" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="n"/>
+      <c r="B53" s="11" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr">
+      <c r="D53" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E52" s="11" t="inlineStr">
+      <c r="E53" s="11" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G52" s="11" t="inlineStr">
+      <c r="G53" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H52" s="11" t="inlineStr">
+      <c r="H53" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I52" s="11" t="inlineStr">
+      <c r="I53" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J52" s="11" t="inlineStr">
+      <c r="J53" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K52" s="11" t="n">
+      <c r="K53" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L52" s="11" t="n"/>
-      <c r="M52" s="11" t="n"/>
-      <c r="N52" s="11" t="n">
+      <c r="L53" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" s="11" t="n"/>
+      <c r="N53" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="O52" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="P52" s="11" t="inlineStr">
+      <c r="O53" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="P53" s="11" t="inlineStr">
         <is>
           <t>- Dialo: Fix bug 16h
 - Happy Connect: Fix bug 24h</t>
         </is>
       </c>
-      <c r="Q52" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bug Happy Connect : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=1187315498
-Bug Dialo : https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
+      <c r="Q53" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bug Dialo : https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
+Bug Happy Connect : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=1187315498
 </t>
         </is>
       </c>
-      <c r="R52" s="11" t="n"/>
-      <c r="S52" s="6" t="n"/>
-      <c r="T52" s="6" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="n"/>
-      <c r="B53" s="11" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C53" s="11" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D53" s="11" t="inlineStr">
-        <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E53" s="11" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G53" s="11" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H53" s="11" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I53" s="11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J53" s="11" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K53" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" s="11" t="n"/>
-      <c r="M53" s="11" t="n"/>
-      <c r="N53" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="O53" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="P53" s="11" t="n"/>
-      <c r="Q53" s="11" t="n"/>
       <c r="R53" s="11" t="n"/>
       <c r="S53" s="6" t="n"/>
       <c r="T53" s="6" t="n"/>
@@ -3672,20 +3680,16 @@
       <c r="I54" s="11" t="n"/>
       <c r="J54" s="11" t="n"/>
       <c r="K54" s="13" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L54" s="13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="13" t="n">
-        <v>352</v>
-      </c>
-      <c r="O54" s="13" t="n">
-        <v>252</v>
-      </c>
+      <c r="N54" s="13" t="n"/>
+      <c r="O54" s="13" t="n"/>
       <c r="P54" s="11" t="n"/>
       <c r="Q54" s="11" t="n"/>
       <c r="R54" s="11" t="n"/>
@@ -3756,7 +3760,7 @@
         <v>128</v>
       </c>
       <c r="O55" s="11" t="n">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="P55" s="11" t="inlineStr">
         <is>
@@ -3766,8 +3770,8 @@
       </c>
       <c r="Q55" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Happy Connect : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
-Dialo : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+          <t xml:space="preserve">Dialo : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+Happy Connect : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
         </is>
       </c>
@@ -3787,19 +3791,19 @@
       <c r="I56" s="11" t="n"/>
       <c r="J56" s="11" t="n"/>
       <c r="K56" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L56" s="13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N56" s="13" t="n">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="O56" s="13" t="n">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="P56" s="11" t="n"/>
       <c r="Q56" s="11" t="n"/>
@@ -3971,27 +3975,29 @@
       </c>
       <c r="B60" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C60" s="11" t="inlineStr">
         <is>
-          <t>Nâng cao tính chia sẻ, áp dụng khi đưa ra cải tiến trong dự án, môi trường làm việc</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
       <c r="D60" s="11" t="inlineStr">
         <is>
-          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E60" s="11" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F60" s="11" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G60" s="11" t="inlineStr">
@@ -4001,7 +4007,7 @@
       </c>
       <c r="H60" s="11" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I60" s="11" t="inlineStr">
@@ -4011,26 +4017,33 @@
       </c>
       <c r="J60" s="11" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K60" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="L60" s="11" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="L60" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M60" s="11" t="n"/>
       <c r="N60" s="11" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O60" s="11" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P60" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">khoảng 1h mỗi ngày nghiên cứu ứng dụng vào module dự án </t>
-        </is>
-      </c>
-      <c r="Q60" s="11" t="n"/>
+          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+        </is>
+      </c>
+      <c r="Q60" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Link bằng chứng tiến độ Dialo : https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
+</t>
+        </is>
+      </c>
       <c r="R60" s="11" t="n"/>
       <c r="S60" s="6" t="n"/>
       <c r="T60" s="6" t="n"/>
@@ -4039,29 +4052,27 @@
       <c r="A61" s="12" t="n"/>
       <c r="B61" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C61" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
+          <t>Nâng cao tính chia sẻ, áp dụng khi đưa ra cải tiến trong dự án, môi trường làm việc</t>
         </is>
       </c>
       <c r="D61" s="11" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
         </is>
       </c>
       <c r="E61" s="11" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F61" s="11" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G61" s="11" t="inlineStr">
@@ -4071,7 +4082,7 @@
       </c>
       <c r="H61" s="11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I61" s="11" t="inlineStr">
@@ -4081,30 +4092,28 @@
       </c>
       <c r="J61" s="11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K61" s="11" t="n">
-        <v>80</v>
-      </c>
-      <c r="L61" s="11" t="n">
-        <v>100</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
       <c r="N61" s="11" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O61" s="11" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="P61" s="11" t="inlineStr">
         <is>
-          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+          <t xml:space="preserve">khoảng 1h mỗi ngày nghiên cứu ứng dụng vào module dự án </t>
         </is>
       </c>
       <c r="Q61" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Link bằng chứng tiến độ Dialo : https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
+          <t xml:space="preserve">Link bằng chứng : https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
 </t>
         </is>
       </c>
@@ -4132,12 +4141,8 @@
       <c r="M62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N62" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O62" s="13" t="n">
-        <v>137</v>
-      </c>
+      <c r="N62" s="13" t="n"/>
+      <c r="O62" s="13" t="n"/>
       <c r="P62" s="11" t="n"/>
       <c r="Q62" s="11" t="n"/>
       <c r="R62" s="11" t="n"/>
@@ -4426,136 +4431,140 @@
       </c>
       <c r="C68" s="11" t="inlineStr">
         <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="E68" s="11" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F68" s="11" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G68" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H68" s="11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I68" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J68" s="11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K68" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L68" s="11" t="n"/>
+      <c r="M68" s="11" t="n"/>
+      <c r="N68" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="O68" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P68" s="11" t="inlineStr">
+        <is>
+          <t>"- Nghiên cứu HVAC: 8h 
+- Tích hợp thư viện vào source code và triển khai dev: 6h
+- Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
+        </is>
+      </c>
+      <c r="Q68" s="11" t="n"/>
+      <c r="R68" s="11" t="n"/>
+      <c r="S68" s="6" t="n"/>
+      <c r="T68" s="6" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="n"/>
+      <c r="B69" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C69" s="11" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="D68" s="11" t="inlineStr">
+      <c r="D69" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E68" s="11" t="inlineStr">
+      <c r="E69" s="11" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F68" s="11" t="inlineStr">
+      <c r="F69" s="11" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G68" s="11" t="inlineStr">
+      <c r="G69" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H68" s="11" t="inlineStr">
+      <c r="H69" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I68" s="11" t="inlineStr">
+      <c r="I69" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr">
+      <c r="J69" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K68" s="11" t="n">
+      <c r="K69" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L68" s="11" t="n"/>
-      <c r="M68" s="11" t="n"/>
-      <c r="N68" s="11" t="n">
+      <c r="L69" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" s="11" t="n"/>
+      <c r="N69" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="O68" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="11" t="inlineStr">
+      <c r="O69" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="P69" s="11" t="inlineStr">
         <is>
           <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
         </is>
       </c>
-      <c r="Q68" s="11" t="inlineStr">
+      <c r="Q69" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Link bằng chứng số bug : https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
 </t>
         </is>
       </c>
-      <c r="R68" s="11" t="n"/>
-      <c r="S68" s="6" t="n"/>
-      <c r="T68" s="6" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="n"/>
-      <c r="B69" s="11" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C69" s="11" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D69" s="11" t="inlineStr">
-        <is>
-          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E69" s="11" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G69" s="11" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H69" s="11" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I69" s="11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J69" s="11" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K69" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="L69" s="11" t="n"/>
-      <c r="M69" s="11" t="n"/>
-      <c r="N69" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="O69" s="11" t="n"/>
-      <c r="P69" s="11" t="inlineStr">
-        <is>
-          <t>"- Nghiên cứu HVAC: 8h 
-- Tích hợp thư viện vào source code và triển khai dev: 6h
-- Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
-        </is>
-      </c>
-      <c r="Q69" s="11" t="n"/>
       <c r="R69" s="11" t="n"/>
       <c r="S69" s="6" t="n"/>
       <c r="T69" s="6" t="n"/>
@@ -4575,14 +4584,12 @@
         <v>100</v>
       </c>
       <c r="L70" s="13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="13" t="n">
-        <v>184</v>
-      </c>
+      <c r="N70" s="13" t="n"/>
       <c r="O70" s="13" t="n"/>
       <c r="P70" s="11" t="n"/>
       <c r="Q70" s="11" t="n"/>
@@ -4654,7 +4661,7 @@
         <v>122</v>
       </c>
       <c r="O71" s="11" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="P71" s="11" t="inlineStr">
         <is>
@@ -4699,7 +4706,9 @@
       <c r="N72" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O72" s="13" t="n"/>
+      <c r="O72" s="13" t="n">
+        <v>170</v>
+      </c>
       <c r="P72" s="11" t="n"/>
       <c r="Q72" s="11" t="n"/>
       <c r="R72" s="11" t="n"/>
@@ -4918,18 +4927,27 @@
       <c r="K76" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="L76" s="11" t="n"/>
+      <c r="L76" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M76" s="11" t="n"/>
       <c r="N76" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="O76" s="11" t="n"/>
+      <c r="O76" s="11" t="n">
+        <v>18</v>
+      </c>
       <c r="P76" s="11" t="inlineStr">
         <is>
           <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
         </is>
       </c>
-      <c r="Q76" s="11" t="n"/>
+      <c r="Q76" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bằng chứng bug : https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit#gid=0
+</t>
+        </is>
+      </c>
       <c r="R76" s="11" t="n"/>
       <c r="S76" s="6" t="n"/>
       <c r="T76" s="6" t="n"/>
@@ -4984,12 +5002,16 @@
       <c r="K77" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L77" s="11" t="n"/>
+      <c r="L77" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="M77" s="11" t="n"/>
       <c r="N77" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="O77" s="11" t="n"/>
+      <c r="O77" s="11" t="n">
+        <v>22</v>
+      </c>
       <c r="P77" s="11" t="inlineStr">
         <is>
           <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
@@ -5015,14 +5037,12 @@
         <v>100</v>
       </c>
       <c r="L78" s="13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M78" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="13" t="n">
-        <v>184</v>
-      </c>
+      <c r="N78" s="13" t="n"/>
       <c r="O78" s="13" t="n"/>
       <c r="P78" s="11" t="n"/>
       <c r="Q78" s="11" t="n"/>
@@ -5086,19 +5106,28 @@
       <c r="K79" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L79" s="11" t="n"/>
+      <c r="L79" s="11" t="n">
+        <v>91</v>
+      </c>
       <c r="M79" s="11" t="n"/>
       <c r="N79" s="11" t="n">
         <v>123</v>
       </c>
-      <c r="O79" s="11" t="n"/>
+      <c r="O79" s="11" t="n">
+        <v>107</v>
+      </c>
       <c r="P79" s="11" t="inlineStr">
         <is>
           <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/meeting)
 4h review, retro, planing 1 sprint"</t>
         </is>
       </c>
-      <c r="Q79" s="11" t="n"/>
+      <c r="Q79" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bằng chứng tiến độ : https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit#gid=1816014955
+</t>
+        </is>
+      </c>
       <c r="R79" s="11" t="n"/>
       <c r="S79" s="6" t="n"/>
       <c r="T79" s="6" t="n"/>
@@ -5118,7 +5147,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="13" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M80" s="13" t="n">
         <v>0</v>
@@ -5126,7 +5155,9 @@
       <c r="N80" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O80" s="13" t="n"/>
+      <c r="O80" s="13" t="n">
+        <v>147</v>
+      </c>
       <c r="P80" s="11" t="n"/>
       <c r="Q80" s="11" t="n"/>
       <c r="R80" s="11" t="n"/>
@@ -5176,15 +5207,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5480,7 +5511,9 @@
       <c r="K5" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="L5" s="11" t="n"/>
+      <c r="L5" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M5" s="11" t="n"/>
       <c r="N5" s="11" t="n">
         <v>76</v>
@@ -5495,7 +5528,12 @@
 - Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
-      <c r="Q5" s="11" t="n"/>
+      <c r="Q5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bằng chứng Tool NS : https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
+</t>
+        </is>
+      </c>
       <c r="R5" s="11" t="n"/>
       <c r="S5" s="6" t="n"/>
       <c r="T5" s="6" t="n"/>
@@ -5512,7 +5550,7 @@
       <c r="I6" s="11" t="n"/>
       <c r="J6" s="11" t="n"/>
       <c r="K6" s="13" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L6" s="13" t="n">
         <v>200</v>
@@ -5520,12 +5558,8 @@
       <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="13" t="n">
-        <v>292</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>262</v>
-      </c>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
       <c r="P6" s="11" t="n"/>
       <c r="Q6" s="11" t="n"/>
       <c r="R6" s="11" t="n"/>
@@ -5596,7 +5630,7 @@
         <v>63</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P7" s="11" t="inlineStr">
         <is>
@@ -5627,19 +5661,19 @@
       <c r="I8" s="11" t="n"/>
       <c r="J8" s="11" t="n"/>
       <c r="K8" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="13" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M8" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="13" t="n">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="P8" s="11" t="n"/>
       <c r="Q8" s="11" t="n"/>
@@ -5811,22 +5845,23 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL confirm</t>
+          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
+- Hoàn thành theo kế hoạch build MVP</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -5855,30 +5890,25 @@
         </is>
       </c>
       <c r="K12" s="11" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L12" s="11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="11" t="n"/>
       <c r="N12" s="11" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="O12" s="11" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P12" s="11" t="inlineStr">
         <is>
-          <t>Thời gian hỗ trợ trung bình 1h/ngày
-Review và làm báo cáo cáo 2h/tuần/bạn</t>
-        </is>
-      </c>
-      <c r="Q12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bằng chứng : https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
-</t>
-        </is>
-      </c>
+          <t>Phát triển 32h/tuần
+Báo cáo 1h/tuần</t>
+        </is>
+      </c>
+      <c r="Q12" s="11" t="n"/>
       <c r="R12" s="11" t="n"/>
       <c r="S12" s="6" t="n"/>
       <c r="T12" s="6" t="n"/>
@@ -5887,23 +5917,22 @@
       <c r="A13" s="12" t="n"/>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
-- Hoàn thành theo kế hoạch build MVP</t>
+          <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -5932,25 +5961,30 @@
         </is>
       </c>
       <c r="K13" s="11" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M13" s="11" t="n"/>
       <c r="N13" s="11" t="n">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O13" s="11" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P13" s="11" t="inlineStr">
         <is>
-          <t>Phát triển 32h/tuần
-Báo cáo 1h/tuần</t>
-        </is>
-      </c>
-      <c r="Q13" s="11" t="n"/>
+          <t>Thời gian hỗ trợ trung bình 1h/ngày
+Review và làm báo cáo cáo 2h/tuần/bạn</t>
+        </is>
+      </c>
+      <c r="Q13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bằng chứng : https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
+</t>
+        </is>
+      </c>
       <c r="R13" s="11" t="n"/>
       <c r="S13" s="6" t="n"/>
       <c r="T13" s="6" t="n"/>
@@ -5970,17 +6004,13 @@
         <v>100</v>
       </c>
       <c r="L14" s="13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="O14" s="13" t="n">
-        <v>207</v>
-      </c>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
       <c r="P14" s="11" t="n"/>
       <c r="Q14" s="11" t="n"/>
       <c r="R14" s="11" t="n"/>
@@ -6061,8 +6091,8 @@
       </c>
       <c r="Q15" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng video record  : https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
-Tracking kế hoạch : https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
+          <t xml:space="preserve">Tracking kế hoạch : https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
+ timeline : https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
 </t>
         </is>
       </c>
@@ -6082,19 +6112,19 @@
       <c r="I16" s="11" t="n"/>
       <c r="J16" s="11" t="n"/>
       <c r="K16" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L16" s="13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M16" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="13" t="n">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="P16" s="11" t="n"/>
       <c r="Q16" s="11" t="n"/>
@@ -6266,135 +6296,140 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I20" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J20" s="11" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K20" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="L20" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="11" t="n"/>
+      <c r="N20" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" s="11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="11" t="n"/>
+      <c r="Q20" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">File thống kê ticket 08.2023 : https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
+</t>
+        </is>
+      </c>
+      <c r="R20" s="11" t="n"/>
+      <c r="S20" s="6" t="n"/>
+      <c r="T20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D21" s="11" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E21" s="11" t="inlineStr">
         <is>
           <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G20" s="11" t="inlineStr">
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="11" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I20" s="11" t="inlineStr">
+      <c r="I21" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr">
+      <c r="J21" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K21" s="11" t="n">
         <v>75</v>
-      </c>
-      <c r="L20" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="M20" s="11" t="n"/>
-      <c r="N20" s="11" t="n">
-        <v>45</v>
-      </c>
-      <c r="O20" s="11" t="n"/>
-      <c r="P20" s="11" t="n"/>
-      <c r="Q20" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">File issue 08.2023 : https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
-</t>
-        </is>
-      </c>
-      <c r="R20" s="11" t="n"/>
-      <c r="S20" s="6" t="n"/>
-      <c r="T20" s="6" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="n"/>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C21" s="11" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D21" s="11" t="inlineStr">
-        <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="E21" s="11" t="inlineStr">
-        <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I21" s="11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J21" s="11" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K21" s="11" t="n">
-        <v>25</v>
       </c>
       <c r="L21" s="11" t="n">
         <v>100</v>
       </c>
       <c r="M21" s="11" t="n"/>
       <c r="N21" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" s="11" t="n"/>
+        <v>45</v>
+      </c>
+      <c r="O21" s="11" t="n">
+        <v>42.5</v>
+      </c>
       <c r="P21" s="11" t="n"/>
       <c r="Q21" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">File thống kê ticket 08.2023 : https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
+          <t xml:space="preserve">File issue 08.2023 : https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
+File log time 08.2023 : https://docs.google.com/spreadsheets/d/1XnOM3mYz4rdmVCpbZ3jtifSuUGObN6vw-u6qHyPOUWY/edit?usp=sharing
 </t>
         </is>
       </c>
@@ -6422,12 +6457,8 @@
       <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O22" s="13" t="n">
-        <v>129</v>
-      </c>
+      <c r="N22" s="13" t="n"/>
+      <c r="O22" s="13" t="n"/>
       <c r="P22" s="11" t="n"/>
       <c r="Q22" s="11" t="n"/>
       <c r="R22" s="11" t="n"/>
@@ -6499,12 +6530,13 @@
         <v>129</v>
       </c>
       <c r="O23" s="11" t="n">
-        <v>129</v>
+        <v>117.5</v>
       </c>
       <c r="P23" s="11" t="n"/>
       <c r="Q23" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">File bàn giao tính năng : https://drive.google.com/drive/folders/11YsMbPhnSAihdKC9iBrowak6tA7CYEao
+Mail confirm bàn giao : https://drive.google.com/file/d/11BXfDEfEBXAZgl6eJsHR1TP2ZWWorphu/view?usp=sharing
 </t>
         </is>
       </c>
@@ -6536,7 +6568,7 @@
         <v>184</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>129</v>
+        <v>163.5</v>
       </c>
       <c r="P24" s="11" t="n"/>
       <c r="Q24" s="11" t="n"/>
@@ -6708,27 +6740,29 @@
       </c>
       <c r="B28" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
       <c r="D28" s="11" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
@@ -6738,7 +6772,7 @@
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
@@ -6748,24 +6782,33 @@
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K28" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="L28" s="11" t="n"/>
+        <v>75</v>
+      </c>
+      <c r="L28" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M28" s="11" t="n"/>
       <c r="N28" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" s="11" t="n"/>
+        <v>23</v>
+      </c>
+      <c r="O28" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="P28" s="11" t="inlineStr">
         <is>
-          <t>7h/ tháng</t>
-        </is>
-      </c>
-      <c r="Q28" s="11" t="n"/>
+          <t>Fix bug: 1h/ngày Dialo</t>
+        </is>
+      </c>
+      <c r="Q28" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bằng chứng Dialo : https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
+</t>
+        </is>
+      </c>
       <c r="R28" s="11" t="n"/>
       <c r="S28" s="6" t="n"/>
       <c r="T28" s="6" t="n"/>
@@ -6774,29 +6817,27 @@
       <c r="A29" s="12" t="n"/>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D29" s="11" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E29" s="11" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F29" s="11" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr">
@@ -6806,7 +6847,7 @@
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I29" s="11" t="inlineStr">
@@ -6816,33 +6857,28 @@
       </c>
       <c r="J29" s="11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K29" s="11" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L29" s="11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M29" s="11" t="n"/>
       <c r="N29" s="11" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O29" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P29" s="11" t="inlineStr">
         <is>
-          <t>Fix bug: 1h/ngày Dialo</t>
-        </is>
-      </c>
-      <c r="Q29" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bằng chứng Dialo : https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
-</t>
-        </is>
-      </c>
+          <t>7h/ tháng</t>
+        </is>
+      </c>
+      <c r="Q29" s="11" t="n"/>
       <c r="R29" s="11" t="n"/>
       <c r="S29" s="6" t="n"/>
       <c r="T29" s="6" t="n"/>
@@ -6867,12 +6903,8 @@
       <c r="M30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="13" t="n">
-        <v>338</v>
-      </c>
-      <c r="O30" s="13" t="n">
-        <v>326</v>
-      </c>
+      <c r="N30" s="13" t="n"/>
+      <c r="O30" s="13" t="n"/>
       <c r="P30" s="11" t="n"/>
       <c r="Q30" s="11" t="n"/>
       <c r="R30" s="11" t="n"/>
@@ -6978,19 +7010,19 @@
       <c r="I32" s="11" t="n"/>
       <c r="J32" s="11" t="n"/>
       <c r="K32" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L32" s="13" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M32" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="13" t="n">
-        <v>338</v>
+        <v>184</v>
       </c>
       <c r="O32" s="13" t="n">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="P32" s="11" t="n"/>
       <c r="Q32" s="11" t="n"/>
@@ -7162,135 +7194,65 @@
       </c>
       <c r="B36" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr">
         <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
       <c r="D36" s="11" t="inlineStr">
         <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J36" s="11" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="L36" s="11" t="n"/>
-      <c r="M36" s="11" t="n"/>
-      <c r="N36" s="11" t="n">
-        <v>52</v>
-      </c>
-      <c r="O36" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="P36" s="11" t="inlineStr">
-        <is>
-          <t>- Phát triển các tính năng 40h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q36" s="11" t="n"/>
-      <c r="R36" s="11" t="n"/>
-      <c r="S36" s="6" t="n"/>
-      <c r="T36" s="6" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="n"/>
-      <c r="B37" s="11" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C37" s="11" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
-        </is>
-      </c>
-      <c r="D37" s="11" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="F36" s="11" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G37" s="11" t="inlineStr">
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H37" s="11" t="inlineStr">
+      <c r="H36" s="11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I37" s="11" t="inlineStr">
+      <c r="I36" s="11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J37" s="11" t="inlineStr">
+      <c r="J36" s="11" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K37" s="11" t="n">
+      <c r="K36" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L37" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="M37" s="11" t="n"/>
-      <c r="N37" s="11" t="n">
+      <c r="L36" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" s="11" t="n"/>
+      <c r="N36" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="O37" s="11" t="n">
+      <c r="O36" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="P37" s="11" t="inlineStr">
+      <c r="P36" s="11" t="inlineStr">
         <is>
           <t>- SOP: 
     + Fix bug: 18h
@@ -7300,10 +7262,87 @@
     + Meeting trao đổi: 4h</t>
         </is>
       </c>
+      <c r="Q36" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
+</t>
+        </is>
+      </c>
+      <c r="R36" s="11" t="n"/>
+      <c r="S36" s="6" t="n"/>
+      <c r="T36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J37" s="11" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K37" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="L37" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" s="11" t="n"/>
+      <c r="N37" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="O37" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="11" t="inlineStr">
+        <is>
+          <t>- Phát triển các tính năng 40h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
       <c r="Q37" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
-Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+          <t xml:space="preserve">Bằng chứng Tool nhân sự : https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
 </t>
         </is>
       </c>
@@ -7323,7 +7362,7 @@
       <c r="I38" s="11" t="n"/>
       <c r="J38" s="11" t="n"/>
       <c r="K38" s="13" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L38" s="13" t="n">
         <v>200</v>
@@ -7331,12 +7370,8 @@
       <c r="M38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="13" t="n">
-        <v>316</v>
-      </c>
-      <c r="O38" s="13" t="n">
-        <v>322</v>
-      </c>
+      <c r="N38" s="13" t="n"/>
+      <c r="O38" s="13" t="n"/>
       <c r="P38" s="11" t="n"/>
       <c r="Q38" s="11" t="n"/>
       <c r="R38" s="11" t="n"/>
@@ -7407,7 +7442,7 @@
         <v>88</v>
       </c>
       <c r="O39" s="11" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P39" s="11" t="inlineStr">
         <is>
@@ -7424,7 +7459,7 @@
       <c r="Q39" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
-Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
 </t>
         </is>
       </c>
@@ -7444,19 +7479,19 @@
       <c r="I40" s="11" t="n"/>
       <c r="J40" s="11" t="n"/>
       <c r="K40" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L40" s="13" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M40" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N40" s="13" t="n">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="P40" s="11" t="n"/>
       <c r="Q40" s="11" t="n"/>
@@ -7789,12 +7824,8 @@
       <c r="M46" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O46" s="13" t="n">
-        <v>184</v>
-      </c>
+      <c r="N46" s="13" t="n"/>
+      <c r="O46" s="13" t="n"/>
       <c r="P46" s="11" t="n"/>
       <c r="Q46" s="11" t="n"/>
       <c r="R46" s="11" t="n"/>
@@ -8231,12 +8262,8 @@
       <c r="M54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O54" s="13" t="n">
-        <v>168</v>
-      </c>
+      <c r="N54" s="13" t="n"/>
+      <c r="O54" s="13" t="n"/>
       <c r="P54" s="11" t="n"/>
       <c r="Q54" s="11" t="n"/>
       <c r="R54" s="11" t="n"/>
@@ -8389,15 +8416,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8705,7 +8732,7 @@
       </c>
       <c r="Q5" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Json Log : https://docs.google.com/spreadsheets/d/1yFhh3teA5AlnUCWlpwT7rvBghN_OZJixVjzVpmv7gtY/edit?usp=sharing
+          <t xml:space="preserve">Bằng chứng : https://drive.google.com/file/d/1Pbtci9OOtsXW1xbX5YOWNKKpJFwQ8W3X/view?usp=sharing
 </t>
         </is>
       </c>
@@ -8733,12 +8760,8 @@
       <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>167</v>
-      </c>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
       <c r="P6" s="11" t="n"/>
       <c r="Q6" s="11" t="n"/>
       <c r="R6" s="11" t="n"/>
@@ -9068,12 +9091,16 @@
       <c r="K12" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="L12" s="11" t="n"/>
+      <c r="L12" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" s="11" t="n"/>
       <c r="N12" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="O12" s="11" t="n"/>
+      <c r="O12" s="11" t="n">
+        <v>96</v>
+      </c>
       <c r="P12" s="11" t="inlineStr">
         <is>
           <t>- Triển khai lowcode notification: 16h
@@ -9135,19 +9162,29 @@
       <c r="K13" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="L13" s="11" t="n"/>
+      <c r="L13" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="M13" s="11" t="n"/>
       <c r="N13" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="O13" s="11" t="n"/>
+      <c r="O13" s="11" t="n">
+        <v>16</v>
+      </c>
       <c r="P13" s="11" t="inlineStr">
         <is>
           <t>OnCX: review merge code, họp 10h/tháng
 SOP: review merge code, fix issue 26h/tháng</t>
         </is>
       </c>
-      <c r="Q13" s="11" t="n"/>
+      <c r="Q13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit?usp=sharing&amp;ouid=109873007904207433989&amp;rtpof=true&amp;sd=true
+Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
+</t>
+        </is>
+      </c>
       <c r="R13" s="11" t="n"/>
       <c r="S13" s="6" t="n"/>
       <c r="T13" s="6" t="n"/>
@@ -9167,14 +9204,12 @@
         <v>100</v>
       </c>
       <c r="L14" s="13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="13" t="n">
-        <v>184</v>
-      </c>
+      <c r="N14" s="13" t="n"/>
       <c r="O14" s="13" t="n"/>
       <c r="P14" s="11" t="n"/>
       <c r="Q14" s="11" t="n"/>
@@ -9238,12 +9273,16 @@
       <c r="K15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="11" t="n"/>
+      <c r="L15" s="11" t="n">
+        <v>96</v>
+      </c>
       <c r="M15" s="11" t="n"/>
       <c r="N15" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="O15" s="11" t="n"/>
+      <c r="O15" s="11" t="n">
+        <v>62</v>
+      </c>
       <c r="P15" s="11" t="inlineStr">
         <is>
           <t>SOP:
@@ -9253,7 +9292,13 @@
 - Thực hiện task: 14h/tháng</t>
         </is>
       </c>
-      <c r="Q15" s="11" t="n"/>
+      <c r="Q15" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit?usp=sharing&amp;ouid=109873007904207433989&amp;rtpof=true&amp;sd=true
+</t>
+        </is>
+      </c>
       <c r="R15" s="11" t="n"/>
       <c r="S15" s="6" t="n"/>
       <c r="T15" s="6" t="n"/>
@@ -9273,7 +9318,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="13" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M16" s="13" t="n">
         <v>0</v>
@@ -9281,7 +9326,9 @@
       <c r="N16" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="13" t="n"/>
+      <c r="O16" s="13" t="n">
+        <v>174</v>
+      </c>
       <c r="P16" s="11" t="n"/>
       <c r="Q16" s="11" t="n"/>
       <c r="R16" s="11" t="n"/>
@@ -9315,15 +9362,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9655,12 +9702,8 @@
       <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>166</v>
-      </c>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
       <c r="P6" s="11" t="n"/>
       <c r="Q6" s="11" t="n"/>
       <c r="R6" s="11" t="n"/>
@@ -9993,7 +10036,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="11" t="n"/>
       <c r="N12" s="11" t="n">
@@ -10070,7 +10113,7 @@
         <v>80</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M13" s="11" t="n"/>
       <c r="N13" s="11" t="n">
@@ -10086,7 +10129,7 @@
       </c>
       <c r="Q13" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">bằng chứng kết quả toolns : https://docs.google.com/document/d/1t3zYTlbiKrEsvZZEomBpQpPUaNqpr4Z4V8palY_bUkQ/edit?usp=sharing
+          <t xml:space="preserve">bằng chứng kết quả toolns : https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
 </t>
         </is>
       </c>
@@ -10109,17 +10152,13 @@
         <v>100</v>
       </c>
       <c r="L14" s="13" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="M14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="O14" s="13" t="n">
-        <v>149</v>
-      </c>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
       <c r="P14" s="11" t="n"/>
       <c r="Q14" s="11" t="n"/>
       <c r="R14" s="11" t="n"/>
@@ -10200,7 +10239,7 @@
       </c>
       <c r="Q15" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bằng chứng dự án toolNS : https://docs.google.com/document/d/1t3zYTlbiKrEsvZZEomBpQpPUaNqpr4Z4V8palY_bUkQ/edit?usp=sharing
+          <t xml:space="preserve"> bằng chứng dự án toolNS : https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
 </t>
         </is>
       </c>
@@ -10567,12 +10606,8 @@
       <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="13" t="n">
-        <v>144</v>
-      </c>
-      <c r="O22" s="13" t="n">
-        <v>156</v>
-      </c>
+      <c r="N22" s="13" t="n"/>
+      <c r="O22" s="13" t="n"/>
       <c r="P22" s="11" t="n"/>
       <c r="Q22" s="11" t="n"/>
       <c r="R22" s="11" t="n"/>
@@ -10637,7 +10672,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="11" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="M23" s="11" t="n"/>
       <c r="N23" s="11" t="n">
@@ -10656,7 +10691,8 @@
       </c>
       <c r="Q23" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng smart routing t8 : https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+          <t xml:space="preserve">Bằng chứng nhận bàn giao + transfer Oncx : https://drive.google.com/file/d/1HiPLri35eGkI33QMXCcNHcoJkz1WADU8/view?usp=sharing
+Bằng chứng smart routing t8 : https://docs.google.com/spreadsheets/d/1ULC7FeeVPrxMRG06nplzyM1wziQG5HqwYrcLr_Sa1oA/edit?usp=sharing
 </t>
         </is>
       </c>
@@ -10679,7 +10715,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="13" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="M24" s="13" t="n">
         <v>0</v>
@@ -10984,12 +11020,16 @@
       <c r="K29" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="L29" s="11" t="n"/>
+      <c r="L29" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="M29" s="11" t="n"/>
       <c r="N29" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="O29" s="11" t="n"/>
+      <c r="O29" s="11" t="n">
+        <v>8</v>
+      </c>
       <c r="P29" s="11" t="inlineStr">
         <is>
           <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
@@ -11020,12 +11060,8 @@
       <c r="M30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="13" t="n">
-        <v>132</v>
-      </c>
-      <c r="O30" s="13" t="n">
-        <v>124</v>
-      </c>
+      <c r="N30" s="13" t="n"/>
+      <c r="O30" s="13" t="n"/>
       <c r="P30" s="11" t="n"/>
       <c r="Q30" s="11" t="n"/>
       <c r="R30" s="11" t="n"/>
@@ -11138,7 +11174,7 @@
         <v>132</v>
       </c>
       <c r="O32" s="13" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P32" s="11" t="n"/>
       <c r="Q32" s="11" t="n"/>
@@ -11444,7 +11480,8 @@
       </c>
       <c r="Q37" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng KPI 2 Thán 8 : https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
+          <t xml:space="preserve">Bằng chứng Dialo : https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
+Bằng chứng HappyConnect : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
         </is>
       </c>
@@ -11472,12 +11509,8 @@
       <c r="M38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="13" t="n">
-        <v>143</v>
-      </c>
-      <c r="O38" s="13" t="n">
-        <v>17</v>
-      </c>
+      <c r="N38" s="13" t="n"/>
+      <c r="O38" s="13" t="n"/>
       <c r="P38" s="11" t="n"/>
       <c r="Q38" s="11" t="n"/>
       <c r="R38" s="11" t="n"/>
@@ -11539,19 +11572,20 @@
         <v>100</v>
       </c>
       <c r="L39" s="11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M39" s="11" t="n"/>
       <c r="N39" s="11" t="n">
         <v>104</v>
       </c>
       <c r="O39" s="11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P39" s="11" t="n"/>
       <c r="Q39" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng OKR T8 : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+          <t xml:space="preserve">Bằng chứng OKR T8 Happy Connect : https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+Bằng chứng OKR T8 Dialo : https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
 </t>
         </is>
       </c>
@@ -11574,7 +11608,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M40" s="13" t="n">
         <v>0</v>
@@ -11583,7 +11617,7 @@
         <v>143</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P40" s="11" t="n"/>
       <c r="Q40" s="11" t="n"/>

--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -1860,7 +1860,7 @@
         <v>46</v>
       </c>
       <c r="O21" s="11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P21" s="11" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>103.5</v>
       </c>
       <c r="O23" s="11" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P23" s="11" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>197.5</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="P24" s="11" t="n"/>
       <c r="Q24" s="11" t="n"/>
@@ -5452,8 +5452,8 @@
       </c>
       <c r="Q4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
-Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+          <t xml:space="preserve">Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
 </t>
         </is>
       </c>
@@ -5512,7 +5512,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M5" s="11" t="n"/>
       <c r="N5" s="11" t="n">
@@ -5553,7 +5553,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M6" s="13" t="n">
         <v>0</v>
@@ -7264,8 +7264,8 @@
       </c>
       <c r="Q36" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
-Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
+          <t xml:space="preserve">Bằng chứng SOP : https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+Bằng chứng OnCX : https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
 </t>
         </is>
       </c>
@@ -7324,7 +7324,7 @@
         <v>25</v>
       </c>
       <c r="L37" s="11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M37" s="11" t="n"/>
       <c r="N37" s="11" t="n">
@@ -7365,7 +7365,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M38" s="13" t="n">
         <v>0</v>
